--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33AAA50D-D28E-45F9-9D24-0E36A2BED2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617504A1-8CE7-48C5-A8FF-CF560DFCBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
+    <workbookView xWindow="6075" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>N_Partículas</t>
   </si>
@@ -63,6 +63,18 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Comentarios</t>
+  </si>
+  <si>
+    <t>Cambio en la elección del mejor</t>
+  </si>
+  <si>
+    <t>Cambio en el cálculo de distancias. SQRT</t>
+  </si>
+  <si>
+    <t>Tiempo no significativo. Prueba solo para ver accuracy</t>
   </si>
 </sst>
 </file>
@@ -432,11 +444,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3AECA-E9AB-4388-889A-4AA1816DEA18}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,9 +456,10 @@
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
+    <col min="11" max="11" width="49.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -477,8 +490,11 @@
       <c r="J1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.8</v>
       </c>
@@ -511,7 +527,7 @@
         <v>4.0905500000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.8</v>
       </c>
@@ -540,11 +556,11 @@
         <v>113053</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J23" si="0">I3/60000</f>
+        <f t="shared" ref="J3:J25" si="0">I3/60000</f>
         <v>1.8842166666666667</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.8</v>
       </c>
@@ -577,7 +593,7 @@
         <v>1.9505666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -610,7 +626,7 @@
         <v>0.67279166666666668</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -643,7 +659,7 @@
         <v>3.9076333333333335</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.8</v>
       </c>
@@ -676,7 +692,7 @@
         <v>6.8464666666666663</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -709,7 +725,7 @@
         <v>9.6349333333333327</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -742,7 +758,7 @@
         <v>11.82935</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.8</v>
       </c>
@@ -775,7 +791,7 @@
         <v>13.499783333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.8</v>
       </c>
@@ -808,7 +824,7 @@
         <v>18.324666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.2</v>
       </c>
@@ -841,7 +857,7 @@
         <v>4.1116833333333336</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.2</v>
       </c>
@@ -874,7 +890,7 @@
         <v>9.5300333333333338</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>0.8</v>
       </c>
@@ -907,7 +923,7 @@
         <v>4.1134666666666666</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0.8</v>
       </c>
@@ -940,7 +956,7 @@
         <v>9.1879333333333335</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>0.8</v>
       </c>
@@ -973,7 +989,7 @@
         <v>4.1207666666666665</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>0.8</v>
       </c>
@@ -1006,7 +1022,7 @@
         <v>10.005016666666666</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0.8</v>
       </c>
@@ -1039,7 +1055,7 @@
         <v>8.8540333333333336</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.8</v>
       </c>
@@ -1072,7 +1088,7 @@
         <v>3.6713499999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.8</v>
       </c>
@@ -1105,7 +1121,7 @@
         <v>3.5479666666666665</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0.8</v>
       </c>
@@ -1138,7 +1154,7 @@
         <v>5.5131666666666668</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>0.8</v>
       </c>
@@ -1171,7 +1187,7 @@
         <v>5.5647833333333336</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0.8</v>
       </c>
@@ -1202,6 +1218,81 @@
       <c r="J23" s="4">
         <f t="shared" si="0"/>
         <v>3.9584333333333332</v>
+      </c>
+      <c r="K23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0.8</v>
+      </c>
+      <c r="B24">
+        <v>0.8</v>
+      </c>
+      <c r="C24">
+        <v>0.6</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>7</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0.63483100000000003</v>
+      </c>
+      <c r="I24" s="2">
+        <v>211085</v>
+      </c>
+      <c r="J24" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5180833333333332</v>
+      </c>
+      <c r="K24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0.8</v>
+      </c>
+      <c r="B25">
+        <v>0.8</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
+      <c r="E25">
+        <v>4</v>
+      </c>
+      <c r="F25">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.66853899999999999</v>
+      </c>
+      <c r="I25" s="2">
+        <v>443806</v>
+      </c>
+      <c r="J25" s="4">
+        <f t="shared" si="0"/>
+        <v>7.3967666666666663</v>
+      </c>
+      <c r="K25" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617504A1-8CE7-48C5-A8FF-CF560DFCBFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF76E5D-8A14-43A8-B71A-21D4DC3379F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6075" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Mediciones Previas" sheetId="1" r:id="rId1"/>
+    <sheet name="Mediciones Optimización" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
   <si>
     <t>N_Partículas</t>
   </si>
@@ -75,6 +76,24 @@
   </si>
   <si>
     <t>Tiempo no significativo. Prueba solo para ver accuracy</t>
+  </si>
+  <si>
+    <t>Tiempo(s)</t>
+  </si>
+  <si>
+    <t>O2</t>
+  </si>
+  <si>
+    <t>simd</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Secuencial</t>
   </si>
 </sst>
 </file>
@@ -122,13 +141,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -444,11 +466,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCD3AECA-E9AB-4388-889A-4AA1816DEA18}">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K34" sqref="K34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +578,7 @@
         <v>113053</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J25" si="0">I3/60000</f>
+        <f t="shared" ref="J3:J27" si="0">I3/60000</f>
         <v>1.8842166666666667</v>
       </c>
     </row>
@@ -1293,10 +1315,2874 @@
       </c>
       <c r="K25" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0.8</v>
+      </c>
+      <c r="B26">
+        <v>0.8</v>
+      </c>
+      <c r="C26">
+        <v>0.6</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0.66292099999999998</v>
+      </c>
+      <c r="I26" s="2">
+        <v>213920</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="0"/>
+        <v>3.5653333333333332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0.8</v>
+      </c>
+      <c r="B27">
+        <v>0.8</v>
+      </c>
+      <c r="C27">
+        <v>0.6</v>
+      </c>
+      <c r="D27">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0.64044900000000005</v>
+      </c>
+      <c r="I27" s="2">
+        <v>219597</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="0"/>
+        <v>3.6599499999999998</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5205A3-375B-4BB7-AA25-87972EA27D1E}">
+  <dimension ref="A1:J171"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>20</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>17</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>17</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>20</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>20</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>20</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>20</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>20</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>20</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>17</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>20</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+      <c r="D16" s="6">
+        <v>17</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>20</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>17</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>17</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>17</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>20</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+      <c r="D20" s="6">
+        <v>17</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>17</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>17</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="6">
+        <v>17</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>20</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>17</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="6">
+        <v>1</v>
+      </c>
+      <c r="D25" s="6">
+        <v>17</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>20</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="6">
+        <v>1</v>
+      </c>
+      <c r="D26" s="6">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>20</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1</v>
+      </c>
+      <c r="D27" s="6">
+        <v>17</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>20</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>17</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>20</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
+      <c r="D29" s="6">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>20</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6">
+        <v>17</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>20</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1</v>
+      </c>
+      <c r="D31" s="6">
+        <v>17</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>20</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>17</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="6">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6">
+        <v>17</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>20</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="6">
+        <v>2</v>
+      </c>
+      <c r="D34" s="6">
+        <v>17</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>20</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="6">
+        <v>2</v>
+      </c>
+      <c r="D35" s="6">
+        <v>17</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>20</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="6">
+        <v>2</v>
+      </c>
+      <c r="D36" s="6">
+        <v>17</v>
+      </c>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>20</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="6">
+        <v>2</v>
+      </c>
+      <c r="D37" s="6">
+        <v>17</v>
+      </c>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>20</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>17</v>
+      </c>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>20</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="6">
+        <v>2</v>
+      </c>
+      <c r="D39" s="6">
+        <v>17</v>
+      </c>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>20</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2</v>
+      </c>
+      <c r="D40" s="6">
+        <v>17</v>
+      </c>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>20</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6">
+        <v>17</v>
+      </c>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>20</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="6">
+        <v>2</v>
+      </c>
+      <c r="D42" s="6">
+        <v>17</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>20</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43" s="6">
+        <v>2</v>
+      </c>
+      <c r="D43" s="6">
+        <v>17</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>20</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>17</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>20</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="6">
+        <v>2</v>
+      </c>
+      <c r="D45" s="6">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="6">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6">
+        <v>17</v>
+      </c>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>20</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47" s="6">
+        <v>2</v>
+      </c>
+      <c r="D47" s="6">
+        <v>17</v>
+      </c>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>20</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="6">
+        <v>2</v>
+      </c>
+      <c r="D48" s="6">
+        <v>17</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>20</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="6">
+        <v>2</v>
+      </c>
+      <c r="D49" s="6">
+        <v>17</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>20</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" s="6">
+        <v>2</v>
+      </c>
+      <c r="D50" s="6">
+        <v>17</v>
+      </c>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>20</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="6">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>17</v>
+      </c>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>20</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="6">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>17</v>
+      </c>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>20</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="6">
+        <v>3</v>
+      </c>
+      <c r="D53" s="6">
+        <v>17</v>
+      </c>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>20</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="6">
+        <v>3</v>
+      </c>
+      <c r="D54" s="6">
+        <v>17</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>20</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" s="6">
+        <v>3</v>
+      </c>
+      <c r="D55" s="6">
+        <v>17</v>
+      </c>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>20</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" s="6">
+        <v>3</v>
+      </c>
+      <c r="D56" s="6">
+        <v>17</v>
+      </c>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>20</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="6">
+        <v>3</v>
+      </c>
+      <c r="D57" s="6">
+        <v>17</v>
+      </c>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>20</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="6">
+        <v>3</v>
+      </c>
+      <c r="D58" s="6">
+        <v>17</v>
+      </c>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>20</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" s="6">
+        <v>3</v>
+      </c>
+      <c r="D59" s="6">
+        <v>17</v>
+      </c>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>20</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="6">
+        <v>3</v>
+      </c>
+      <c r="D60" s="6">
+        <v>17</v>
+      </c>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>20</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="6">
+        <v>3</v>
+      </c>
+      <c r="D61" s="6">
+        <v>17</v>
+      </c>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>20</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="6">
+        <v>3</v>
+      </c>
+      <c r="D62" s="6">
+        <v>17</v>
+      </c>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>20</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="6">
+        <v>3</v>
+      </c>
+      <c r="D63" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>20</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="6">
+        <v>3</v>
+      </c>
+      <c r="D64" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>20</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="6">
+        <v>3</v>
+      </c>
+      <c r="D65" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>20</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66" s="6">
+        <v>3</v>
+      </c>
+      <c r="D66" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>20</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="6">
+        <v>3</v>
+      </c>
+      <c r="D67" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>20</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C68" s="6">
+        <v>3</v>
+      </c>
+      <c r="D68" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>20</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C69" s="6">
+        <v>3</v>
+      </c>
+      <c r="D69" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>20</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="6">
+        <v>3</v>
+      </c>
+      <c r="D70" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>20</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="6">
+        <v>3</v>
+      </c>
+      <c r="D71" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>20</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="6">
+        <v>4</v>
+      </c>
+      <c r="D72" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>20</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="6">
+        <v>4</v>
+      </c>
+      <c r="D73" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>20</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="6">
+        <v>1</v>
+      </c>
+      <c r="D74" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>20</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="6">
+        <v>1</v>
+      </c>
+      <c r="D75" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>20</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="6">
+        <v>1</v>
+      </c>
+      <c r="D76" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>20</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="6">
+        <v>1</v>
+      </c>
+      <c r="D77" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>20</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="6">
+        <v>1</v>
+      </c>
+      <c r="D78" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>20</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="6">
+        <v>1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>20</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80" s="6">
+        <v>1</v>
+      </c>
+      <c r="D80" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>20</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="6">
+        <v>1</v>
+      </c>
+      <c r="D81" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>20</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="6">
+        <v>1</v>
+      </c>
+      <c r="D82" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>20</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C83" s="6">
+        <v>1</v>
+      </c>
+      <c r="D83" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>20</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C84" s="6">
+        <v>1</v>
+      </c>
+      <c r="D84" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>20</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85" s="6">
+        <v>1</v>
+      </c>
+      <c r="D85" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>20</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="6">
+        <v>1</v>
+      </c>
+      <c r="D86" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>20</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="6">
+        <v>1</v>
+      </c>
+      <c r="D87" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>20</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="6">
+        <v>1</v>
+      </c>
+      <c r="D88" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>20</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="6">
+        <v>1</v>
+      </c>
+      <c r="D89" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>20</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+      <c r="D90" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>20</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91" s="6">
+        <v>1</v>
+      </c>
+      <c r="D91" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>20</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" s="6">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>20</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="6">
+        <v>1</v>
+      </c>
+      <c r="D93" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>20</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+      <c r="D94" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>20</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="6">
+        <v>1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>20</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+      <c r="D96" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>20</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="6">
+        <v>1</v>
+      </c>
+      <c r="D97" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>20</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C98" s="6">
+        <v>1</v>
+      </c>
+      <c r="D98" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>20</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="6">
+        <v>1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>20</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="6">
+        <v>1</v>
+      </c>
+      <c r="D100" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>20</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="6">
+        <v>1</v>
+      </c>
+      <c r="D101" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>20</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C102" s="6">
+        <v>1</v>
+      </c>
+      <c r="D102" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>20</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="6">
+        <v>1</v>
+      </c>
+      <c r="D103" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>20</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="6">
+        <v>1</v>
+      </c>
+      <c r="D104" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>20</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105" s="6">
+        <v>1</v>
+      </c>
+      <c r="D105" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>20</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106" s="6">
+        <v>1</v>
+      </c>
+      <c r="D106" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>20</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107" s="6">
+        <v>1</v>
+      </c>
+      <c r="D107" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>20</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="6">
+        <v>1</v>
+      </c>
+      <c r="D108" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>20</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C109" s="6">
+        <v>1</v>
+      </c>
+      <c r="D109" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>20</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110" s="6">
+        <v>1</v>
+      </c>
+      <c r="D110" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>20</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="6">
+        <v>1</v>
+      </c>
+      <c r="D111" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>20</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="6">
+        <v>6</v>
+      </c>
+      <c r="D112" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>20</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="6">
+        <v>1</v>
+      </c>
+      <c r="D113" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>20</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="6">
+        <v>1</v>
+      </c>
+      <c r="D114" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>20</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="6">
+        <v>1</v>
+      </c>
+      <c r="D115" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>20</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="6">
+        <v>1</v>
+      </c>
+      <c r="D116" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>20</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="6">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>20</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118" s="6">
+        <v>1</v>
+      </c>
+      <c r="D118" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>20</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119" s="6">
+        <v>1</v>
+      </c>
+      <c r="D119" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>20</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="6">
+        <v>1</v>
+      </c>
+      <c r="D120" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>20</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C121" s="6">
+        <v>1</v>
+      </c>
+      <c r="D121" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>20</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122" s="6">
+        <v>1</v>
+      </c>
+      <c r="D122" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>20</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="6">
+        <v>1</v>
+      </c>
+      <c r="D123" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>20</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124" s="6">
+        <v>1</v>
+      </c>
+      <c r="D124" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>20</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C125" s="6">
+        <v>1</v>
+      </c>
+      <c r="D125" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>20</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="6">
+        <v>1</v>
+      </c>
+      <c r="D126" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>20</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C127" s="6">
+        <v>1</v>
+      </c>
+      <c r="D127" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>20</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="6">
+        <v>1</v>
+      </c>
+      <c r="D128" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>20</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129" s="6">
+        <v>1</v>
+      </c>
+      <c r="D129" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>20</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130" s="6">
+        <v>1</v>
+      </c>
+      <c r="D130" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>20</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131" s="6">
+        <v>1</v>
+      </c>
+      <c r="D131" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>20</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132" s="6">
+        <v>1</v>
+      </c>
+      <c r="D132" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>20</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133" s="6">
+        <v>7</v>
+      </c>
+      <c r="D133" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>20</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134" s="6">
+        <v>1</v>
+      </c>
+      <c r="D134" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>20</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" s="6">
+        <v>1</v>
+      </c>
+      <c r="D135" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>20</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" s="6">
+        <v>1</v>
+      </c>
+      <c r="D136" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>20</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C137" s="6">
+        <v>1</v>
+      </c>
+      <c r="D137" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>20</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138" s="6">
+        <v>1</v>
+      </c>
+      <c r="D138" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>20</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139" s="6">
+        <v>1</v>
+      </c>
+      <c r="D139" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>20</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="6">
+        <v>1</v>
+      </c>
+      <c r="D140" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>20</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141" s="6">
+        <v>1</v>
+      </c>
+      <c r="D141" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>20</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C142" s="6">
+        <v>1</v>
+      </c>
+      <c r="D142" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>20</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C143" s="6">
+        <v>1</v>
+      </c>
+      <c r="D143" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>20</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144" s="6">
+        <v>1</v>
+      </c>
+      <c r="D144" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>20</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145" s="6">
+        <v>1</v>
+      </c>
+      <c r="D145" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>20</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146" s="6">
+        <v>1</v>
+      </c>
+      <c r="D146" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>20</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147" s="6">
+        <v>1</v>
+      </c>
+      <c r="D147" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>20</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C148" s="6">
+        <v>1</v>
+      </c>
+      <c r="D148" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>20</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C149" s="6">
+        <v>1</v>
+      </c>
+      <c r="D149" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>20</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C150" s="6">
+        <v>1</v>
+      </c>
+      <c r="D150" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>20</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C151" s="6">
+        <v>1</v>
+      </c>
+      <c r="D151" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>20</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="6">
+        <v>1</v>
+      </c>
+      <c r="D152" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>20</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C153" s="6">
+        <v>8</v>
+      </c>
+      <c r="D153" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>20</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C154" s="6">
+        <v>1</v>
+      </c>
+      <c r="D154" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>20</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C155" s="6">
+        <v>1</v>
+      </c>
+      <c r="D155" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>20</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C156" s="6">
+        <v>1</v>
+      </c>
+      <c r="D156" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>20</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" s="6">
+        <v>1</v>
+      </c>
+      <c r="D157" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>20</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C158" s="6">
+        <v>1</v>
+      </c>
+      <c r="D158" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>20</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C159" s="6">
+        <v>1</v>
+      </c>
+      <c r="D159" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>20</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="6">
+        <v>1</v>
+      </c>
+      <c r="D160" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>20</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C161" s="6">
+        <v>1</v>
+      </c>
+      <c r="D161" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>20</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162" s="6">
+        <v>1</v>
+      </c>
+      <c r="D162" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>20</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="6">
+        <v>1</v>
+      </c>
+      <c r="D163" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>20</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C164" s="6">
+        <v>1</v>
+      </c>
+      <c r="D164" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>20</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C165" s="6">
+        <v>1</v>
+      </c>
+      <c r="D165" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>20</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166" s="6">
+        <v>1</v>
+      </c>
+      <c r="D166" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>20</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C167" s="6">
+        <v>1</v>
+      </c>
+      <c r="D167" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>20</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="6">
+        <v>1</v>
+      </c>
+      <c r="D168" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>20</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C169" s="6">
+        <v>1</v>
+      </c>
+      <c r="D169" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>20</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="6">
+        <v>1</v>
+      </c>
+      <c r="D170" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>20</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C171" s="6">
+        <v>1</v>
+      </c>
+      <c r="D171" s="6">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF76E5D-8A14-43A8-B71A-21D4DC3379F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CD35C4-2CF1-44E8-9F05-862BD07959D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="20">
   <si>
     <t>N_Partículas</t>
   </si>
@@ -470,7 +470,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A21:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1395,13 +1395,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A171" sqref="A171"/>
+      <selection pane="bottomLeft" activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1649,8 +1651,12 @@
       <c r="D12" s="6">
         <v>17</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -1669,8 +1675,12 @@
       <c r="D13" s="6">
         <v>17</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -1689,8 +1699,12 @@
       <c r="D14" s="6">
         <v>17</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1709,8 +1723,12 @@
       <c r="D15" s="6">
         <v>17</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1729,8 +1747,12 @@
       <c r="D16" s="6">
         <v>17</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -1749,8 +1771,12 @@
       <c r="D17" s="6">
         <v>17</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
@@ -1769,8 +1795,12 @@
       <c r="D18" s="6">
         <v>17</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
@@ -1789,8 +1819,12 @@
       <c r="D19" s="6">
         <v>17</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
@@ -1809,8 +1843,12 @@
       <c r="D20" s="6">
         <v>17</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
@@ -1829,8 +1867,12 @@
       <c r="D21" s="6">
         <v>17</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -1849,8 +1891,12 @@
       <c r="D22" s="6">
         <v>17</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
@@ -1869,8 +1915,12 @@
       <c r="D23" s="6">
         <v>17</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
@@ -1889,8 +1939,12 @@
       <c r="D24" s="6">
         <v>17</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1909,8 +1963,12 @@
       <c r="D25" s="6">
         <v>17</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1929,8 +1987,12 @@
       <c r="D26" s="6">
         <v>17</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
@@ -1949,8 +2011,12 @@
       <c r="D27" s="6">
         <v>17</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1969,8 +2035,12 @@
       <c r="D28" s="6">
         <v>17</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -1989,8 +2059,12 @@
       <c r="D29" s="6">
         <v>17</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -2009,8 +2083,12 @@
       <c r="D30" s="6">
         <v>17</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -2029,8 +2107,12 @@
       <c r="D31" s="6">
         <v>17</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -2049,8 +2131,12 @@
       <c r="D32" s="6">
         <v>17</v>
       </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="E32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
@@ -2069,8 +2155,12 @@
       <c r="D33" s="6">
         <v>17</v>
       </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="I33" s="6"/>
@@ -2089,8 +2179,12 @@
       <c r="D34" s="6">
         <v>17</v>
       </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
+      <c r="E34" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
       <c r="I34" s="6"/>
@@ -2109,8 +2203,12 @@
       <c r="D35" s="6">
         <v>17</v>
       </c>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
+      <c r="E35" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
@@ -2129,8 +2227,12 @@
       <c r="D36" s="6">
         <v>17</v>
       </c>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+      <c r="E36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
@@ -2149,8 +2251,12 @@
       <c r="D37" s="6">
         <v>17</v>
       </c>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="I37" s="6"/>
@@ -2169,8 +2275,12 @@
       <c r="D38" s="6">
         <v>17</v>
       </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="I38" s="6"/>
@@ -2189,8 +2299,12 @@
       <c r="D39" s="6">
         <v>17</v>
       </c>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
+      <c r="E39" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
@@ -2209,8 +2323,12 @@
       <c r="D40" s="6">
         <v>17</v>
       </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
@@ -2229,8 +2347,12 @@
       <c r="D41" s="6">
         <v>17</v>
       </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="I41" s="6"/>
@@ -2249,8 +2371,12 @@
       <c r="D42" s="6">
         <v>17</v>
       </c>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="I42" s="6"/>
@@ -2269,8 +2395,12 @@
       <c r="D43" s="6">
         <v>17</v>
       </c>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
@@ -2289,8 +2419,12 @@
       <c r="D44" s="6">
         <v>17</v>
       </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
@@ -2309,8 +2443,12 @@
       <c r="D45" s="6">
         <v>17</v>
       </c>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
+      <c r="E45" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
       <c r="I45" s="6"/>
@@ -2329,8 +2467,12 @@
       <c r="D46" s="6">
         <v>17</v>
       </c>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
+      <c r="E46" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="I46" s="6"/>
@@ -2349,8 +2491,12 @@
       <c r="D47" s="6">
         <v>17</v>
       </c>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="E47" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
@@ -2369,8 +2515,12 @@
       <c r="D48" s="6">
         <v>17</v>
       </c>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="E48" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
@@ -2389,8 +2539,12 @@
       <c r="D49" s="6">
         <v>17</v>
       </c>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="E49" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
@@ -2409,8 +2563,12 @@
       <c r="D50" s="6">
         <v>17</v>
       </c>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="E50" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -2429,8 +2587,12 @@
       <c r="D51" s="6">
         <v>17</v>
       </c>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="E51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -2449,8 +2611,12 @@
       <c r="D52" s="6">
         <v>17</v>
       </c>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="E52" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -2469,8 +2635,12 @@
       <c r="D53" s="6">
         <v>17</v>
       </c>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
+      <c r="E53" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
@@ -2489,8 +2659,12 @@
       <c r="D54" s="6">
         <v>17</v>
       </c>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
+      <c r="E54" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="I54" s="6"/>
@@ -2509,8 +2683,12 @@
       <c r="D55" s="6">
         <v>17</v>
       </c>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -2529,8 +2707,12 @@
       <c r="D56" s="6">
         <v>17</v>
       </c>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="E56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
@@ -2549,8 +2731,12 @@
       <c r="D57" s="6">
         <v>17</v>
       </c>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="E57" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
@@ -2569,8 +2755,12 @@
       <c r="D58" s="6">
         <v>17</v>
       </c>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="E58" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
@@ -2589,8 +2779,12 @@
       <c r="D59" s="6">
         <v>17</v>
       </c>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
@@ -2609,8 +2803,12 @@
       <c r="D60" s="6">
         <v>17</v>
       </c>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="E60" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
@@ -2629,8 +2827,12 @@
       <c r="D61" s="6">
         <v>17</v>
       </c>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
+      <c r="E61" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
       <c r="I61" s="6"/>
@@ -2649,8 +2851,12 @@
       <c r="D62" s="6">
         <v>17</v>
       </c>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+      <c r="E62" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
       <c r="I62" s="6"/>
@@ -2669,6 +2875,12 @@
       <c r="D63" s="6">
         <v>17</v>
       </c>
+      <c r="E63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
@@ -2683,8 +2895,14 @@
       <c r="D64" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>20</v>
       </c>
@@ -2697,8 +2915,14 @@
       <c r="D65" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>20</v>
       </c>
@@ -2711,8 +2935,14 @@
       <c r="D66" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>20</v>
       </c>
@@ -2725,8 +2955,14 @@
       <c r="D67" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>20</v>
       </c>
@@ -2739,8 +2975,14 @@
       <c r="D68" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>20</v>
       </c>
@@ -2753,8 +2995,14 @@
       <c r="D69" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>20</v>
       </c>
@@ -2767,8 +3015,14 @@
       <c r="D70" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>20</v>
       </c>
@@ -2781,8 +3035,14 @@
       <c r="D71" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>20</v>
       </c>
@@ -2795,8 +3055,14 @@
       <c r="D72" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>20</v>
       </c>
@@ -2809,8 +3075,14 @@
       <c r="D73" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>20</v>
       </c>
@@ -2818,13 +3090,19 @@
         <v>18</v>
       </c>
       <c r="C74" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D74" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>20</v>
       </c>
@@ -2832,13 +3110,19 @@
         <v>18</v>
       </c>
       <c r="C75" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D75" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>20</v>
       </c>
@@ -2846,13 +3130,19 @@
         <v>18</v>
       </c>
       <c r="C76" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>20</v>
       </c>
@@ -2860,13 +3150,19 @@
         <v>18</v>
       </c>
       <c r="C77" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D77" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>20</v>
       </c>
@@ -2874,13 +3170,19 @@
         <v>18</v>
       </c>
       <c r="C78" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D78" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>20</v>
       </c>
@@ -2888,13 +3190,19 @@
         <v>18</v>
       </c>
       <c r="C79" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D79" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>20</v>
       </c>
@@ -2902,13 +3210,19 @@
         <v>18</v>
       </c>
       <c r="C80" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D80" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>20</v>
       </c>
@@ -2916,13 +3230,19 @@
         <v>18</v>
       </c>
       <c r="C81" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D81" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>20</v>
       </c>
@@ -2930,13 +3250,19 @@
         <v>18</v>
       </c>
       <c r="C82" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>20</v>
       </c>
@@ -2944,13 +3270,19 @@
         <v>18</v>
       </c>
       <c r="C83" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D83" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>20</v>
       </c>
@@ -2958,13 +3290,19 @@
         <v>18</v>
       </c>
       <c r="C84" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D84" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>20</v>
       </c>
@@ -2972,13 +3310,19 @@
         <v>18</v>
       </c>
       <c r="C85" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>20</v>
       </c>
@@ -2986,13 +3330,19 @@
         <v>18</v>
       </c>
       <c r="C86" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>20</v>
       </c>
@@ -3000,13 +3350,19 @@
         <v>18</v>
       </c>
       <c r="C87" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D87" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>20</v>
       </c>
@@ -3014,13 +3370,19 @@
         <v>18</v>
       </c>
       <c r="C88" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D88" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>20</v>
       </c>
@@ -3028,13 +3390,19 @@
         <v>18</v>
       </c>
       <c r="C89" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D89" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>20</v>
       </c>
@@ -3042,13 +3410,19 @@
         <v>18</v>
       </c>
       <c r="C90" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>20</v>
       </c>
@@ -3056,13 +3430,19 @@
         <v>18</v>
       </c>
       <c r="C91" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D91" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>20</v>
       </c>
@@ -3075,8 +3455,14 @@
       <c r="D92" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>20</v>
       </c>
@@ -3084,13 +3470,19 @@
         <v>18</v>
       </c>
       <c r="C93" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D93" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>20</v>
       </c>
@@ -3098,13 +3490,19 @@
         <v>18</v>
       </c>
       <c r="C94" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D94" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>20</v>
       </c>
@@ -3112,13 +3510,19 @@
         <v>18</v>
       </c>
       <c r="C95" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D95" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>20</v>
       </c>
@@ -3126,13 +3530,19 @@
         <v>18</v>
       </c>
       <c r="C96" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D96" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>20</v>
       </c>
@@ -3140,13 +3550,19 @@
         <v>18</v>
       </c>
       <c r="C97" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D97" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>20</v>
       </c>
@@ -3154,13 +3570,19 @@
         <v>18</v>
       </c>
       <c r="C98" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>20</v>
       </c>
@@ -3168,13 +3590,19 @@
         <v>18</v>
       </c>
       <c r="C99" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D99" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>20</v>
       </c>
@@ -3182,13 +3610,19 @@
         <v>18</v>
       </c>
       <c r="C100" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D100" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>20</v>
       </c>
@@ -3196,13 +3630,19 @@
         <v>18</v>
       </c>
       <c r="C101" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D101" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>20</v>
       </c>
@@ -3210,13 +3650,19 @@
         <v>18</v>
       </c>
       <c r="C102" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D102" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>20</v>
       </c>
@@ -3224,13 +3670,19 @@
         <v>18</v>
       </c>
       <c r="C103" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D103" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>20</v>
       </c>
@@ -3238,13 +3690,19 @@
         <v>18</v>
       </c>
       <c r="C104" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D104" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>20</v>
       </c>
@@ -3252,13 +3710,19 @@
         <v>18</v>
       </c>
       <c r="C105" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D105" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>20</v>
       </c>
@@ -3266,13 +3730,19 @@
         <v>18</v>
       </c>
       <c r="C106" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D106" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>20</v>
       </c>
@@ -3280,13 +3750,19 @@
         <v>18</v>
       </c>
       <c r="C107" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D107" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>20</v>
       </c>
@@ -3294,13 +3770,19 @@
         <v>18</v>
       </c>
       <c r="C108" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D108" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>20</v>
       </c>
@@ -3308,13 +3790,19 @@
         <v>18</v>
       </c>
       <c r="C109" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D109" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>20</v>
       </c>
@@ -3322,13 +3810,19 @@
         <v>18</v>
       </c>
       <c r="C110" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>20</v>
       </c>
@@ -3336,13 +3830,19 @@
         <v>18</v>
       </c>
       <c r="C111" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D111" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>20</v>
       </c>
@@ -3355,8 +3855,14 @@
       <c r="D112" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>20</v>
       </c>
@@ -3364,13 +3870,19 @@
         <v>18</v>
       </c>
       <c r="C113" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D113" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>20</v>
       </c>
@@ -3378,13 +3890,19 @@
         <v>18</v>
       </c>
       <c r="C114" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D114" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>20</v>
       </c>
@@ -3392,13 +3910,19 @@
         <v>18</v>
       </c>
       <c r="C115" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D115" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>20</v>
       </c>
@@ -3406,13 +3930,19 @@
         <v>18</v>
       </c>
       <c r="C116" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D116" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>20</v>
       </c>
@@ -3420,13 +3950,19 @@
         <v>18</v>
       </c>
       <c r="C117" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D117" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>20</v>
       </c>
@@ -3434,13 +3970,19 @@
         <v>18</v>
       </c>
       <c r="C118" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D118" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>20</v>
       </c>
@@ -3448,13 +3990,19 @@
         <v>18</v>
       </c>
       <c r="C119" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>20</v>
       </c>
@@ -3462,13 +4010,19 @@
         <v>18</v>
       </c>
       <c r="C120" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D120" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>20</v>
       </c>
@@ -3476,13 +4030,19 @@
         <v>18</v>
       </c>
       <c r="C121" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D121" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>20</v>
       </c>
@@ -3490,13 +4050,19 @@
         <v>18</v>
       </c>
       <c r="C122" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D122" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>20</v>
       </c>
@@ -3504,13 +4070,19 @@
         <v>18</v>
       </c>
       <c r="C123" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D123" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>20</v>
       </c>
@@ -3518,13 +4090,19 @@
         <v>18</v>
       </c>
       <c r="C124" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D124" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>20</v>
       </c>
@@ -3532,13 +4110,19 @@
         <v>18</v>
       </c>
       <c r="C125" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D125" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>20</v>
       </c>
@@ -3546,13 +4130,19 @@
         <v>18</v>
       </c>
       <c r="C126" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D126" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>20</v>
       </c>
@@ -3560,13 +4150,19 @@
         <v>18</v>
       </c>
       <c r="C127" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D127" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>20</v>
       </c>
@@ -3574,13 +4170,19 @@
         <v>18</v>
       </c>
       <c r="C128" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D128" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>20</v>
       </c>
@@ -3588,13 +4190,19 @@
         <v>18</v>
       </c>
       <c r="C129" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D129" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>20</v>
       </c>
@@ -3602,13 +4210,19 @@
         <v>18</v>
       </c>
       <c r="C130" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D130" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>20</v>
       </c>
@@ -3616,13 +4230,19 @@
         <v>18</v>
       </c>
       <c r="C131" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D131" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>20</v>
       </c>
@@ -3630,13 +4250,19 @@
         <v>18</v>
       </c>
       <c r="C132" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D132" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>20</v>
       </c>
@@ -3649,8 +4275,14 @@
       <c r="D133" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>20</v>
       </c>
@@ -3658,13 +4290,19 @@
         <v>18</v>
       </c>
       <c r="C134" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D134" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>20</v>
       </c>
@@ -3672,13 +4310,19 @@
         <v>18</v>
       </c>
       <c r="C135" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D135" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>20</v>
       </c>
@@ -3686,13 +4330,19 @@
         <v>18</v>
       </c>
       <c r="C136" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D136" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>20</v>
       </c>
@@ -3700,13 +4350,19 @@
         <v>18</v>
       </c>
       <c r="C137" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D137" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>20</v>
       </c>
@@ -3714,13 +4370,19 @@
         <v>18</v>
       </c>
       <c r="C138" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D138" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>20</v>
       </c>
@@ -3728,13 +4390,19 @@
         <v>18</v>
       </c>
       <c r="C139" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D139" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>20</v>
       </c>
@@ -3742,13 +4410,19 @@
         <v>18</v>
       </c>
       <c r="C140" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D140" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>20</v>
       </c>
@@ -3756,13 +4430,19 @@
         <v>18</v>
       </c>
       <c r="C141" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D141" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>20</v>
       </c>
@@ -3770,13 +4450,19 @@
         <v>18</v>
       </c>
       <c r="C142" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D142" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>20</v>
       </c>
@@ -3784,13 +4470,19 @@
         <v>18</v>
       </c>
       <c r="C143" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D143" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>20</v>
       </c>
@@ -3798,13 +4490,19 @@
         <v>18</v>
       </c>
       <c r="C144" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D144" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>20</v>
       </c>
@@ -3812,13 +4510,19 @@
         <v>18</v>
       </c>
       <c r="C145" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D145" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>20</v>
       </c>
@@ -3826,13 +4530,19 @@
         <v>18</v>
       </c>
       <c r="C146" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D146" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>20</v>
       </c>
@@ -3840,13 +4550,19 @@
         <v>18</v>
       </c>
       <c r="C147" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D147" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>20</v>
       </c>
@@ -3854,13 +4570,19 @@
         <v>18</v>
       </c>
       <c r="C148" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D148" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>20</v>
       </c>
@@ -3868,13 +4590,19 @@
         <v>18</v>
       </c>
       <c r="C149" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D149" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>20</v>
       </c>
@@ -3882,13 +4610,19 @@
         <v>18</v>
       </c>
       <c r="C150" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D150" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>20</v>
       </c>
@@ -3896,13 +4630,19 @@
         <v>18</v>
       </c>
       <c r="C151" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D151" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>20</v>
       </c>
@@ -3910,13 +4650,19 @@
         <v>18</v>
       </c>
       <c r="C152" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D152" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>20</v>
       </c>
@@ -3929,8 +4675,14 @@
       <c r="D153" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>20</v>
       </c>
@@ -3938,13 +4690,19 @@
         <v>18</v>
       </c>
       <c r="C154" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D154" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>20</v>
       </c>
@@ -3952,13 +4710,19 @@
         <v>18</v>
       </c>
       <c r="C155" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D155" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>20</v>
       </c>
@@ -3966,13 +4730,19 @@
         <v>18</v>
       </c>
       <c r="C156" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D156" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>20</v>
       </c>
@@ -3980,13 +4750,19 @@
         <v>18</v>
       </c>
       <c r="C157" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D157" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>20</v>
       </c>
@@ -3994,13 +4770,19 @@
         <v>18</v>
       </c>
       <c r="C158" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D158" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>20</v>
       </c>
@@ -4008,13 +4790,19 @@
         <v>18</v>
       </c>
       <c r="C159" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D159" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>20</v>
       </c>
@@ -4022,13 +4810,19 @@
         <v>18</v>
       </c>
       <c r="C160" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D160" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>20</v>
       </c>
@@ -4036,13 +4830,19 @@
         <v>18</v>
       </c>
       <c r="C161" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D161" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>20</v>
       </c>
@@ -4050,13 +4850,19 @@
         <v>18</v>
       </c>
       <c r="C162" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D162" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>20</v>
       </c>
@@ -4064,13 +4870,19 @@
         <v>18</v>
       </c>
       <c r="C163" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D163" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>20</v>
       </c>
@@ -4078,13 +4890,19 @@
         <v>18</v>
       </c>
       <c r="C164" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D164" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>20</v>
       </c>
@@ -4092,13 +4910,19 @@
         <v>18</v>
       </c>
       <c r="C165" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D165" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>20</v>
       </c>
@@ -4106,13 +4930,19 @@
         <v>18</v>
       </c>
       <c r="C166" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D166" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>20</v>
       </c>
@@ -4120,13 +4950,19 @@
         <v>18</v>
       </c>
       <c r="C167" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D167" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>20</v>
       </c>
@@ -4134,13 +4970,19 @@
         <v>18</v>
       </c>
       <c r="C168" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D168" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>20</v>
       </c>
@@ -4148,13 +4990,19 @@
         <v>18</v>
       </c>
       <c r="C169" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D169" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>20</v>
       </c>
@@ -4162,13 +5010,19 @@
         <v>18</v>
       </c>
       <c r="C170" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D170" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>20</v>
       </c>
@@ -4176,10 +5030,16 @@
         <v>18</v>
       </c>
       <c r="C171" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D171" s="6">
         <v>17</v>
+      </c>
+      <c r="E171" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC81CC4-9B47-412F-8534-81915A3CAF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3690A-D2A7-4BE5-9187-E954800BE5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
@@ -314,24 +314,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -393,6 +375,24 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -440,7 +440,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1651,14 +1651,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>695326</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>42861</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>666750</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
@@ -2914,16 +2914,16 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="16.28515625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2960,16 +2960,16 @@
       <c r="A2" s="10">
         <v>40</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="36">
         <v>0</v>
       </c>
       <c r="C2" s="10">
         <v>17</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="13"/>
+      <c r="D2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="36"/>
       <c r="F2" s="10">
         <v>67314.5</v>
       </c>
@@ -2981,7 +2981,7 @@
         <f>G2/60</f>
         <v>1.1219083333333333</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="36">
         <f>SUM(F2:F6)/5</f>
         <v>67096.639999999985</v>
       </c>
@@ -2990,12 +2990,12 @@
       <c r="A3" s="10">
         <v>40</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="10">
         <v>17</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="10">
         <v>67088.899999999994</v>
       </c>
@@ -3007,18 +3007,18 @@
         <f t="shared" ref="H3:H66" si="1">G3/60</f>
         <v>1.1181483333333333</v>
       </c>
-      <c r="I3" s="13"/>
+      <c r="I3" s="36"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>40</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="10">
         <v>67185.7</v>
       </c>
@@ -3030,18 +3030,18 @@
         <f t="shared" si="1"/>
         <v>1.1197616666666665</v>
       </c>
-      <c r="I4" s="13"/>
+      <c r="I4" s="36"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>40</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
       <c r="F5" s="10">
         <v>66607.7</v>
       </c>
@@ -3053,18 +3053,18 @@
         <f t="shared" si="1"/>
         <v>1.1101283333333332</v>
       </c>
-      <c r="I5" s="13"/>
+      <c r="I5" s="36"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>40</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
       <c r="F6" s="10">
         <v>67286.399999999994</v>
       </c>
@@ -3076,22 +3076,22 @@
         <f t="shared" si="1"/>
         <v>1.12144</v>
       </c>
-      <c r="I6" s="13"/>
+      <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>40</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="35">
         <v>0</v>
       </c>
       <c r="C7" s="11">
         <v>17</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="11">
         <v>255690</v>
       </c>
@@ -3103,7 +3103,7 @@
         <f t="shared" si="1"/>
         <v>4.2614999999999998</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="35">
         <f>SUM(F7:F11)/5</f>
         <v>254726</v>
       </c>
@@ -3112,12 +3112,12 @@
       <c r="A8" s="11">
         <v>40</v>
       </c>
-      <c r="B8" s="14"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="11">
         <v>17</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
       <c r="F8" s="11">
         <v>255234</v>
       </c>
@@ -3129,18 +3129,18 @@
         <f t="shared" si="1"/>
         <v>4.2538999999999998</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>40</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="11">
         <v>17</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="11">
         <v>254960</v>
       </c>
@@ -3152,18 +3152,18 @@
         <f t="shared" si="1"/>
         <v>4.2493333333333334</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="35"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>40</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11">
         <v>17</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="11">
         <v>254264</v>
       </c>
@@ -3175,18 +3175,18 @@
         <f t="shared" si="1"/>
         <v>4.2377333333333338</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="35"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>40</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11">
         <v>17</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="11">
         <v>253482</v>
       </c>
@@ -3198,22 +3198,22 @@
         <f t="shared" si="1"/>
         <v>4.2247000000000003</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="35"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>40</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="34">
         <v>1</v>
       </c>
       <c r="C12" s="6">
         <v>17</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="D12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
@@ -3227,7 +3227,7 @@
         <f t="shared" si="1"/>
         <v>1.1233633333333335</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="34">
         <f t="shared" ref="I12" si="2">SUM(F12:F16)/5</f>
         <v>66700.5</v>
       </c>
@@ -3236,12 +3236,12 @@
       <c r="A13" s="6">
         <v>40</v>
       </c>
-      <c r="B13" s="15"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="6">
         <v>17</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
       <c r="F13" s="6">
         <v>66515</v>
       </c>
@@ -3253,18 +3253,18 @@
         <f t="shared" si="1"/>
         <v>1.1085833333333333</v>
       </c>
-      <c r="I13" s="15"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>40</v>
       </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="6">
         <v>17</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
       <c r="F14" s="6">
         <v>66720.3</v>
       </c>
@@ -3276,18 +3276,18 @@
         <f t="shared" si="1"/>
         <v>1.1120050000000001</v>
       </c>
-      <c r="I14" s="15"/>
+      <c r="I14" s="34"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>40</v>
       </c>
-      <c r="B15" s="15"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="6">
         <v>17</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
       <c r="F15" s="6">
         <v>66057.2</v>
       </c>
@@ -3299,18 +3299,18 @@
         <f t="shared" si="1"/>
         <v>1.1009533333333332</v>
       </c>
-      <c r="I15" s="15"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40</v>
       </c>
-      <c r="B16" s="15"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="6">
         <v>17</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
       <c r="F16" s="6">
         <v>66808.2</v>
       </c>
@@ -3322,22 +3322,22 @@
         <f t="shared" si="1"/>
         <v>1.11347</v>
       </c>
-      <c r="I16" s="15"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>40</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="33">
         <v>1</v>
       </c>
       <c r="C17" s="7">
         <v>17</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="7">
@@ -3351,7 +3351,7 @@
         <f t="shared" si="1"/>
         <v>1.0979433333333335</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="33">
         <f t="shared" ref="I17" si="3">SUM(F17:F21)/5</f>
         <v>65802.38</v>
       </c>
@@ -3360,12 +3360,12 @@
       <c r="A18" s="7">
         <v>40</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
       <c r="F18" s="7">
         <v>65777.3</v>
       </c>
@@ -3377,18 +3377,18 @@
         <f t="shared" si="1"/>
         <v>1.0962883333333333</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>40</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7">
         <v>17</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="7">
         <v>65897.7</v>
       </c>
@@ -3400,18 +3400,18 @@
         <f t="shared" si="1"/>
         <v>1.098295</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="33"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>40</v>
       </c>
-      <c r="B20" s="12"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7">
         <v>17</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
       <c r="F20" s="7">
         <v>65713.5</v>
       </c>
@@ -3423,18 +3423,18 @@
         <f t="shared" si="1"/>
         <v>1.0952249999999999</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="33"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>40</v>
       </c>
-      <c r="B21" s="12"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>17</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="7">
         <v>65746.8</v>
       </c>
@@ -3446,22 +3446,22 @@
         <f t="shared" si="1"/>
         <v>1.0957800000000002</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="33"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>40</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="37">
         <v>1</v>
       </c>
       <c r="C22" s="8">
         <v>17</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="8">
@@ -3475,7 +3475,7 @@
         <f t="shared" si="1"/>
         <v>4.1997666666666662</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="37">
         <f t="shared" ref="I22" si="4">SUM(F22:F26)/5</f>
         <v>252188.79999999999</v>
       </c>
@@ -3484,12 +3484,12 @@
       <c r="A23" s="8">
         <v>40</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8">
         <v>17</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
       <c r="F23" s="8">
         <v>251990</v>
       </c>
@@ -3501,18 +3501,18 @@
         <f t="shared" si="1"/>
         <v>4.1998333333333333</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="37"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>40</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8">
         <v>17</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
       <c r="F24" s="8">
         <v>251847</v>
       </c>
@@ -3524,18 +3524,18 @@
         <f t="shared" si="1"/>
         <v>4.1974499999999999</v>
       </c>
-      <c r="I24" s="16"/>
+      <c r="I24" s="37"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>40</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="8">
         <v>17</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
       <c r="F25" s="8">
         <v>251876</v>
       </c>
@@ -3547,18 +3547,18 @@
         <f t="shared" si="1"/>
         <v>4.1979333333333333</v>
       </c>
-      <c r="I25" s="16"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>40</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="8">
         <v>17</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
       <c r="F26" s="8">
         <v>253245</v>
       </c>
@@ -3570,22 +3570,22 @@
         <f t="shared" si="1"/>
         <v>4.2207499999999998</v>
       </c>
-      <c r="I26" s="16"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>40</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="38">
         <v>1</v>
       </c>
       <c r="C27" s="9">
         <v>17</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E27" s="17" t="s">
+      <c r="E27" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F27" s="9">
@@ -3599,7 +3599,7 @@
         <f t="shared" si="1"/>
         <v>4.2413833333333333</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="38">
         <f t="shared" ref="I27" si="5">SUM(F27:F31)/5</f>
         <v>253193.2</v>
       </c>
@@ -3608,12 +3608,12 @@
       <c r="A28" s="9">
         <v>40</v>
       </c>
-      <c r="B28" s="17"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="9">
         <v>17</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
       <c r="F28" s="9">
         <v>253111</v>
       </c>
@@ -3625,18 +3625,18 @@
         <f t="shared" si="1"/>
         <v>4.2185166666666669</v>
       </c>
-      <c r="I28" s="17"/>
+      <c r="I28" s="38"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>40</v>
       </c>
-      <c r="B29" s="17"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="9">
         <v>17</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="9">
         <v>251484</v>
       </c>
@@ -3648,18 +3648,18 @@
         <f t="shared" si="1"/>
         <v>4.1913999999999998</v>
       </c>
-      <c r="I29" s="17"/>
+      <c r="I29" s="38"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>40</v>
       </c>
-      <c r="B30" s="17"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="9">
         <v>17</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
       <c r="F30" s="9">
         <v>252818</v>
       </c>
@@ -3671,18 +3671,18 @@
         <f t="shared" si="1"/>
         <v>4.2136333333333331</v>
       </c>
-      <c r="I30" s="17"/>
+      <c r="I30" s="38"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>40</v>
       </c>
-      <c r="B31" s="17"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="9">
         <v>17</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="9">
         <v>254070</v>
       </c>
@@ -3694,22 +3694,22 @@
         <f t="shared" si="1"/>
         <v>4.2344999999999997</v>
       </c>
-      <c r="I31" s="17"/>
+      <c r="I31" s="38"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <v>40</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="34">
         <v>2</v>
       </c>
       <c r="C32" s="6">
         <v>17</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="15" t="s">
+      <c r="D32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="6">
@@ -3723,7 +3723,7 @@
         <f t="shared" si="1"/>
         <v>0.62847333333333344</v>
       </c>
-      <c r="I32" s="15">
+      <c r="I32" s="34">
         <f t="shared" ref="I32" si="6">SUM(F32:F36)/5</f>
         <v>32993.94</v>
       </c>
@@ -3732,12 +3732,12 @@
       <c r="A33" s="6">
         <v>40</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="6">
         <v>17</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="6">
         <v>29796.6</v>
       </c>
@@ -3749,18 +3749,18 @@
         <f t="shared" si="1"/>
         <v>0.49660999999999994</v>
       </c>
-      <c r="I33" s="15"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>40</v>
       </c>
-      <c r="B34" s="15"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="6">
         <v>17</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="6">
         <v>31599.7</v>
       </c>
@@ -3772,18 +3772,18 @@
         <f t="shared" si="1"/>
         <v>0.52666166666666669</v>
       </c>
-      <c r="I34" s="15"/>
+      <c r="I34" s="34"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>40</v>
       </c>
-      <c r="B35" s="15"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="6">
         <v>17</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="6">
         <v>28161.8</v>
       </c>
@@ -3795,18 +3795,18 @@
         <f t="shared" si="1"/>
         <v>0.4693633333333333</v>
       </c>
-      <c r="I35" s="15"/>
+      <c r="I35" s="34"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>40</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="6">
         <v>17</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="6">
         <v>37703.199999999997</v>
       </c>
@@ -3818,22 +3818,22 @@
         <f t="shared" si="1"/>
         <v>0.62838666666666654</v>
       </c>
-      <c r="I36" s="15"/>
+      <c r="I36" s="34"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>40</v>
       </c>
-      <c r="B37" s="12">
+      <c r="B37" s="33">
         <v>2</v>
       </c>
       <c r="C37" s="7">
         <v>17</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F37" s="7">
@@ -3847,7 +3847,7 @@
         <f t="shared" si="1"/>
         <v>0.54470499999999999</v>
       </c>
-      <c r="I37" s="12">
+      <c r="I37" s="33">
         <f t="shared" ref="I37" si="7">SUM(F37:F41)/5</f>
         <v>34992.639999999999</v>
       </c>
@@ -3856,12 +3856,12 @@
       <c r="A38" s="7">
         <v>40</v>
       </c>
-      <c r="B38" s="12"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="7">
         <v>17</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="7">
         <v>37267.4</v>
       </c>
@@ -3873,18 +3873,18 @@
         <f t="shared" si="1"/>
         <v>0.62112333333333336</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="33"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>40</v>
       </c>
-      <c r="B39" s="12"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7">
         <v>17</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="7">
         <v>30943.9</v>
       </c>
@@ -3896,18 +3896,18 @@
         <f t="shared" si="1"/>
         <v>0.5157316666666667</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="33"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>40</v>
       </c>
-      <c r="B40" s="12"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="7">
         <v>17</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="7">
         <v>37141.599999999999</v>
       </c>
@@ -3919,18 +3919,18 @@
         <f t="shared" si="1"/>
         <v>0.61902666666666661</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="33"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="12"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="7">
         <v>17</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="7">
         <v>36928</v>
       </c>
@@ -3942,22 +3942,22 @@
         <f t="shared" si="1"/>
         <v>0.61546666666666661</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="33"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>40</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="37">
         <v>2</v>
       </c>
       <c r="C42" s="8">
         <v>17</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="8">
@@ -3971,7 +3971,7 @@
         <f t="shared" si="1"/>
         <v>2.2605666666666666</v>
       </c>
-      <c r="I42" s="16">
+      <c r="I42" s="37">
         <f t="shared" ref="I42" si="8">SUM(F42:F46)/5</f>
         <v>122818.9</v>
       </c>
@@ -3980,12 +3980,12 @@
       <c r="A43" s="8">
         <v>40</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="8">
         <v>17</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="8">
         <v>134952</v>
       </c>
@@ -3997,18 +3997,18 @@
         <f t="shared" si="1"/>
         <v>2.2492000000000001</v>
       </c>
-      <c r="I43" s="16"/>
+      <c r="I43" s="37"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>40</v>
       </c>
-      <c r="B44" s="16"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="8">
         <v>17</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
       <c r="F44" s="8">
         <v>118165</v>
       </c>
@@ -4020,18 +4020,18 @@
         <f t="shared" si="1"/>
         <v>1.9694166666666668</v>
       </c>
-      <c r="I44" s="16"/>
+      <c r="I44" s="37"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>40</v>
       </c>
-      <c r="B45" s="16"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="8">
         <v>17</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
       <c r="F45" s="8">
         <v>136298</v>
       </c>
@@ -4043,18 +4043,18 @@
         <f t="shared" si="1"/>
         <v>2.2716333333333334</v>
       </c>
-      <c r="I45" s="16"/>
+      <c r="I45" s="37"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>40</v>
       </c>
-      <c r="B46" s="16"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="8">
         <v>17</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="8">
         <v>89045.5</v>
       </c>
@@ -4066,22 +4066,22 @@
         <f t="shared" si="1"/>
         <v>1.4840916666666668</v>
       </c>
-      <c r="I46" s="16"/>
+      <c r="I46" s="37"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>40</v>
       </c>
-      <c r="B47" s="17">
+      <c r="B47" s="38">
         <v>2</v>
       </c>
       <c r="C47" s="9">
         <v>17</v>
       </c>
-      <c r="D47" s="17" t="s">
+      <c r="D47" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="17" t="s">
+      <c r="E47" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F47" s="9">
@@ -4095,7 +4095,7 @@
         <f t="shared" si="1"/>
         <v>1.9835500000000001</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="38">
         <f t="shared" ref="I47" si="9">SUM(F47:F51)/5</f>
         <v>132197.20000000001</v>
       </c>
@@ -4104,12 +4104,12 @@
       <c r="A48" s="9">
         <v>40</v>
       </c>
-      <c r="B48" s="17"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="9">
         <v>17</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
       <c r="F48" s="9">
         <v>135979</v>
       </c>
@@ -4121,18 +4121,18 @@
         <f t="shared" si="1"/>
         <v>2.266316666666667</v>
       </c>
-      <c r="I48" s="17"/>
+      <c r="I48" s="38"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>40</v>
       </c>
-      <c r="B49" s="17"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="9">
         <v>17</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="9">
         <v>135776</v>
       </c>
@@ -4144,18 +4144,18 @@
         <f t="shared" si="1"/>
         <v>2.2629333333333337</v>
       </c>
-      <c r="I49" s="17"/>
+      <c r="I49" s="38"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>40</v>
       </c>
-      <c r="B50" s="17"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="9">
         <v>17</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="9">
         <v>135080</v>
       </c>
@@ -4167,18 +4167,18 @@
         <f t="shared" si="1"/>
         <v>2.2513333333333336</v>
       </c>
-      <c r="I50" s="17"/>
+      <c r="I50" s="38"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>40</v>
       </c>
-      <c r="B51" s="17"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="9">
         <v>17</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="9">
         <v>135138</v>
       </c>
@@ -4190,22 +4190,22 @@
         <f t="shared" si="1"/>
         <v>2.2523</v>
       </c>
-      <c r="I51" s="17"/>
+      <c r="I51" s="38"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>40</v>
       </c>
-      <c r="B52" s="15">
+      <c r="B52" s="34">
         <v>3</v>
       </c>
       <c r="C52" s="6">
         <v>17</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="D52" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="6">
@@ -4219,7 +4219,7 @@
         <f t="shared" si="1"/>
         <v>0.47929833333333338</v>
       </c>
-      <c r="I52" s="15">
+      <c r="I52" s="34">
         <f t="shared" ref="I52" si="10">SUM(F52:F56)/5</f>
         <v>26377.120000000003</v>
       </c>
@@ -4228,12 +4228,12 @@
       <c r="A53" s="6">
         <v>40</v>
       </c>
-      <c r="B53" s="15"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="6">
         <v>17</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
       <c r="F53" s="6">
         <v>28475.3</v>
       </c>
@@ -4245,18 +4245,18 @@
         <f t="shared" si="1"/>
         <v>0.47458833333333333</v>
       </c>
-      <c r="I53" s="15"/>
+      <c r="I53" s="34"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>40</v>
       </c>
-      <c r="B54" s="15"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="6">
         <v>17</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
       <c r="F54" s="6">
         <v>25300</v>
       </c>
@@ -4268,18 +4268,18 @@
         <f t="shared" si="1"/>
         <v>0.42166666666666669</v>
       </c>
-      <c r="I54" s="15"/>
+      <c r="I54" s="34"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>40</v>
       </c>
-      <c r="B55" s="15"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="6">
         <v>17</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
       <c r="F55" s="6">
         <v>20617.3</v>
       </c>
@@ -4291,18 +4291,18 @@
         <f t="shared" si="1"/>
         <v>0.34362166666666666</v>
       </c>
-      <c r="I55" s="15"/>
+      <c r="I55" s="34"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>40</v>
       </c>
-      <c r="B56" s="15"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="6">
         <v>17</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
       <c r="F56" s="6">
         <v>28735.1</v>
       </c>
@@ -4314,22 +4314,22 @@
         <f t="shared" si="1"/>
         <v>0.47891833333333333</v>
       </c>
-      <c r="I56" s="15"/>
+      <c r="I56" s="34"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>40</v>
       </c>
-      <c r="B57" s="12">
+      <c r="B57" s="33">
         <v>3</v>
       </c>
       <c r="C57" s="7">
         <v>17</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F57" s="7">
@@ -4343,7 +4343,7 @@
         <f t="shared" si="1"/>
         <v>0.33668333333333333</v>
       </c>
-      <c r="I57" s="12">
+      <c r="I57" s="33">
         <f t="shared" ref="I57" si="11">SUM(F57:F61)/5</f>
         <v>24258.9</v>
       </c>
@@ -4352,12 +4352,12 @@
       <c r="A58" s="7">
         <v>40</v>
       </c>
-      <c r="B58" s="12"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="7">
         <v>17</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="7">
         <v>27399.1</v>
       </c>
@@ -4369,18 +4369,18 @@
         <f t="shared" si="1"/>
         <v>0.45665166666666662</v>
       </c>
-      <c r="I58" s="12"/>
+      <c r="I58" s="33"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>40</v>
       </c>
-      <c r="B59" s="12"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="7">
         <v>17</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="7">
         <v>26050.1</v>
       </c>
@@ -4392,18 +4392,18 @@
         <f t="shared" si="1"/>
         <v>0.43416833333333327</v>
       </c>
-      <c r="I59" s="12"/>
+      <c r="I59" s="33"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>40</v>
       </c>
-      <c r="B60" s="12"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="7">
         <v>17</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
       <c r="F60" s="7">
         <v>27546</v>
       </c>
@@ -4415,18 +4415,18 @@
         <f t="shared" si="1"/>
         <v>0.45910000000000001</v>
       </c>
-      <c r="I60" s="12"/>
+      <c r="I60" s="33"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>40</v>
       </c>
-      <c r="B61" s="12"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="7">
         <v>17</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
       <c r="F61" s="7">
         <v>20098.3</v>
       </c>
@@ -4438,22 +4438,22 @@
         <f t="shared" si="1"/>
         <v>0.33497166666666661</v>
       </c>
-      <c r="I61" s="12"/>
+      <c r="I61" s="33"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>40</v>
       </c>
-      <c r="B62" s="16">
+      <c r="B62" s="37">
         <v>3</v>
       </c>
       <c r="C62" s="8">
         <v>17</v>
       </c>
-      <c r="D62" s="16" t="s">
+      <c r="D62" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E62" s="16" t="s">
+      <c r="E62" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F62" s="8">
@@ -4467,7 +4467,7 @@
         <f t="shared" si="1"/>
         <v>1.1104616666666665</v>
       </c>
-      <c r="I62" s="16">
+      <c r="I62" s="37">
         <f t="shared" ref="I62" si="12">SUM(F62:F66)/5</f>
         <v>76386.06</v>
       </c>
@@ -4476,12 +4476,12 @@
       <c r="A63" s="8">
         <v>40</v>
       </c>
-      <c r="B63" s="16"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="8">
         <v>17</v>
       </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
       <c r="F63" s="8">
         <v>79299</v>
       </c>
@@ -4493,18 +4493,18 @@
         <f t="shared" si="1"/>
         <v>1.3216500000000002</v>
       </c>
-      <c r="I63" s="16"/>
+      <c r="I63" s="37"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>40</v>
       </c>
-      <c r="B64" s="16"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="8">
         <v>17</v>
       </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
       <c r="F64" s="8">
         <v>69818.3</v>
       </c>
@@ -4516,18 +4516,18 @@
         <f t="shared" si="1"/>
         <v>1.1636383333333336</v>
       </c>
-      <c r="I64" s="16"/>
+      <c r="I64" s="37"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>40</v>
       </c>
-      <c r="B65" s="16"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="8">
         <v>17</v>
       </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="8">
         <v>100542</v>
       </c>
@@ -4539,18 +4539,18 @@
         <f t="shared" si="1"/>
         <v>1.6757</v>
       </c>
-      <c r="I65" s="16"/>
+      <c r="I65" s="37"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>40</v>
       </c>
-      <c r="B66" s="16"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="8">
         <v>17</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
       <c r="F66" s="8">
         <v>65643.3</v>
       </c>
@@ -4562,22 +4562,22 @@
         <f t="shared" si="1"/>
         <v>1.094055</v>
       </c>
-      <c r="I66" s="16"/>
+      <c r="I66" s="37"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="9">
         <v>40</v>
       </c>
-      <c r="B67" s="17">
+      <c r="B67" s="38">
         <v>3</v>
       </c>
       <c r="C67" s="9">
         <v>17</v>
       </c>
-      <c r="D67" s="17" t="s">
+      <c r="D67" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F67" s="9">
@@ -4591,7 +4591,7 @@
         <f t="shared" ref="H67:H130" si="14">G67/60</f>
         <v>1.1040433333333335</v>
       </c>
-      <c r="I67" s="17">
+      <c r="I67" s="38">
         <f t="shared" ref="I67" si="15">SUM(F67:F71)/5</f>
         <v>79996.2</v>
       </c>
@@ -4600,12 +4600,12 @@
       <c r="A68" s="9">
         <v>40</v>
       </c>
-      <c r="B68" s="17"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="9">
         <v>17</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
       <c r="F68" s="9">
         <v>87290.4</v>
       </c>
@@ -4617,18 +4617,18 @@
         <f t="shared" si="14"/>
         <v>1.4548399999999999</v>
       </c>
-      <c r="I68" s="17"/>
+      <c r="I68" s="38"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="9">
         <v>40</v>
       </c>
-      <c r="B69" s="17"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="9">
         <v>17</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
       <c r="F69" s="9">
         <v>75023.899999999994</v>
       </c>
@@ -4640,18 +4640,18 @@
         <f t="shared" si="14"/>
         <v>1.2503983333333333</v>
       </c>
-      <c r="I69" s="17"/>
+      <c r="I69" s="38"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="9">
         <v>40</v>
       </c>
-      <c r="B70" s="17"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="9">
         <v>17</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
       <c r="F70" s="9">
         <v>78421.100000000006</v>
       </c>
@@ -4663,18 +4663,18 @@
         <f t="shared" si="14"/>
         <v>1.3070183333333334</v>
       </c>
-      <c r="I70" s="17"/>
+      <c r="I70" s="38"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="9">
         <v>40</v>
       </c>
-      <c r="B71" s="17"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="9">
         <v>17</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
       <c r="F71" s="9">
         <v>93003</v>
       </c>
@@ -4686,22 +4686,22 @@
         <f t="shared" si="14"/>
         <v>1.5500499999999999</v>
       </c>
-      <c r="I71" s="17"/>
+      <c r="I71" s="38"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40</v>
       </c>
-      <c r="B72" s="15">
+      <c r="B72" s="34">
         <v>4</v>
       </c>
       <c r="C72" s="6">
         <v>17</v>
       </c>
-      <c r="D72" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="15" t="s">
+      <c r="D72" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="6">
@@ -4715,7 +4715,7 @@
         <f t="shared" si="14"/>
         <v>0.3953416666666667</v>
       </c>
-      <c r="I72" s="15">
+      <c r="I72" s="34">
         <f t="shared" ref="I72" si="16">SUM(F72:F76)/5</f>
         <v>23896.339999999997</v>
       </c>
@@ -4724,12 +4724,12 @@
       <c r="A73" s="6">
         <v>40</v>
       </c>
-      <c r="B73" s="15"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="6">
         <v>17</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
       <c r="F73" s="6">
         <v>23819.3</v>
       </c>
@@ -4741,18 +4741,18 @@
         <f t="shared" si="14"/>
         <v>0.39698833333333333</v>
       </c>
-      <c r="I73" s="15"/>
+      <c r="I73" s="34"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40</v>
       </c>
-      <c r="B74" s="15"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="6">
         <v>17</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
       <c r="F74" s="6">
         <v>24014.1</v>
       </c>
@@ -4764,18 +4764,18 @@
         <f t="shared" si="14"/>
         <v>0.40023500000000001</v>
       </c>
-      <c r="I74" s="15"/>
+      <c r="I74" s="34"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40</v>
       </c>
-      <c r="B75" s="15"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="6">
         <v>17</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
       <c r="F75" s="6">
         <v>24041.7</v>
       </c>
@@ -4787,18 +4787,18 @@
         <f t="shared" si="14"/>
         <v>0.40069500000000002</v>
       </c>
-      <c r="I75" s="15"/>
+      <c r="I75" s="34"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40</v>
       </c>
-      <c r="B76" s="15"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="6">
         <v>17</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
       <c r="F76" s="6">
         <v>23886.1</v>
       </c>
@@ -4810,22 +4810,22 @@
         <f t="shared" si="14"/>
         <v>0.39810166666666663</v>
       </c>
-      <c r="I76" s="15"/>
+      <c r="I76" s="34"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
         <v>40</v>
       </c>
-      <c r="B77" s="12">
+      <c r="B77" s="33">
         <v>4</v>
       </c>
       <c r="C77" s="7">
         <v>17</v>
       </c>
-      <c r="D77" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F77" s="7">
@@ -4839,7 +4839,7 @@
         <f t="shared" si="14"/>
         <v>0.3725633333333333</v>
       </c>
-      <c r="I77" s="12">
+      <c r="I77" s="33">
         <f t="shared" ref="I77" si="17">SUM(F77:F81)/5</f>
         <v>21608.659999999996</v>
       </c>
@@ -4848,12 +4848,12 @@
       <c r="A78" s="7">
         <v>40</v>
       </c>
-      <c r="B78" s="12"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="7">
         <v>17</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
       <c r="F78" s="7">
         <v>22416.7</v>
       </c>
@@ -4865,18 +4865,18 @@
         <f t="shared" si="14"/>
         <v>0.37361166666666673</v>
       </c>
-      <c r="I78" s="12"/>
+      <c r="I78" s="33"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="7">
         <v>40</v>
       </c>
-      <c r="B79" s="12"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="7">
         <v>17</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
       <c r="F79" s="7">
         <v>22572.400000000001</v>
       </c>
@@ -4888,18 +4888,18 @@
         <f t="shared" si="14"/>
         <v>0.37620666666666669</v>
       </c>
-      <c r="I79" s="12"/>
+      <c r="I79" s="33"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="7">
         <v>40</v>
       </c>
-      <c r="B80" s="12"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="7">
         <v>17</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
       <c r="F80" s="7">
         <v>18301.8</v>
       </c>
@@ -4911,18 +4911,18 @@
         <f t="shared" si="14"/>
         <v>0.30503000000000002</v>
       </c>
-      <c r="I80" s="12"/>
+      <c r="I80" s="33"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="7">
         <v>40</v>
       </c>
-      <c r="B81" s="12"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="7">
         <v>17</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
       <c r="F81" s="7">
         <v>22398.6</v>
       </c>
@@ -4934,22 +4934,22 @@
         <f t="shared" si="14"/>
         <v>0.37330999999999998</v>
       </c>
-      <c r="I81" s="12"/>
+      <c r="I81" s="33"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>40</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="37">
         <v>4</v>
       </c>
       <c r="C82" s="8">
         <v>17</v>
       </c>
-      <c r="D82" s="16" t="s">
+      <c r="D82" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="16" t="s">
+      <c r="E82" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F82" s="8">
@@ -4963,7 +4963,7 @@
         <f t="shared" si="14"/>
         <v>1.0541333333333334</v>
       </c>
-      <c r="I82" s="16">
+      <c r="I82" s="37">
         <f t="shared" ref="I82" si="18">SUM(F82:F86)/5</f>
         <v>70993.66</v>
       </c>
@@ -4972,12 +4972,12 @@
       <c r="A83" s="8">
         <v>40</v>
       </c>
-      <c r="B83" s="16"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="8">
         <v>17</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="8">
         <v>52942.3</v>
       </c>
@@ -4989,18 +4989,18 @@
         <f t="shared" si="14"/>
         <v>0.88237166666666667</v>
       </c>
-      <c r="I83" s="16"/>
+      <c r="I83" s="37"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>40</v>
       </c>
-      <c r="B84" s="16"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="8">
         <v>17</v>
       </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
       <c r="F84" s="8">
         <v>77697.8</v>
       </c>
@@ -5012,18 +5012,18 @@
         <f t="shared" si="14"/>
         <v>1.2949633333333332</v>
       </c>
-      <c r="I84" s="16"/>
+      <c r="I84" s="37"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>40</v>
       </c>
-      <c r="B85" s="16"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="8">
         <v>17</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
       <c r="F85" s="8">
         <v>80676.899999999994</v>
       </c>
@@ -5035,18 +5035,18 @@
         <f t="shared" si="14"/>
         <v>1.3446149999999999</v>
       </c>
-      <c r="I85" s="16"/>
+      <c r="I85" s="37"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>40</v>
       </c>
-      <c r="B86" s="16"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="8">
         <v>17</v>
       </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="8">
         <v>80403.3</v>
       </c>
@@ -5058,22 +5058,22 @@
         <f t="shared" si="14"/>
         <v>1.340055</v>
       </c>
-      <c r="I86" s="16"/>
+      <c r="I86" s="37"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="9">
         <v>40</v>
       </c>
-      <c r="B87" s="17">
+      <c r="B87" s="38">
         <v>4</v>
       </c>
       <c r="C87" s="9">
         <v>17</v>
       </c>
-      <c r="D87" s="17" t="s">
+      <c r="D87" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F87" s="9">
@@ -5087,7 +5087,7 @@
         <f t="shared" si="14"/>
         <v>1.3487833333333334</v>
       </c>
-      <c r="I87" s="17">
+      <c r="I87" s="38">
         <f t="shared" ref="I87" si="19">SUM(F87:F91)/5</f>
         <v>74366.180000000008</v>
       </c>
@@ -5096,12 +5096,12 @@
       <c r="A88" s="9">
         <v>40</v>
       </c>
-      <c r="B88" s="17"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="9">
         <v>17</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="9">
         <v>63149.599999999999</v>
       </c>
@@ -5113,18 +5113,18 @@
         <f t="shared" si="14"/>
         <v>1.0524933333333333</v>
       </c>
-      <c r="I88" s="17"/>
+      <c r="I88" s="38"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="9">
         <v>40</v>
       </c>
-      <c r="B89" s="17"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="9">
         <v>17</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
       <c r="F89" s="9">
         <v>80701.899999999994</v>
       </c>
@@ -5136,18 +5136,18 @@
         <f t="shared" si="14"/>
         <v>1.3450316666666666</v>
       </c>
-      <c r="I89" s="17"/>
+      <c r="I89" s="38"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="9">
         <v>40</v>
       </c>
-      <c r="B90" s="17"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="9">
         <v>17</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
       <c r="F90" s="9">
         <v>80289.8</v>
       </c>
@@ -5159,18 +5159,18 @@
         <f t="shared" si="14"/>
         <v>1.3381633333333334</v>
       </c>
-      <c r="I90" s="17"/>
+      <c r="I90" s="38"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="9">
         <v>40</v>
       </c>
-      <c r="B91" s="17"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="9">
         <v>17</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
       <c r="F91" s="9">
         <v>66762.600000000006</v>
       </c>
@@ -5182,22 +5182,22 @@
         <f t="shared" si="14"/>
         <v>1.1127100000000001</v>
       </c>
-      <c r="I91" s="17"/>
+      <c r="I91" s="38"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40</v>
       </c>
-      <c r="B92" s="15">
+      <c r="B92" s="34">
         <v>5</v>
       </c>
       <c r="C92" s="6">
         <v>17</v>
       </c>
-      <c r="D92" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="15" t="s">
+      <c r="D92" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="6">
@@ -5211,7 +5211,7 @@
         <f t="shared" si="14"/>
         <v>0.23414499999999999</v>
       </c>
-      <c r="I92" s="15">
+      <c r="I92" s="34">
         <f t="shared" ref="I92" si="20">SUM(F92:F96)/5</f>
         <v>18268.879999999997</v>
       </c>
@@ -5220,12 +5220,12 @@
       <c r="A93" s="6">
         <v>40</v>
       </c>
-      <c r="B93" s="15"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="6">
         <v>17</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
       <c r="F93" s="6">
         <v>21845.3</v>
       </c>
@@ -5237,18 +5237,18 @@
         <f t="shared" si="14"/>
         <v>0.36408833333333329</v>
       </c>
-      <c r="I93" s="15"/>
+      <c r="I93" s="34"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40</v>
       </c>
-      <c r="B94" s="15"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="6">
         <v>17</v>
       </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
       <c r="F94" s="6">
         <v>19805.900000000001</v>
       </c>
@@ -5260,18 +5260,18 @@
         <f t="shared" si="14"/>
         <v>0.33009833333333333</v>
       </c>
-      <c r="I94" s="15"/>
+      <c r="I94" s="34"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40</v>
       </c>
-      <c r="B95" s="15"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="6">
         <v>17</v>
       </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
       <c r="F95" s="6">
         <v>21785.3</v>
       </c>
@@ -5283,18 +5283,18 @@
         <f t="shared" si="14"/>
         <v>0.36308833333333335</v>
       </c>
-      <c r="I95" s="15"/>
+      <c r="I95" s="34"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40</v>
       </c>
-      <c r="B96" s="15"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="6">
         <v>17</v>
       </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
       <c r="F96" s="6">
         <v>13859.2</v>
       </c>
@@ -5306,22 +5306,22 @@
         <f t="shared" si="14"/>
         <v>0.2309866666666667</v>
       </c>
-      <c r="I96" s="15"/>
+      <c r="I96" s="34"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
         <v>40</v>
       </c>
-      <c r="B97" s="12">
+      <c r="B97" s="33">
         <v>5</v>
       </c>
       <c r="C97" s="7">
         <v>17</v>
       </c>
-      <c r="D97" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E97" s="12" t="s">
+      <c r="D97" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F97" s="7">
@@ -5335,7 +5335,7 @@
         <f t="shared" si="14"/>
         <v>0.33304166666666668</v>
       </c>
-      <c r="I97" s="12">
+      <c r="I97" s="33">
         <f t="shared" ref="I97" si="21">SUM(F97:F101)/5</f>
         <v>17341.32</v>
       </c>
@@ -5344,12 +5344,12 @@
       <c r="A98" s="7">
         <v>40</v>
       </c>
-      <c r="B98" s="12"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="7">
         <v>17</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
       <c r="F98" s="7">
         <v>19936.5</v>
       </c>
@@ -5361,18 +5361,18 @@
         <f t="shared" si="14"/>
         <v>0.33227499999999999</v>
       </c>
-      <c r="I98" s="12"/>
+      <c r="I98" s="33"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="7">
         <v>40</v>
       </c>
-      <c r="B99" s="12"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="7">
         <v>17</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
       <c r="F99" s="7">
         <v>13014.2</v>
       </c>
@@ -5384,18 +5384,18 @@
         <f t="shared" si="14"/>
         <v>0.21690333333333334</v>
       </c>
-      <c r="I99" s="12"/>
+      <c r="I99" s="33"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="7">
         <v>40</v>
       </c>
-      <c r="B100" s="12"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="7">
         <v>17</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
       <c r="F100" s="7">
         <v>14563.5</v>
       </c>
@@ -5407,18 +5407,18 @@
         <f t="shared" si="14"/>
         <v>0.242725</v>
       </c>
-      <c r="I100" s="12"/>
+      <c r="I100" s="33"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="7">
         <v>40</v>
       </c>
-      <c r="B101" s="12"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="7">
         <v>17</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
       <c r="F101" s="7">
         <v>19209.900000000001</v>
       </c>
@@ -5430,22 +5430,22 @@
         <f t="shared" si="14"/>
         <v>0.32016500000000003</v>
       </c>
-      <c r="I101" s="12"/>
+      <c r="I101" s="33"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>40</v>
       </c>
-      <c r="B102" s="16">
+      <c r="B102" s="37">
         <v>5</v>
       </c>
       <c r="C102" s="8">
         <v>17</v>
       </c>
-      <c r="D102" s="16" t="s">
+      <c r="D102" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="16" t="s">
+      <c r="E102" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F102" s="8">
@@ -5459,7 +5459,7 @@
         <f t="shared" si="14"/>
         <v>0.82378666666666667</v>
       </c>
-      <c r="I102" s="16">
+      <c r="I102" s="37">
         <f t="shared" ref="I102" si="22">SUM(F102:F106)/5</f>
         <v>62424.220000000008</v>
       </c>
@@ -5468,12 +5468,12 @@
       <c r="A103" s="8">
         <v>40</v>
       </c>
-      <c r="B103" s="16"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="8">
         <v>17</v>
       </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
       <c r="F103" s="8">
         <v>67775.399999999994</v>
       </c>
@@ -5485,18 +5485,18 @@
         <f t="shared" si="14"/>
         <v>1.1295899999999999</v>
       </c>
-      <c r="I103" s="16"/>
+      <c r="I103" s="37"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>40</v>
       </c>
-      <c r="B104" s="16"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="8">
         <v>17</v>
       </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
       <c r="F104" s="8">
         <v>71355.600000000006</v>
       </c>
@@ -5508,18 +5508,18 @@
         <f t="shared" si="14"/>
         <v>1.1892600000000002</v>
       </c>
-      <c r="I104" s="16"/>
+      <c r="I104" s="37"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>40</v>
       </c>
-      <c r="B105" s="16"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="8">
         <v>17</v>
       </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
       <c r="F105" s="8">
         <v>52638.2</v>
       </c>
@@ -5531,18 +5531,18 @@
         <f t="shared" si="14"/>
         <v>0.87730333333333332</v>
       </c>
-      <c r="I105" s="16"/>
+      <c r="I105" s="37"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>40</v>
       </c>
-      <c r="B106" s="16"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="8">
         <v>17</v>
       </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
       <c r="F106" s="8">
         <v>70924.7</v>
       </c>
@@ -5554,22 +5554,22 @@
         <f t="shared" si="14"/>
         <v>1.1820783333333333</v>
       </c>
-      <c r="I106" s="16"/>
+      <c r="I106" s="37"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="9">
         <v>40</v>
       </c>
-      <c r="B107" s="17">
+      <c r="B107" s="38">
         <v>5</v>
       </c>
       <c r="C107" s="9">
         <v>17</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D107" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E107" s="17" t="s">
+      <c r="E107" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F107" s="9">
@@ -5583,7 +5583,7 @@
         <f t="shared" si="14"/>
         <v>0.8174433333333333</v>
       </c>
-      <c r="I107" s="17">
+      <c r="I107" s="38">
         <f t="shared" ref="I107" si="23">SUM(F107:F111)/5</f>
         <v>59759.96</v>
       </c>
@@ -5592,12 +5592,12 @@
       <c r="A108" s="9">
         <v>40</v>
       </c>
-      <c r="B108" s="17"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="9">
         <v>17</v>
       </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
       <c r="F108" s="9">
         <v>58493.9</v>
       </c>
@@ -5609,18 +5609,18 @@
         <f t="shared" si="14"/>
         <v>0.97489833333333342</v>
       </c>
-      <c r="I108" s="17"/>
+      <c r="I108" s="38"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="9">
         <v>40</v>
       </c>
-      <c r="B109" s="17"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="9">
         <v>17</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
       <c r="F109" s="9">
         <v>61741</v>
       </c>
@@ -5632,18 +5632,18 @@
         <f t="shared" si="14"/>
         <v>1.0290166666666667</v>
       </c>
-      <c r="I109" s="17"/>
+      <c r="I109" s="38"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="9">
         <v>40</v>
       </c>
-      <c r="B110" s="17"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="9">
         <v>17</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
       <c r="F110" s="9">
         <v>58516.6</v>
       </c>
@@ -5655,18 +5655,18 @@
         <f t="shared" si="14"/>
         <v>0.97527666666666657</v>
       </c>
-      <c r="I110" s="17"/>
+      <c r="I110" s="38"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="9">
         <v>40</v>
       </c>
-      <c r="B111" s="17"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="9">
         <v>17</v>
       </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
       <c r="F111" s="9">
         <v>71001.7</v>
       </c>
@@ -5678,22 +5678,22 @@
         <f t="shared" si="14"/>
         <v>1.1833616666666666</v>
       </c>
-      <c r="I111" s="17"/>
+      <c r="I111" s="38"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40</v>
       </c>
-      <c r="B112" s="15">
+      <c r="B112" s="34">
         <v>6</v>
       </c>
       <c r="C112" s="6">
         <v>17</v>
       </c>
-      <c r="D112" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="15" t="s">
+      <c r="D112" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="6">
@@ -5707,7 +5707,7 @@
         <f t="shared" si="14"/>
         <v>0.34729666666666664</v>
       </c>
-      <c r="I112" s="15">
+      <c r="I112" s="34">
         <f t="shared" ref="I112" si="24">SUM(F112:F116)/5</f>
         <v>20798.82</v>
       </c>
@@ -5716,12 +5716,12 @@
       <c r="A113" s="6">
         <v>40</v>
       </c>
-      <c r="B113" s="15"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="6">
         <v>17</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
       <c r="F113" s="6">
         <v>20744.900000000001</v>
       </c>
@@ -5733,18 +5733,18 @@
         <f t="shared" si="14"/>
         <v>0.34574833333333338</v>
       </c>
-      <c r="I113" s="15"/>
+      <c r="I113" s="34"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40</v>
       </c>
-      <c r="B114" s="15"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="6">
         <v>17</v>
       </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
       <c r="F114" s="6">
         <v>20356.099999999999</v>
       </c>
@@ -5756,18 +5756,18 @@
         <f t="shared" si="14"/>
         <v>0.33926833333333328</v>
       </c>
-      <c r="I114" s="15"/>
+      <c r="I114" s="34"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40</v>
       </c>
-      <c r="B115" s="15"/>
+      <c r="B115" s="34"/>
       <c r="C115" s="6">
         <v>17</v>
       </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
       <c r="F115" s="6">
         <v>20857.900000000001</v>
       </c>
@@ -5779,18 +5779,18 @@
         <f t="shared" si="14"/>
         <v>0.34763166666666667</v>
       </c>
-      <c r="I115" s="15"/>
+      <c r="I115" s="34"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40</v>
       </c>
-      <c r="B116" s="15"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="6">
         <v>17</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
       <c r="F116" s="6">
         <v>21197.4</v>
       </c>
@@ -5802,22 +5802,22 @@
         <f t="shared" si="14"/>
         <v>0.35329000000000005</v>
       </c>
-      <c r="I116" s="15"/>
+      <c r="I116" s="34"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
         <v>40</v>
       </c>
-      <c r="B117" s="12">
+      <c r="B117" s="33">
         <v>6</v>
       </c>
       <c r="C117" s="7">
         <v>17</v>
       </c>
-      <c r="D117" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117" s="12" t="s">
+      <c r="D117" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F117" s="7">
@@ -5831,7 +5831,7 @@
         <f t="shared" si="14"/>
         <v>0.36495499999999997</v>
       </c>
-      <c r="I117" s="12">
+      <c r="I117" s="33">
         <f t="shared" ref="I117" si="25">SUM(F117:F121)/5</f>
         <v>19996.98</v>
       </c>
@@ -5840,12 +5840,12 @@
       <c r="A118" s="7">
         <v>40</v>
       </c>
-      <c r="B118" s="12"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="7">
         <v>17</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
       <c r="F118" s="7">
         <v>23117.3</v>
       </c>
@@ -5857,18 +5857,18 @@
         <f t="shared" si="14"/>
         <v>0.38528833333333334</v>
       </c>
-      <c r="I118" s="12"/>
+      <c r="I118" s="33"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="7">
         <v>40</v>
       </c>
-      <c r="B119" s="12"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="7">
         <v>17</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
       <c r="F119" s="7">
         <v>17171.8</v>
       </c>
@@ -5880,18 +5880,18 @@
         <f t="shared" si="14"/>
         <v>0.2861966666666666</v>
       </c>
-      <c r="I119" s="12"/>
+      <c r="I119" s="33"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="7">
         <v>40</v>
       </c>
-      <c r="B120" s="12"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="7">
         <v>17</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
       <c r="F120" s="7">
         <v>19366.2</v>
       </c>
@@ -5903,18 +5903,18 @@
         <f t="shared" si="14"/>
         <v>0.32277</v>
       </c>
-      <c r="I120" s="12"/>
+      <c r="I120" s="33"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="7">
         <v>40</v>
       </c>
-      <c r="B121" s="12"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="7">
         <v>17</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
       <c r="F121" s="7">
         <v>18432.3</v>
       </c>
@@ -5926,22 +5926,22 @@
         <f t="shared" si="14"/>
         <v>0.30720499999999995</v>
       </c>
-      <c r="I121" s="12"/>
+      <c r="I121" s="33"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="8">
         <v>40</v>
       </c>
-      <c r="B122" s="16">
+      <c r="B122" s="37">
         <v>6</v>
       </c>
       <c r="C122" s="8">
         <v>17</v>
       </c>
-      <c r="D122" s="16" t="s">
+      <c r="D122" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E122" s="16" t="s">
+      <c r="E122" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F122" s="8">
@@ -5955,7 +5955,7 @@
         <f t="shared" si="14"/>
         <v>0.7734766666666667</v>
       </c>
-      <c r="I122" s="16">
+      <c r="I122" s="37">
         <f t="shared" ref="I122" si="26">SUM(F122:F126)/5</f>
         <v>56237.1</v>
       </c>
@@ -5964,12 +5964,12 @@
       <c r="A123" s="8">
         <v>40</v>
       </c>
-      <c r="B123" s="16"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="8">
         <v>17</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
       <c r="F123" s="8">
         <v>66698.5</v>
       </c>
@@ -5981,18 +5981,18 @@
         <f t="shared" si="14"/>
         <v>1.1116416666666666</v>
       </c>
-      <c r="I123" s="16"/>
+      <c r="I123" s="37"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="8">
         <v>40</v>
       </c>
-      <c r="B124" s="16"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="8">
         <v>17</v>
       </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
       <c r="F124" s="8">
         <v>66667.100000000006</v>
       </c>
@@ -6004,18 +6004,18 @@
         <f t="shared" si="14"/>
         <v>1.1111183333333334</v>
       </c>
-      <c r="I124" s="16"/>
+      <c r="I124" s="37"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="8">
         <v>40</v>
       </c>
-      <c r="B125" s="16"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="8">
         <v>17</v>
       </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
       <c r="F125" s="8">
         <v>54779</v>
       </c>
@@ -6027,18 +6027,18 @@
         <f t="shared" si="14"/>
         <v>0.91298333333333337</v>
       </c>
-      <c r="I125" s="16"/>
+      <c r="I125" s="37"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="8">
         <v>40</v>
       </c>
-      <c r="B126" s="16"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="8">
         <v>17</v>
       </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
       <c r="F126" s="8">
         <v>46632.3</v>
       </c>
@@ -6050,22 +6050,22 @@
         <f t="shared" si="14"/>
         <v>0.77720500000000003</v>
       </c>
-      <c r="I126" s="16"/>
+      <c r="I126" s="37"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="9">
         <v>40</v>
       </c>
-      <c r="B127" s="17">
+      <c r="B127" s="38">
         <v>6</v>
       </c>
       <c r="C127" s="9">
         <v>17</v>
       </c>
-      <c r="D127" s="17" t="s">
+      <c r="D127" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E127" s="17" t="s">
+      <c r="E127" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F127" s="9">
@@ -6079,7 +6079,7 @@
         <f t="shared" si="14"/>
         <v>0.86893000000000009</v>
       </c>
-      <c r="I127" s="17">
+      <c r="I127" s="38">
         <f t="shared" ref="I127" si="27">SUM(F127:F131)/5</f>
         <v>56189.319999999992</v>
       </c>
@@ -6088,12 +6088,12 @@
       <c r="A128" s="9">
         <v>40</v>
       </c>
-      <c r="B128" s="17"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="9">
         <v>17</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
       <c r="F128" s="9">
         <v>60902.9</v>
       </c>
@@ -6105,18 +6105,18 @@
         <f t="shared" si="14"/>
         <v>1.0150483333333333</v>
       </c>
-      <c r="I128" s="17"/>
+      <c r="I128" s="38"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="9">
         <v>40</v>
       </c>
-      <c r="B129" s="17"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="9">
         <v>17</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
       <c r="F129" s="9">
         <v>66441.3</v>
       </c>
@@ -6128,18 +6128,18 @@
         <f t="shared" si="14"/>
         <v>1.1073549999999999</v>
       </c>
-      <c r="I129" s="17"/>
+      <c r="I129" s="38"/>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="9">
         <v>40</v>
       </c>
-      <c r="B130" s="17"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="9">
         <v>17</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
       <c r="F130" s="9">
         <v>49295.6</v>
       </c>
@@ -6151,18 +6151,18 @@
         <f t="shared" si="14"/>
         <v>0.82159333333333329</v>
       </c>
-      <c r="I130" s="17"/>
+      <c r="I130" s="38"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="9">
         <v>40</v>
       </c>
-      <c r="B131" s="17"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="9">
         <v>17</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
       <c r="F131" s="9">
         <v>52171</v>
       </c>
@@ -6174,22 +6174,22 @@
         <f t="shared" ref="H131:H171" si="29">G131/60</f>
         <v>0.8695166666666666</v>
       </c>
-      <c r="I131" s="17"/>
+      <c r="I131" s="38"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40</v>
       </c>
-      <c r="B132" s="15">
+      <c r="B132" s="34">
         <v>7</v>
       </c>
       <c r="C132" s="6">
         <v>17</v>
       </c>
-      <c r="D132" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="15" t="s">
+      <c r="D132" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F132" s="6">
@@ -6203,7 +6203,7 @@
         <f t="shared" si="29"/>
         <v>0.27372666666666662</v>
       </c>
-      <c r="I132" s="15">
+      <c r="I132" s="34">
         <f t="shared" ref="I132" si="30">SUM(F132:F136)/5</f>
         <v>18812.939999999999</v>
       </c>
@@ -6212,12 +6212,12 @@
       <c r="A133" s="6">
         <v>40</v>
       </c>
-      <c r="B133" s="15"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="6">
         <v>17</v>
       </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
       <c r="F133" s="6">
         <v>14398.2</v>
       </c>
@@ -6229,18 +6229,18 @@
         <f t="shared" si="29"/>
         <v>0.23997000000000002</v>
       </c>
-      <c r="I133" s="15"/>
+      <c r="I133" s="34"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40</v>
       </c>
-      <c r="B134" s="15"/>
+      <c r="B134" s="34"/>
       <c r="C134" s="6">
         <v>17</v>
       </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
       <c r="F134" s="6">
         <v>19444.599999999999</v>
       </c>
@@ -6252,18 +6252,18 @@
         <f t="shared" si="29"/>
         <v>0.32407666666666662</v>
       </c>
-      <c r="I134" s="15"/>
+      <c r="I134" s="34"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40</v>
       </c>
-      <c r="B135" s="15"/>
+      <c r="B135" s="34"/>
       <c r="C135" s="6">
         <v>17</v>
       </c>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
       <c r="F135" s="6">
         <v>21745.8</v>
       </c>
@@ -6275,18 +6275,18 @@
         <f t="shared" si="29"/>
         <v>0.36242999999999997</v>
       </c>
-      <c r="I135" s="15"/>
+      <c r="I135" s="34"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>40</v>
       </c>
-      <c r="B136" s="15"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="6">
         <v>17</v>
       </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
       <c r="F136" s="6">
         <v>22052.5</v>
       </c>
@@ -6298,22 +6298,22 @@
         <f t="shared" si="29"/>
         <v>0.36754166666666666</v>
       </c>
-      <c r="I136" s="15"/>
+      <c r="I136" s="34"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
         <v>40</v>
       </c>
-      <c r="B137" s="12">
+      <c r="B137" s="33">
         <v>7</v>
       </c>
       <c r="C137" s="7">
         <v>17</v>
       </c>
-      <c r="D137" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137" s="12" t="s">
+      <c r="D137" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F137" s="7">
@@ -6327,7 +6327,7 @@
         <f t="shared" si="29"/>
         <v>0.39182166666666668</v>
       </c>
-      <c r="I137" s="12">
+      <c r="I137" s="33">
         <f t="shared" ref="I137" si="31">SUM(F137:F141)/5</f>
         <v>19411.14</v>
       </c>
@@ -6336,12 +6336,12 @@
       <c r="A138" s="7">
         <v>40</v>
       </c>
-      <c r="B138" s="12"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="7">
         <v>17</v>
       </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
       <c r="F138" s="7">
         <v>17576.3</v>
       </c>
@@ -6353,18 +6353,18 @@
         <f t="shared" si="29"/>
         <v>0.29293833333333336</v>
       </c>
-      <c r="I138" s="12"/>
+      <c r="I138" s="33"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="7">
         <v>40</v>
       </c>
-      <c r="B139" s="12"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="7">
         <v>17</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
       <c r="F139" s="7">
         <v>24742.3</v>
       </c>
@@ -6376,18 +6376,18 @@
         <f t="shared" si="29"/>
         <v>0.41237166666666669</v>
       </c>
-      <c r="I139" s="12"/>
+      <c r="I139" s="33"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="7">
         <v>40</v>
       </c>
-      <c r="B140" s="12"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="7">
         <v>17</v>
       </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
       <c r="F140" s="7">
         <v>16103.3</v>
       </c>
@@ -6399,18 +6399,18 @@
         <f t="shared" si="29"/>
         <v>0.26838833333333334</v>
       </c>
-      <c r="I140" s="12"/>
+      <c r="I140" s="33"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="7">
         <v>40</v>
       </c>
-      <c r="B141" s="12"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="7">
         <v>17</v>
       </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
       <c r="F141" s="7">
         <v>15124.5</v>
       </c>
@@ -6422,22 +6422,22 @@
         <f t="shared" si="29"/>
         <v>0.25207499999999999</v>
       </c>
-      <c r="I141" s="12"/>
+      <c r="I141" s="33"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="8">
         <v>40</v>
       </c>
-      <c r="B142" s="16">
+      <c r="B142" s="37">
         <v>7</v>
       </c>
       <c r="C142" s="8">
         <v>17</v>
       </c>
-      <c r="D142" s="16" t="s">
+      <c r="D142" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E142" s="16" t="s">
+      <c r="E142" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F142" s="8">
@@ -6451,7 +6451,7 @@
         <f t="shared" si="29"/>
         <v>1.0580966666666667</v>
       </c>
-      <c r="I142" s="16">
+      <c r="I142" s="37">
         <f t="shared" ref="I142" si="32">SUM(F142:F146)/5</f>
         <v>60567.58</v>
       </c>
@@ -6460,12 +6460,12 @@
       <c r="A143" s="8">
         <v>40</v>
       </c>
-      <c r="B143" s="16"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="8">
         <v>17</v>
       </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
       <c r="F143" s="8">
         <v>63448.9</v>
       </c>
@@ -6477,18 +6477,18 @@
         <f t="shared" si="29"/>
         <v>1.0574816666666667</v>
       </c>
-      <c r="I143" s="16"/>
+      <c r="I143" s="37"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="8">
         <v>40</v>
       </c>
-      <c r="B144" s="16"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="8">
         <v>17</v>
       </c>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
       <c r="F144" s="8">
         <v>63103.7</v>
       </c>
@@ -6500,18 +6500,18 @@
         <f t="shared" si="29"/>
         <v>1.0517283333333334</v>
       </c>
-      <c r="I144" s="16"/>
+      <c r="I144" s="37"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="8">
         <v>40</v>
       </c>
-      <c r="B145" s="16"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="8">
         <v>17</v>
       </c>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
       <c r="F145" s="8">
         <v>52141.3</v>
       </c>
@@ -6523,18 +6523,18 @@
         <f t="shared" si="29"/>
         <v>0.86902166666666669</v>
       </c>
-      <c r="I145" s="16"/>
+      <c r="I145" s="37"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="8">
         <v>40</v>
       </c>
-      <c r="B146" s="16"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="8">
         <v>17</v>
       </c>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
       <c r="F146" s="8">
         <v>60658.2</v>
       </c>
@@ -6546,22 +6546,22 @@
         <f t="shared" si="29"/>
         <v>1.0109699999999999</v>
       </c>
-      <c r="I146" s="16"/>
+      <c r="I146" s="37"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="9">
         <v>40</v>
       </c>
-      <c r="B147" s="17">
+      <c r="B147" s="38">
         <v>7</v>
       </c>
       <c r="C147" s="9">
         <v>17</v>
       </c>
-      <c r="D147" s="17" t="s">
+      <c r="D147" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="17" t="s">
+      <c r="E147" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F147" s="9">
@@ -6575,7 +6575,7 @@
         <f t="shared" si="29"/>
         <v>1.0630283333333332</v>
       </c>
-      <c r="I147" s="17">
+      <c r="I147" s="38">
         <f t="shared" ref="I147" si="33">SUM(F147:F151)/5</f>
         <v>56143.08</v>
       </c>
@@ -6584,12 +6584,12 @@
       <c r="A148" s="9">
         <v>40</v>
       </c>
-      <c r="B148" s="17"/>
+      <c r="B148" s="38"/>
       <c r="C148" s="9">
         <v>17</v>
       </c>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
       <c r="F148" s="9">
         <v>46518.400000000001</v>
       </c>
@@ -6601,18 +6601,18 @@
         <f t="shared" si="29"/>
         <v>0.7753066666666667</v>
       </c>
-      <c r="I148" s="17"/>
+      <c r="I148" s="38"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="9">
         <v>40</v>
       </c>
-      <c r="B149" s="17"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="9">
         <v>17</v>
       </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
       <c r="F149" s="9">
         <v>63178.5</v>
       </c>
@@ -6624,18 +6624,18 @@
         <f t="shared" si="29"/>
         <v>1.052975</v>
       </c>
-      <c r="I149" s="17"/>
+      <c r="I149" s="38"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="9">
         <v>40</v>
       </c>
-      <c r="B150" s="17"/>
+      <c r="B150" s="38"/>
       <c r="C150" s="9">
         <v>17</v>
       </c>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
       <c r="F150" s="9">
         <v>63368.5</v>
       </c>
@@ -6647,18 +6647,18 @@
         <f t="shared" si="29"/>
         <v>1.0561416666666665</v>
       </c>
-      <c r="I150" s="17"/>
+      <c r="I150" s="38"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="9">
         <v>40</v>
       </c>
-      <c r="B151" s="17"/>
+      <c r="B151" s="38"/>
       <c r="C151" s="9">
         <v>17</v>
       </c>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
       <c r="F151" s="9">
         <v>43868.3</v>
       </c>
@@ -6670,22 +6670,22 @@
         <f t="shared" si="29"/>
         <v>0.73113833333333345</v>
       </c>
-      <c r="I151" s="17"/>
+      <c r="I151" s="38"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>40</v>
       </c>
-      <c r="B152" s="15">
+      <c r="B152" s="34">
         <v>8</v>
       </c>
       <c r="C152" s="6">
         <v>17</v>
       </c>
-      <c r="D152" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="15" t="s">
+      <c r="D152" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="34" t="s">
         <v>17</v>
       </c>
       <c r="F152" s="6">
@@ -6699,7 +6699,7 @@
         <f t="shared" si="29"/>
         <v>0.34019499999999997</v>
       </c>
-      <c r="I152" s="15">
+      <c r="I152" s="34">
         <f t="shared" ref="I152" si="34">SUM(F152:F156)/5</f>
         <v>18298.580000000002</v>
       </c>
@@ -6708,12 +6708,12 @@
       <c r="A153" s="6">
         <v>40</v>
       </c>
-      <c r="B153" s="15"/>
+      <c r="B153" s="34"/>
       <c r="C153" s="6">
         <v>17</v>
       </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
       <c r="F153" s="6">
         <v>19244.900000000001</v>
       </c>
@@ -6725,18 +6725,18 @@
         <f t="shared" si="29"/>
         <v>0.32074833333333336</v>
       </c>
-      <c r="I153" s="15"/>
+      <c r="I153" s="34"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>40</v>
       </c>
-      <c r="B154" s="15"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="6">
         <v>17</v>
       </c>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
       <c r="F154" s="6">
         <v>19148.3</v>
       </c>
@@ -6748,18 +6748,18 @@
         <f t="shared" si="29"/>
         <v>0.3191383333333333</v>
       </c>
-      <c r="I154" s="15"/>
+      <c r="I154" s="34"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>40</v>
       </c>
-      <c r="B155" s="15"/>
+      <c r="B155" s="34"/>
       <c r="C155" s="6">
         <v>17</v>
       </c>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
       <c r="F155" s="6">
         <v>17883.3</v>
       </c>
@@ -6771,18 +6771,18 @@
         <f t="shared" si="29"/>
         <v>0.29805499999999996</v>
       </c>
-      <c r="I155" s="15"/>
+      <c r="I155" s="34"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>40</v>
       </c>
-      <c r="B156" s="15"/>
+      <c r="B156" s="34"/>
       <c r="C156" s="6">
         <v>17</v>
       </c>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
       <c r="F156" s="6">
         <v>14804.7</v>
       </c>
@@ -6794,22 +6794,22 @@
         <f t="shared" si="29"/>
         <v>0.24674500000000002</v>
       </c>
-      <c r="I156" s="15"/>
+      <c r="I156" s="34"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
         <v>40</v>
       </c>
-      <c r="B157" s="12">
+      <c r="B157" s="33">
         <v>8</v>
       </c>
       <c r="C157" s="7">
         <v>17</v>
       </c>
-      <c r="D157" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157" s="12" t="s">
+      <c r="D157" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157" s="33" t="s">
         <v>18</v>
       </c>
       <c r="F157" s="7">
@@ -6823,7 +6823,7 @@
         <f t="shared" si="29"/>
         <v>0.25234499999999999</v>
       </c>
-      <c r="I157" s="12">
+      <c r="I157" s="33">
         <f t="shared" ref="I157" si="35">SUM(F157:F161)/5</f>
         <v>18914.54</v>
       </c>
@@ -6832,12 +6832,12 @@
       <c r="A158" s="7">
         <v>40</v>
       </c>
-      <c r="B158" s="12"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="7">
         <v>17</v>
       </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
       <c r="F158" s="7">
         <v>19803.3</v>
       </c>
@@ -6849,18 +6849,18 @@
         <f t="shared" si="29"/>
         <v>0.33005499999999999</v>
       </c>
-      <c r="I158" s="12"/>
+      <c r="I158" s="33"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="7">
         <v>40</v>
       </c>
-      <c r="B159" s="12"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="7">
         <v>17</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
       <c r="F159" s="7">
         <v>18517.3</v>
       </c>
@@ -6872,18 +6872,18 @@
         <f t="shared" si="29"/>
         <v>0.30862166666666663</v>
       </c>
-      <c r="I159" s="12"/>
+      <c r="I159" s="33"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="7">
         <v>40</v>
       </c>
-      <c r="B160" s="12"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="7">
         <v>17</v>
       </c>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
       <c r="F160" s="7">
         <v>19508.400000000001</v>
       </c>
@@ -6895,18 +6895,18 @@
         <f t="shared" si="29"/>
         <v>0.32514000000000004</v>
       </c>
-      <c r="I160" s="12"/>
+      <c r="I160" s="33"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="7">
         <v>40</v>
       </c>
-      <c r="B161" s="12"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="7">
         <v>17</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
       <c r="F161" s="7">
         <v>21603</v>
       </c>
@@ -6918,22 +6918,22 @@
         <f t="shared" si="29"/>
         <v>0.36005000000000004</v>
       </c>
-      <c r="I161" s="12"/>
+      <c r="I161" s="33"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="8">
         <v>40</v>
       </c>
-      <c r="B162" s="16">
+      <c r="B162" s="37">
         <v>8</v>
       </c>
       <c r="C162" s="8">
         <v>17</v>
       </c>
-      <c r="D162" s="16" t="s">
+      <c r="D162" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="E162" s="37" t="s">
         <v>17</v>
       </c>
       <c r="F162" s="8">
@@ -6947,7 +6947,7 @@
         <f t="shared" si="29"/>
         <v>1.0529583333333334</v>
       </c>
-      <c r="I162" s="16">
+      <c r="I162" s="37">
         <f t="shared" ref="I162" si="36">SUM(F162:F166)/5</f>
         <v>59564.719999999994</v>
       </c>
@@ -6956,12 +6956,12 @@
       <c r="A163" s="8">
         <v>40</v>
       </c>
-      <c r="B163" s="16"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="8">
         <v>17</v>
       </c>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
       <c r="F163" s="8">
         <v>63311.7</v>
       </c>
@@ -6973,18 +6973,18 @@
         <f t="shared" si="29"/>
         <v>1.0551949999999999</v>
       </c>
-      <c r="I163" s="16"/>
+      <c r="I163" s="37"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="8">
         <v>40</v>
       </c>
-      <c r="B164" s="16"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="8">
         <v>17</v>
       </c>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
       <c r="F164" s="8">
         <v>64253.7</v>
       </c>
@@ -6996,18 +6996,18 @@
         <f t="shared" si="29"/>
         <v>1.0708949999999999</v>
       </c>
-      <c r="I164" s="16"/>
+      <c r="I164" s="37"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="8">
         <v>40</v>
       </c>
-      <c r="B165" s="16"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="8">
         <v>17</v>
       </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
       <c r="F165" s="8">
         <v>63372.7</v>
       </c>
@@ -7019,18 +7019,18 @@
         <f t="shared" si="29"/>
         <v>1.0562116666666665</v>
       </c>
-      <c r="I165" s="16"/>
+      <c r="I165" s="37"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="8">
         <v>40</v>
       </c>
-      <c r="B166" s="16"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="8">
         <v>17</v>
       </c>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
       <c r="F166" s="8">
         <v>43708</v>
       </c>
@@ -7042,22 +7042,22 @@
         <f t="shared" si="29"/>
         <v>0.7284666666666666</v>
       </c>
-      <c r="I166" s="16"/>
+      <c r="I166" s="37"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="9">
         <v>40</v>
       </c>
-      <c r="B167" s="17">
+      <c r="B167" s="38">
         <v>8</v>
       </c>
       <c r="C167" s="9">
         <v>17</v>
       </c>
-      <c r="D167" s="17" t="s">
+      <c r="D167" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E167" s="17" t="s">
+      <c r="E167" s="38" t="s">
         <v>18</v>
       </c>
       <c r="F167" s="9">
@@ -7071,7 +7071,7 @@
         <f t="shared" si="29"/>
         <v>0.82274499999999995</v>
       </c>
-      <c r="I167" s="17">
+      <c r="I167" s="38">
         <f t="shared" ref="I167" si="37">SUM(F167:F171)/5</f>
         <v>60408.339999999989</v>
       </c>
@@ -7080,12 +7080,12 @@
       <c r="A168" s="9">
         <v>40</v>
       </c>
-      <c r="B168" s="17"/>
+      <c r="B168" s="38"/>
       <c r="C168" s="9">
         <v>17</v>
       </c>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
       <c r="F168" s="9">
         <v>62974.1</v>
       </c>
@@ -7097,18 +7097,18 @@
         <f t="shared" si="29"/>
         <v>1.0495683333333334</v>
       </c>
-      <c r="I168" s="17"/>
+      <c r="I168" s="38"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="9">
         <v>40</v>
       </c>
-      <c r="B169" s="17"/>
+      <c r="B169" s="38"/>
       <c r="C169" s="9">
         <v>17</v>
       </c>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
       <c r="F169" s="9">
         <v>63194</v>
       </c>
@@ -7120,18 +7120,18 @@
         <f t="shared" si="29"/>
         <v>1.0532333333333335</v>
       </c>
-      <c r="I169" s="17"/>
+      <c r="I169" s="38"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="9">
         <v>40</v>
       </c>
-      <c r="B170" s="17"/>
+      <c r="B170" s="38"/>
       <c r="C170" s="9">
         <v>17</v>
       </c>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="38"/>
       <c r="F170" s="9">
         <v>63414.9</v>
       </c>
@@ -7143,18 +7143,18 @@
         <f t="shared" si="29"/>
         <v>1.056915</v>
       </c>
-      <c r="I170" s="17"/>
+      <c r="I170" s="38"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="9">
         <v>40</v>
       </c>
-      <c r="B171" s="17"/>
+      <c r="B171" s="38"/>
       <c r="C171" s="9">
         <v>17</v>
       </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38"/>
       <c r="F171" s="9">
         <v>63094</v>
       </c>
@@ -7166,52 +7166,80 @@
         <f t="shared" si="29"/>
         <v>1.0515666666666668</v>
       </c>
-      <c r="I171" s="17"/>
+      <c r="I171" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="I152:I156"/>
+    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="I162:I166"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="I142:I146"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
     <mergeCell ref="D142:D146"/>
     <mergeCell ref="E142:E146"/>
     <mergeCell ref="D147:D151"/>
@@ -7224,42 +7252,48 @@
     <mergeCell ref="E132:E136"/>
     <mergeCell ref="D137:D141"/>
     <mergeCell ref="E137:E141"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="B22:B26"/>
     <mergeCell ref="D22:D26"/>
     <mergeCell ref="E22:E26"/>
     <mergeCell ref="D27:D31"/>
@@ -7272,40 +7306,6 @@
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="E17:E21"/>
-    <mergeCell ref="I152:I156"/>
-    <mergeCell ref="I157:I161"/>
-    <mergeCell ref="I162:I166"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="I142:I146"/>
-    <mergeCell ref="I147:I151"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="I77:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="I112:I116"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="I52:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7318,8 +7318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD5CF8-E0D3-4596-B6F2-746E33A17FA4}">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7345,2086 +7345,2190 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="13"/>
+      <c r="A2" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="36"/>
       <c r="C2" s="10">
         <v>67314.5</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="36">
         <v>0</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="36">
         <f>SUM(C2:C6)/5</f>
         <v>67096.639999999985</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="24">
         <v>1</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="24">
         <v>2</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="24">
         <v>3</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="24">
         <v>4</v>
       </c>
-      <c r="M2" s="30">
+      <c r="M2" s="24">
         <v>5</v>
       </c>
-      <c r="N2" s="30">
+      <c r="N2" s="24">
         <v>6</v>
       </c>
-      <c r="O2" s="30">
+      <c r="O2" s="24">
         <v>7</v>
       </c>
-      <c r="P2" s="31">
+      <c r="P2" s="25">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="10">
         <v>67088.899999999994</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="H3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="20">
+      <c r="I3" s="14">
         <f>$E$7</f>
         <v>254726</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3" s="14">
         <f t="shared" ref="J3:P3" si="0">$E$7</f>
         <v>254726</v>
       </c>
-      <c r="K3" s="20">
+      <c r="K3" s="14">
         <f t="shared" si="0"/>
         <v>254726</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="14">
         <f t="shared" si="0"/>
         <v>254726</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="14">
         <f t="shared" si="0"/>
         <v>254726</v>
       </c>
-      <c r="N3" s="20">
+      <c r="N3" s="14">
         <f t="shared" si="0"/>
         <v>254726</v>
       </c>
-      <c r="O3" s="20">
+      <c r="O3" s="14">
         <f t="shared" si="0"/>
         <v>254726</v>
       </c>
-      <c r="P3" s="21">
+      <c r="P3" s="15">
         <f t="shared" si="0"/>
         <v>254726</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="10">
         <v>67185.7</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="H4" s="37" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="H4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="12">
         <f>$E$2</f>
         <v>67096.639999999985</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="12">
         <f t="shared" ref="J4:P4" si="1">$E$2</f>
         <v>67096.639999999985</v>
       </c>
-      <c r="K4" s="18">
+      <c r="K4" s="12">
         <f t="shared" si="1"/>
         <v>67096.639999999985</v>
       </c>
-      <c r="L4" s="18">
+      <c r="L4" s="12">
         <f t="shared" si="1"/>
         <v>67096.639999999985</v>
       </c>
-      <c r="M4" s="18">
+      <c r="M4" s="12">
         <f t="shared" si="1"/>
         <v>67096.639999999985</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="12">
         <f t="shared" si="1"/>
         <v>67096.639999999985</v>
       </c>
-      <c r="O4" s="18">
+      <c r="O4" s="12">
         <f t="shared" si="1"/>
         <v>67096.639999999985</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="13">
         <f t="shared" si="1"/>
         <v>67096.639999999985</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="10">
         <v>66607.7</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="H5" s="32" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="H5" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="16">
         <f>E27</f>
         <v>253193.2</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="16">
         <f>E47</f>
         <v>132197.20000000001</v>
       </c>
-      <c r="K5" s="22">
+      <c r="K5" s="16">
         <f>E67</f>
         <v>79996.2</v>
       </c>
-      <c r="L5" s="22">
+      <c r="L5" s="16">
         <f>E87</f>
         <v>74366.180000000008</v>
       </c>
-      <c r="M5" s="22">
+      <c r="M5" s="16">
         <f>E107</f>
         <v>59759.96</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N5" s="16">
         <f>E127</f>
         <v>56189.319999999992</v>
       </c>
-      <c r="O5" s="22">
+      <c r="O5" s="16">
         <f>E147</f>
         <v>56143.08</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="17">
         <f>E167</f>
         <v>60408.339999999989</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="10">
         <v>67286.399999999994</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="H6" s="33" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="H6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="18">
         <f>E22</f>
         <v>252188.79999999999</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="18">
         <f>E42</f>
         <v>122818.9</v>
       </c>
-      <c r="K6" s="24">
+      <c r="K6" s="18">
         <f>E62</f>
         <v>76386.06</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="18">
         <f>E82</f>
         <v>70993.66</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="18">
         <f>E102</f>
         <v>62424.220000000008</v>
       </c>
-      <c r="N6" s="24">
+      <c r="N6" s="18">
         <f>E122</f>
         <v>56237.1</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="18">
         <f>E142</f>
         <v>60567.58</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="19">
         <f>E162</f>
         <v>59564.719999999994</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="11">
         <v>255690</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="35">
         <v>0</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="35">
         <f>SUM(C7:C11)/5</f>
         <v>254726</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="H7" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="20">
         <f>E17</f>
         <v>65802.38</v>
       </c>
-      <c r="J7" s="26">
+      <c r="J7" s="20">
         <f>E37</f>
         <v>34992.639999999999</v>
       </c>
-      <c r="K7" s="26">
+      <c r="K7" s="20">
         <f>E57</f>
         <v>24258.9</v>
       </c>
-      <c r="L7" s="26">
+      <c r="L7" s="20">
         <f>E77</f>
         <v>21608.659999999996</v>
       </c>
-      <c r="M7" s="26">
+      <c r="M7" s="20">
         <f>E97</f>
         <v>17341.32</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="20">
         <f>E117</f>
         <v>19996.98</v>
       </c>
-      <c r="O7" s="26">
+      <c r="O7" s="20">
         <f>E137</f>
         <v>19411.14</v>
       </c>
-      <c r="P7" s="27">
+      <c r="P7" s="21">
         <f>E157</f>
         <v>18914.54</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="11">
         <v>255234</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="H8" s="35" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="H8" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="28">
+      <c r="I8" s="22">
         <f>E12</f>
         <v>66700.5</v>
       </c>
-      <c r="J8" s="28">
+      <c r="J8" s="22">
         <f>E32</f>
         <v>32993.94</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="22">
         <f>E52</f>
         <v>26377.120000000003</v>
       </c>
-      <c r="L8" s="28">
+      <c r="L8" s="22">
         <f>E72</f>
         <v>23896.339999999997</v>
       </c>
-      <c r="M8" s="28">
+      <c r="M8" s="22">
         <f>E92</f>
         <v>18268.879999999997</v>
       </c>
-      <c r="N8" s="28">
+      <c r="N8" s="22">
         <f>E112</f>
         <v>20798.82</v>
       </c>
-      <c r="O8" s="28">
+      <c r="O8" s="22">
         <f>E132</f>
         <v>18812.939999999999</v>
       </c>
-      <c r="P8" s="29">
+      <c r="P8" s="23">
         <f>E152</f>
         <v>18298.580000000002</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="11">
         <v>254960</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="11">
         <v>254264</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="11">
         <v>253482</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15" t="s">
+      <c r="A12" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6">
         <v>67401.8</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="34">
         <v>1</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="34">
         <f>SUM(C12:C16)/5</f>
         <v>66700.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
       <c r="C13" s="6">
         <v>66515</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
       <c r="C14" s="6">
         <v>66720.3</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
       <c r="C15" s="6">
         <v>66057.2</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="6">
         <v>66808.2</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="7">
         <v>65876.600000000006</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="33">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="33">
         <f>SUM(C17:C21)/5</f>
         <v>65802.38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>65777.3</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7">
         <v>65897.7</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="7">
         <v>65713.5</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>65746.8</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="8">
         <v>251986</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="37">
         <v>1</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="37">
         <f>SUM(C22:C26)/5</f>
         <v>252188.79999999999</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="8">
         <v>251990</v>
       </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="8">
         <v>251847</v>
       </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
       <c r="C25" s="8">
         <v>251876</v>
       </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
       <c r="C26" s="8">
         <v>253245</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="9">
         <v>254483</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="38">
         <v>1</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="38">
         <f>SUM(C27:C31)/5</f>
         <v>253193.2</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="9">
         <v>253111</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="17"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="9">
         <v>251484</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="9">
         <v>252818</v>
       </c>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="9">
         <v>254070</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="15" t="s">
+      <c r="A32" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="6">
         <v>37708.400000000001</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D32" s="34">
         <v>2</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="34">
         <f>SUM(C32:C36)/5</f>
         <v>32993.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="6">
         <v>29796.6</v>
       </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="6">
         <v>31599.7</v>
       </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="6">
         <v>28161.8</v>
       </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="34"/>
       <c r="C36" s="6">
         <v>37703.199999999997</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="7">
         <v>32682.3</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="33">
         <v>2</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="33">
         <f>SUM(C37:C41)/5</f>
         <v>34992.639999999999</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="7">
         <v>37267.4</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7">
         <v>30943.9</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="7">
         <v>37141.599999999999</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="7">
         <v>36928</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C42" s="8">
         <v>135634</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="37">
         <v>2</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="37">
         <f>SUM(C42:C46)/5</f>
         <v>122818.9</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
       <c r="C43" s="8">
         <v>134952</v>
       </c>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
       <c r="C44" s="8">
         <v>118165</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
       <c r="C45" s="8">
         <v>136298</v>
       </c>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
       <c r="C46" s="8">
         <v>89045.5</v>
       </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="17" t="s">
+      <c r="B47" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C47" s="9">
         <v>119013</v>
       </c>
-      <c r="D47" s="17">
+      <c r="D47" s="38">
         <v>2</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="38">
         <f>SUM(C47:C51)/5</f>
         <v>132197.20000000001</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="9">
         <v>135979</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="9">
         <v>135776</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="9">
         <v>135080</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="9">
         <v>135138</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="6">
         <v>28757.9</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D52" s="34">
         <v>3</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E52" s="34">
         <f>SUM(C52:C56)/5</f>
         <v>26377.120000000003</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="15"/>
-      <c r="B53" s="15"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="6">
         <v>28475.3</v>
       </c>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="15"/>
-      <c r="B54" s="15"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
       <c r="C54" s="6">
         <v>25300</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="15"/>
-      <c r="B55" s="15"/>
+      <c r="A55" s="34"/>
+      <c r="B55" s="34"/>
       <c r="C55" s="6">
         <v>20617.3</v>
       </c>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="15"/>
-      <c r="B56" s="15"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
       <c r="C56" s="6">
         <v>28735.1</v>
       </c>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B57" s="12" t="s">
+      <c r="A57" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C57" s="7">
         <v>20201</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="33">
         <v>3</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="33">
         <f>SUM(C57:C61)/5</f>
         <v>24258.9</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="7">
         <v>27399.1</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="7">
         <v>26050.1</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="7">
         <v>27546</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="7">
         <v>20098.3</v>
       </c>
-      <c r="D61" s="12"/>
-      <c r="E61" s="12"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="8">
         <v>66627.7</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D62" s="37">
         <v>3</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="37">
         <f>SUM(C62:C66)/5</f>
         <v>76386.06</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="37"/>
       <c r="C63" s="8">
         <v>79299</v>
       </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="37"/>
       <c r="C64" s="8">
         <v>69818.3</v>
       </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="37"/>
       <c r="C65" s="8">
         <v>100542</v>
       </c>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="37"/>
       <c r="C66" s="8">
         <v>65643.3</v>
       </c>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="17" t="s">
+      <c r="A67" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C67" s="9">
         <v>66242.600000000006</v>
       </c>
-      <c r="D67" s="17">
+      <c r="D67" s="38">
         <v>3</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="38">
         <f>SUM(C67:C71)/5</f>
         <v>79996.2</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="9">
         <v>87290.4</v>
       </c>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
+      <c r="D68" s="38"/>
+      <c r="E68" s="38"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="38"/>
       <c r="C69" s="9">
         <v>75023.899999999994</v>
       </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
+      <c r="D69" s="38"/>
+      <c r="E69" s="38"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="9">
         <v>78421.100000000006</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="9">
         <v>93003</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
+      <c r="D71" s="38"/>
+      <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="15" t="s">
+      <c r="A72" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="6">
         <v>23720.5</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D72" s="34">
         <v>4</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="34">
         <f>SUM(C72:C76)/5</f>
         <v>23896.339999999997</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="15"/>
+      <c r="A73" s="34"/>
+      <c r="B73" s="34"/>
       <c r="C73" s="6">
         <v>23819.3</v>
       </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="15"/>
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="6">
         <v>24014.1</v>
       </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="15"/>
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
       <c r="C75" s="6">
         <v>24041.7</v>
       </c>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="15"/>
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
       <c r="C76" s="6">
         <v>23886.1</v>
       </c>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C77" s="7">
         <v>22353.8</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="33">
         <v>4</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="33">
         <f>SUM(C77:C81)/5</f>
         <v>21608.659999999996</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="33"/>
+      <c r="B78" s="33"/>
       <c r="C78" s="7">
         <v>22416.7</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
+      <c r="A79" s="33"/>
+      <c r="B79" s="33"/>
       <c r="C79" s="7">
         <v>22572.400000000001</v>
       </c>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="33"/>
+      <c r="B80" s="33"/>
       <c r="C80" s="7">
         <v>18301.8</v>
       </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="33"/>
+      <c r="B81" s="33"/>
       <c r="C81" s="7">
         <v>22398.6</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="s">
+      <c r="A82" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C82" s="8">
         <v>63248</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D82" s="37">
         <v>4</v>
       </c>
-      <c r="E82" s="16">
+      <c r="E82" s="37">
         <f>SUM(C82:C86)/5</f>
         <v>70993.66</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="37"/>
       <c r="C83" s="8">
         <v>52942.3</v>
       </c>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="37"/>
       <c r="C84" s="8">
         <v>77697.8</v>
       </c>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="37"/>
       <c r="C85" s="8">
         <v>80676.899999999994</v>
       </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="37"/>
       <c r="C86" s="8">
         <v>80403.3</v>
       </c>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="17" t="s">
+      <c r="A87" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B87" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C87" s="9">
         <v>80927</v>
       </c>
-      <c r="D87" s="17">
+      <c r="D87" s="38">
         <v>4</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E87" s="38">
         <f>SUM(C87:C91)/5</f>
         <v>74366.180000000008</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="9">
         <v>63149.599999999999</v>
       </c>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
+      <c r="D88" s="38"/>
+      <c r="E88" s="38"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="9">
         <v>80701.899999999994</v>
       </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="38"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="9">
         <v>80289.8</v>
       </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
+      <c r="D90" s="38"/>
+      <c r="E90" s="38"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="9">
         <v>66762.600000000006</v>
       </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
+      <c r="D91" s="38"/>
+      <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="15" t="s">
+      <c r="A92" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="6">
         <v>14048.7</v>
       </c>
-      <c r="D92" s="15">
+      <c r="D92" s="34">
         <v>5</v>
       </c>
-      <c r="E92" s="15">
+      <c r="E92" s="34">
         <f>SUM(C92:C96)/5</f>
         <v>18268.879999999997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="15"/>
-      <c r="B93" s="15"/>
+      <c r="A93" s="34"/>
+      <c r="B93" s="34"/>
       <c r="C93" s="6">
         <v>21845.3</v>
       </c>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="15"/>
-      <c r="B94" s="15"/>
+      <c r="A94" s="34"/>
+      <c r="B94" s="34"/>
       <c r="C94" s="6">
         <v>19805.900000000001</v>
       </c>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="15"/>
-      <c r="B95" s="15"/>
+      <c r="A95" s="34"/>
+      <c r="B95" s="34"/>
       <c r="C95" s="6">
         <v>21785.3</v>
       </c>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="34"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="15"/>
-      <c r="B96" s="15"/>
+      <c r="A96" s="34"/>
+      <c r="B96" s="34"/>
       <c r="C96" s="6">
         <v>13859.2</v>
       </c>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="34"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B97" s="12" t="s">
+      <c r="A97" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B97" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C97" s="7">
         <v>19982.5</v>
       </c>
-      <c r="D97" s="12">
+      <c r="D97" s="33">
         <v>5</v>
       </c>
-      <c r="E97" s="12">
+      <c r="E97" s="33">
         <f>SUM(C97:C101)/5</f>
         <v>17341.32</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="33"/>
       <c r="C98" s="7">
         <v>19936.5</v>
       </c>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="33"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="33"/>
       <c r="C99" s="7">
         <v>13014.2</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
+      <c r="A100" s="33"/>
+      <c r="B100" s="33"/>
       <c r="C100" s="7">
         <v>14563.5</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
+      <c r="A101" s="33"/>
+      <c r="B101" s="33"/>
       <c r="C101" s="7">
         <v>19209.900000000001</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33"/>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C102" s="8">
         <v>49427.199999999997</v>
       </c>
-      <c r="D102" s="16">
+      <c r="D102" s="37">
         <v>5</v>
       </c>
-      <c r="E102" s="16">
+      <c r="E102" s="37">
         <f>SUM(C102:C106)/5</f>
         <v>62424.220000000008</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
       <c r="C103" s="8">
         <v>67775.399999999994</v>
       </c>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="37"/>
       <c r="C104" s="8">
         <v>71355.600000000006</v>
       </c>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="37"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="37"/>
       <c r="C105" s="8">
         <v>52638.2</v>
       </c>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="37"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="16"/>
-      <c r="B106" s="16"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
       <c r="C106" s="8">
         <v>70924.7</v>
       </c>
-      <c r="D106" s="16"/>
-      <c r="E106" s="16"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="A107" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C107" s="9">
         <v>49046.6</v>
       </c>
-      <c r="D107" s="17">
+      <c r="D107" s="38">
         <v>5</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="38">
         <f>SUM(C107:C111)/5</f>
         <v>59759.96</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="9">
         <v>58493.9</v>
       </c>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
+      <c r="D108" s="38"/>
+      <c r="E108" s="38"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="9">
         <v>61741</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="D109" s="38"/>
+      <c r="E109" s="38"/>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="9">
         <v>58516.6</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
+      <c r="D110" s="38"/>
+      <c r="E110" s="38"/>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="9">
         <v>71001.7</v>
       </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
+      <c r="D111" s="38"/>
+      <c r="E111" s="38"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="15" t="s">
+      <c r="A112" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="6">
         <v>20837.8</v>
       </c>
-      <c r="D112" s="15">
+      <c r="D112" s="34">
         <v>6</v>
       </c>
-      <c r="E112" s="15">
+      <c r="E112" s="34">
         <f>SUM(C112:C116)/5</f>
         <v>20798.82</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="15"/>
+      <c r="A113" s="34"/>
+      <c r="B113" s="34"/>
       <c r="C113" s="6">
         <v>20744.900000000001</v>
       </c>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="15"/>
+      <c r="A114" s="34"/>
+      <c r="B114" s="34"/>
       <c r="C114" s="6">
         <v>20356.099999999999</v>
       </c>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="15"/>
+      <c r="A115" s="34"/>
+      <c r="B115" s="34"/>
       <c r="C115" s="6">
         <v>20857.900000000001</v>
       </c>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="34"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="15"/>
-      <c r="B116" s="15"/>
+      <c r="A116" s="34"/>
+      <c r="B116" s="34"/>
       <c r="C116" s="6">
         <v>21197.4</v>
       </c>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B117" s="12" t="s">
+      <c r="A117" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B117" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C117" s="7">
         <v>21897.3</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="33">
         <v>6</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="33">
         <f>SUM(C117:C121)/5</f>
         <v>19996.98</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="33"/>
+      <c r="B118" s="33"/>
       <c r="C118" s="7">
         <v>23117.3</v>
       </c>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
+      <c r="D118" s="33"/>
+      <c r="E118" s="33"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="33"/>
+      <c r="B119" s="33"/>
       <c r="C119" s="7">
         <v>17171.8</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
+      <c r="D119" s="33"/>
+      <c r="E119" s="33"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="33"/>
+      <c r="B120" s="33"/>
       <c r="C120" s="7">
         <v>19366.2</v>
       </c>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
+      <c r="D120" s="33"/>
+      <c r="E120" s="33"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="33"/>
+      <c r="B121" s="33"/>
       <c r="C121" s="7">
         <v>18432.3</v>
       </c>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B122" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C122" s="8">
         <v>46408.6</v>
       </c>
-      <c r="D122" s="16">
+      <c r="D122" s="37">
         <v>6</v>
       </c>
-      <c r="E122" s="16">
+      <c r="E122" s="37">
         <f>SUM(C122:C126)/5</f>
         <v>56237.1</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="16"/>
-      <c r="B123" s="16"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="37"/>
       <c r="C123" s="8">
         <v>66698.5</v>
       </c>
-      <c r="D123" s="16"/>
-      <c r="E123" s="16"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="37"/>
       <c r="C124" s="8">
         <v>66667.100000000006</v>
       </c>
-      <c r="D124" s="16"/>
-      <c r="E124" s="16"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="37"/>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="16"/>
-      <c r="B125" s="16"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="37"/>
       <c r="C125" s="8">
         <v>54779</v>
       </c>
-      <c r="D125" s="16"/>
-      <c r="E125" s="16"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="37"/>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="16"/>
-      <c r="B126" s="16"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="37"/>
       <c r="C126" s="8">
         <v>46632.3</v>
       </c>
-      <c r="D126" s="16"/>
-      <c r="E126" s="16"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="37"/>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="17" t="s">
+      <c r="B127" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C127" s="9">
         <v>52135.8</v>
       </c>
-      <c r="D127" s="17">
+      <c r="D127" s="38">
         <v>6</v>
       </c>
-      <c r="E127" s="17">
+      <c r="E127" s="38">
         <f>SUM(C127:C131)/5</f>
         <v>56189.319999999992</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="9">
         <v>60902.9</v>
       </c>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
+      <c r="D128" s="38"/>
+      <c r="E128" s="38"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="9">
         <v>66441.3</v>
       </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
+      <c r="D129" s="38"/>
+      <c r="E129" s="38"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="9">
         <v>49295.6</v>
       </c>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
+      <c r="D130" s="38"/>
+      <c r="E130" s="38"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="9">
         <v>52171</v>
       </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
+      <c r="D131" s="38"/>
+      <c r="E131" s="38"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B132" s="15" t="s">
+      <c r="A132" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="6">
         <v>16423.599999999999</v>
       </c>
-      <c r="D132" s="15">
+      <c r="D132" s="34">
         <v>7</v>
       </c>
-      <c r="E132" s="15">
+      <c r="E132" s="34">
         <f t="shared" ref="E132" si="2">SUM(C132:C136)/5</f>
         <v>18812.939999999999</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="15"/>
-      <c r="B133" s="15"/>
+      <c r="A133" s="34"/>
+      <c r="B133" s="34"/>
       <c r="C133" s="6">
         <v>14398.2</v>
       </c>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="15"/>
-      <c r="B134" s="15"/>
+      <c r="A134" s="34"/>
+      <c r="B134" s="34"/>
       <c r="C134" s="6">
         <v>19444.599999999999</v>
       </c>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="34"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="15"/>
-      <c r="B135" s="15"/>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
       <c r="C135" s="6">
         <v>21745.8</v>
       </c>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="34"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="15"/>
-      <c r="B136" s="15"/>
+      <c r="A136" s="34"/>
+      <c r="B136" s="34"/>
       <c r="C136" s="6">
         <v>22052.5</v>
       </c>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
+      <c r="D136" s="34"/>
+      <c r="E136" s="34"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B137" s="12" t="s">
+      <c r="A137" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B137" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C137" s="7">
         <v>23509.3</v>
       </c>
-      <c r="D137" s="12">
+      <c r="D137" s="33">
         <v>7</v>
       </c>
-      <c r="E137" s="12">
+      <c r="E137" s="33">
         <f t="shared" ref="E137" si="3">SUM(C137:C141)/5</f>
         <v>19411.14</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
+      <c r="A138" s="33"/>
+      <c r="B138" s="33"/>
       <c r="C138" s="7">
         <v>17576.3</v>
       </c>
-      <c r="D138" s="12"/>
-      <c r="E138" s="12"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="33"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
+      <c r="A139" s="33"/>
+      <c r="B139" s="33"/>
       <c r="C139" s="7">
         <v>24742.3</v>
       </c>
-      <c r="D139" s="12"/>
-      <c r="E139" s="12"/>
+      <c r="D139" s="33"/>
+      <c r="E139" s="33"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
+      <c r="A140" s="33"/>
+      <c r="B140" s="33"/>
       <c r="C140" s="7">
         <v>16103.3</v>
       </c>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
+      <c r="A141" s="33"/>
+      <c r="B141" s="33"/>
       <c r="C141" s="7">
         <v>15124.5</v>
       </c>
-      <c r="D141" s="12"/>
-      <c r="E141" s="12"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" s="16" t="s">
+      <c r="A142" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C142" s="8">
         <v>63485.8</v>
       </c>
-      <c r="D142" s="16">
+      <c r="D142" s="37">
         <v>7</v>
       </c>
-      <c r="E142" s="16">
+      <c r="E142" s="37">
         <f t="shared" ref="E142" si="4">SUM(C142:C146)/5</f>
         <v>60567.58</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" s="16"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="37"/>
       <c r="C143" s="8">
         <v>63448.9</v>
       </c>
-      <c r="D143" s="16"/>
-      <c r="E143" s="16"/>
+      <c r="D143" s="37"/>
+      <c r="E143" s="37"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" s="16"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="37"/>
       <c r="C144" s="8">
         <v>63103.7</v>
       </c>
-      <c r="D144" s="16"/>
-      <c r="E144" s="16"/>
+      <c r="D144" s="37"/>
+      <c r="E144" s="37"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" s="16"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="37"/>
       <c r="C145" s="8">
         <v>52141.3</v>
       </c>
-      <c r="D145" s="16"/>
-      <c r="E145" s="16"/>
+      <c r="D145" s="37"/>
+      <c r="E145" s="37"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" s="16"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="37"/>
       <c r="C146" s="8">
         <v>60658.2</v>
       </c>
-      <c r="D146" s="16"/>
-      <c r="E146" s="16"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
+      <c r="A147" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C147" s="9">
         <v>63781.7</v>
       </c>
-      <c r="D147" s="17">
+      <c r="D147" s="38">
         <v>7</v>
       </c>
-      <c r="E147" s="17">
+      <c r="E147" s="38">
         <f t="shared" ref="E147" si="5">SUM(C147:C151)/5</f>
         <v>56143.08</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="38"/>
       <c r="C148" s="9">
         <v>46518.400000000001</v>
       </c>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
+      <c r="D148" s="38"/>
+      <c r="E148" s="38"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="9">
         <v>63178.5</v>
       </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="38"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
+      <c r="A150" s="38"/>
+      <c r="B150" s="38"/>
       <c r="C150" s="9">
         <v>63368.5</v>
       </c>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
+      <c r="D150" s="38"/>
+      <c r="E150" s="38"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
+      <c r="A151" s="38"/>
+      <c r="B151" s="38"/>
       <c r="C151" s="9">
         <v>43868.3</v>
       </c>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
+      <c r="D151" s="38"/>
+      <c r="E151" s="38"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="15" t="s">
+      <c r="A152" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="6">
         <v>20411.7</v>
       </c>
-      <c r="D152" s="15">
+      <c r="D152" s="34">
         <v>8</v>
       </c>
-      <c r="E152" s="15">
+      <c r="E152" s="34">
         <f t="shared" ref="E152" si="6">SUM(C152:C156)/5</f>
         <v>18298.580000000002</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="15"/>
-      <c r="B153" s="15"/>
+      <c r="A153" s="34"/>
+      <c r="B153" s="34"/>
       <c r="C153" s="6">
         <v>19244.900000000001</v>
       </c>
-      <c r="D153" s="15"/>
-      <c r="E153" s="15"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="34"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="15"/>
-      <c r="B154" s="15"/>
+      <c r="A154" s="34"/>
+      <c r="B154" s="34"/>
       <c r="C154" s="6">
         <v>19148.3</v>
       </c>
-      <c r="D154" s="15"/>
-      <c r="E154" s="15"/>
+      <c r="D154" s="34"/>
+      <c r="E154" s="34"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="15"/>
-      <c r="B155" s="15"/>
+      <c r="A155" s="34"/>
+      <c r="B155" s="34"/>
       <c r="C155" s="6">
         <v>17883.3</v>
       </c>
-      <c r="D155" s="15"/>
-      <c r="E155" s="15"/>
+      <c r="D155" s="34"/>
+      <c r="E155" s="34"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="15"/>
-      <c r="B156" s="15"/>
+      <c r="A156" s="34"/>
+      <c r="B156" s="34"/>
       <c r="C156" s="6">
         <v>14804.7</v>
       </c>
-      <c r="D156" s="15"/>
-      <c r="E156" s="15"/>
+      <c r="D156" s="34"/>
+      <c r="E156" s="34"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B157" s="12" t="s">
+      <c r="A157" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B157" s="33" t="s">
         <v>18</v>
       </c>
       <c r="C157" s="7">
         <v>15140.7</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="33">
         <v>8</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="33">
         <f t="shared" ref="E157" si="7">SUM(C157:C161)/5</f>
         <v>18914.54</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="7">
         <v>19803.3</v>
       </c>
-      <c r="D158" s="12"/>
-      <c r="E158" s="12"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
+      <c r="A159" s="33"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="7">
         <v>18517.3</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="7">
         <v>19508.400000000001</v>
       </c>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="7">
         <v>21603</v>
       </c>
-      <c r="D161" s="12"/>
-      <c r="E161" s="12"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="s">
+      <c r="A162" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B162" s="16" t="s">
+      <c r="B162" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C162" s="8">
         <v>63177.5</v>
       </c>
-      <c r="D162" s="16">
+      <c r="D162" s="37">
         <v>8</v>
       </c>
-      <c r="E162" s="16">
+      <c r="E162" s="37">
         <f t="shared" ref="E162" si="8">SUM(C162:C166)/5</f>
         <v>59564.719999999994</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" s="16"/>
-      <c r="B163" s="16"/>
+      <c r="A163" s="37"/>
+      <c r="B163" s="37"/>
       <c r="C163" s="8">
         <v>63311.7</v>
       </c>
-      <c r="D163" s="16"/>
-      <c r="E163" s="16"/>
+      <c r="D163" s="37"/>
+      <c r="E163" s="37"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="16"/>
-      <c r="B164" s="16"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="37"/>
       <c r="C164" s="8">
         <v>64253.7</v>
       </c>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
+      <c r="D164" s="37"/>
+      <c r="E164" s="37"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" s="16"/>
-      <c r="B165" s="16"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="37"/>
       <c r="C165" s="8">
         <v>63372.7</v>
       </c>
-      <c r="D165" s="16"/>
-      <c r="E165" s="16"/>
+      <c r="D165" s="37"/>
+      <c r="E165" s="37"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" s="16"/>
-      <c r="B166" s="16"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="37"/>
       <c r="C166" s="8">
         <v>43708</v>
       </c>
-      <c r="D166" s="16"/>
-      <c r="E166" s="16"/>
+      <c r="D166" s="37"/>
+      <c r="E166" s="37"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="17" t="s">
+      <c r="A167" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="38" t="s">
         <v>18</v>
       </c>
       <c r="C167" s="9">
         <v>49364.7</v>
       </c>
-      <c r="D167" s="17">
+      <c r="D167" s="38">
         <v>8</v>
       </c>
-      <c r="E167" s="17">
+      <c r="E167" s="38">
         <f t="shared" ref="E167" si="9">SUM(C167:C171)/5</f>
         <v>60408.339999999989</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
+      <c r="A168" s="38"/>
+      <c r="B168" s="38"/>
       <c r="C168" s="9">
         <v>62974.1</v>
       </c>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
+      <c r="D168" s="38"/>
+      <c r="E168" s="38"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
+      <c r="A169" s="38"/>
+      <c r="B169" s="38"/>
       <c r="C169" s="9">
         <v>63194</v>
       </c>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
+      <c r="D169" s="38"/>
+      <c r="E169" s="38"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
+      <c r="A170" s="38"/>
+      <c r="B170" s="38"/>
       <c r="C170" s="9">
         <v>63414.9</v>
       </c>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
+      <c r="D170" s="38"/>
+      <c r="E170" s="38"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
+      <c r="A171" s="38"/>
+      <c r="B171" s="38"/>
       <c r="C171" s="9">
         <v>63094</v>
       </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
+      <c r="D171" s="38"/>
+      <c r="E171" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="D32:D36"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="B32:B36"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E31"/>
     <mergeCell ref="E92:E96"/>
     <mergeCell ref="E97:E101"/>
     <mergeCell ref="E102:E106"/>
@@ -9437,120 +9541,16 @@
     <mergeCell ref="E77:E81"/>
     <mergeCell ref="E82:E86"/>
     <mergeCell ref="E87:E91"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="D32:D36"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="B32:B36"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="E147:E151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF3690A-D2A7-4BE5-9187-E954800BE5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06E026-2BCB-43B6-8647-EBC4BE8C7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
@@ -2910,11 +2910,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E5205A3-375B-4BB7-AA25-87972EA27D1E}">
-  <dimension ref="A1:I171"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7167,6 +7167,16 @@
         <v>1.0515666666666668</v>
       </c>
       <c r="I171" s="38"/>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <f xml:space="preserve"> SUM(F2:F171)</f>
+        <v>11518654.200000001</v>
+      </c>
+      <c r="I172">
+        <f>F172/(1000*60)</f>
+        <v>191.97757000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="136">
@@ -7318,8 +7328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD5CF8-E0D3-4596-B6F2-746E33A17FA4}">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C06E026-2BCB-43B6-8647-EBC4BE8C7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA29262E-CF07-4710-A119-BA4BF443585A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="6" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mediciones Previas" sheetId="1" r:id="rId1"/>
     <sheet name="Mediciones Optimización" sheetId="2" r:id="rId2"/>
-    <sheet name="Tablas" sheetId="3" r:id="rId3"/>
+    <sheet name="Tablas Mediciones" sheetId="3" r:id="rId3"/>
+    <sheet name="Mediciones optimización 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Tablas Mediciones 2" sheetId="5" r:id="rId5"/>
+    <sheet name="Barrido Iteraciones" sheetId="6" r:id="rId6"/>
+    <sheet name="Tablas Barrido Iteraciones" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="35">
   <si>
     <t>N_Partículas</t>
   </si>
@@ -116,6 +120,36 @@
   </si>
   <si>
     <t>Paralelo Con O2 Con SIMD</t>
+  </si>
+  <si>
+    <t>Iteración</t>
+  </si>
+  <si>
+    <t>Mejor K</t>
+  </si>
+  <si>
+    <t>Tasa de Clasificación Media
+15 P</t>
+  </si>
+  <si>
+    <t>Tasa de Clasificación Media
+30 P</t>
+  </si>
+  <si>
+    <t>Tasa de Clasificación Media
+45 P</t>
+  </si>
+  <si>
+    <t>Tasa de Clasificación Media
+60 P</t>
+  </si>
+  <si>
+    <t>Tasa de Clasificación Media
+75 P</t>
+  </si>
+  <si>
+    <t>Tasa de Clasificación Media
+90 P</t>
   </si>
 </sst>
 </file>
@@ -289,7 +323,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -378,13 +412,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -392,6 +426,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -440,7 +480,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -451,7 +493,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tablas!$I$3:$P$3</c:f>
+              <c:f>'Tablas Mediciones'!$I$3:$P$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -498,7 +540,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -509,7 +553,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tablas!$I$4:$P$4</c:f>
+              <c:f>'Tablas Mediciones'!$I$4:$P$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -556,7 +600,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -567,7 +613,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tablas!$I$5:$P$5</c:f>
+              <c:f>'Tablas Mediciones'!$I$5:$P$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -625,7 +671,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tablas!$I$6:$P$6</c:f>
+              <c:f>'Tablas Mediciones'!$I$6:$P$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -683,7 +729,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tablas!$I$7:$P$7</c:f>
+              <c:f>'Tablas Mediciones'!$I$7:$P$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -741,7 +787,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tablas!$I$8:$P$8</c:f>
+              <c:f>'Tablas Mediciones'!$I$8:$P$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2913,7 +2959,7 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
@@ -2960,16 +3006,16 @@
       <c r="A2" s="10">
         <v>40</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>0</v>
       </c>
       <c r="C2" s="10">
         <v>17</v>
       </c>
-      <c r="D2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="36"/>
+      <c r="D2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="34"/>
       <c r="F2" s="10">
         <v>67314.5</v>
       </c>
@@ -2981,7 +3027,7 @@
         <f>G2/60</f>
         <v>1.1219083333333333</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="34">
         <f>SUM(F2:F6)/5</f>
         <v>67096.639999999985</v>
       </c>
@@ -2990,12 +3036,12 @@
       <c r="A3" s="10">
         <v>40</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="10">
         <v>17</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="F3" s="10">
         <v>67088.899999999994</v>
       </c>
@@ -3007,18 +3053,18 @@
         <f t="shared" ref="H3:H66" si="1">G3/60</f>
         <v>1.1181483333333333</v>
       </c>
-      <c r="I3" s="36"/>
+      <c r="I3" s="34"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>40</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="10">
         <v>67185.7</v>
       </c>
@@ -3030,18 +3076,18 @@
         <f t="shared" si="1"/>
         <v>1.1197616666666665</v>
       </c>
-      <c r="I4" s="36"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>40</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="F5" s="10">
         <v>66607.7</v>
       </c>
@@ -3053,18 +3099,18 @@
         <f t="shared" si="1"/>
         <v>1.1101283333333332</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="34"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>40</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="F6" s="10">
         <v>67286.399999999994</v>
       </c>
@@ -3076,7 +3122,7 @@
         <f t="shared" si="1"/>
         <v>1.12144</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -3204,16 +3250,16 @@
       <c r="A12" s="6">
         <v>40</v>
       </c>
-      <c r="B12" s="34">
+      <c r="B12" s="36">
         <v>1</v>
       </c>
       <c r="C12" s="6">
         <v>17</v>
       </c>
-      <c r="D12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="34" t="s">
+      <c r="D12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
@@ -3227,7 +3273,7 @@
         <f t="shared" si="1"/>
         <v>1.1233633333333335</v>
       </c>
-      <c r="I12" s="34">
+      <c r="I12" s="36">
         <f t="shared" ref="I12" si="2">SUM(F12:F16)/5</f>
         <v>66700.5</v>
       </c>
@@ -3236,12 +3282,12 @@
       <c r="A13" s="6">
         <v>40</v>
       </c>
-      <c r="B13" s="34"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="6">
         <v>17</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
       <c r="F13" s="6">
         <v>66515</v>
       </c>
@@ -3253,18 +3299,18 @@
         <f t="shared" si="1"/>
         <v>1.1085833333333333</v>
       </c>
-      <c r="I13" s="34"/>
+      <c r="I13" s="36"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>40</v>
       </c>
-      <c r="B14" s="34"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="6">
         <v>17</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
       <c r="F14" s="6">
         <v>66720.3</v>
       </c>
@@ -3276,18 +3322,18 @@
         <f t="shared" si="1"/>
         <v>1.1120050000000001</v>
       </c>
-      <c r="I14" s="34"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>40</v>
       </c>
-      <c r="B15" s="34"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="6">
         <v>17</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
       <c r="F15" s="6">
         <v>66057.2</v>
       </c>
@@ -3299,18 +3345,18 @@
         <f t="shared" si="1"/>
         <v>1.1009533333333332</v>
       </c>
-      <c r="I15" s="34"/>
+      <c r="I15" s="36"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40</v>
       </c>
-      <c r="B16" s="34"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="6">
         <v>17</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
       <c r="F16" s="6">
         <v>66808.2</v>
       </c>
@@ -3322,7 +3368,7 @@
         <f t="shared" si="1"/>
         <v>1.11347</v>
       </c>
-      <c r="I16" s="34"/>
+      <c r="I16" s="36"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -3700,16 +3746,16 @@
       <c r="A32" s="6">
         <v>40</v>
       </c>
-      <c r="B32" s="34">
+      <c r="B32" s="36">
         <v>2</v>
       </c>
       <c r="C32" s="6">
         <v>17</v>
       </c>
-      <c r="D32" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="34" t="s">
+      <c r="D32" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="6">
@@ -3723,7 +3769,7 @@
         <f t="shared" si="1"/>
         <v>0.62847333333333344</v>
       </c>
-      <c r="I32" s="34">
+      <c r="I32" s="36">
         <f t="shared" ref="I32" si="6">SUM(F32:F36)/5</f>
         <v>32993.94</v>
       </c>
@@ -3732,12 +3778,12 @@
       <c r="A33" s="6">
         <v>40</v>
       </c>
-      <c r="B33" s="34"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="6">
         <v>17</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
       <c r="F33" s="6">
         <v>29796.6</v>
       </c>
@@ -3749,18 +3795,18 @@
         <f t="shared" si="1"/>
         <v>0.49660999999999994</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="36"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>40</v>
       </c>
-      <c r="B34" s="34"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="6">
         <v>17</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="6">
         <v>31599.7</v>
       </c>
@@ -3772,18 +3818,18 @@
         <f t="shared" si="1"/>
         <v>0.52666166666666669</v>
       </c>
-      <c r="I34" s="34"/>
+      <c r="I34" s="36"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>40</v>
       </c>
-      <c r="B35" s="34"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="6">
         <v>17</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="6">
         <v>28161.8</v>
       </c>
@@ -3795,18 +3841,18 @@
         <f t="shared" si="1"/>
         <v>0.4693633333333333</v>
       </c>
-      <c r="I35" s="34"/>
+      <c r="I35" s="36"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>40</v>
       </c>
-      <c r="B36" s="34"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="6">
         <v>17</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
       <c r="F36" s="6">
         <v>37703.199999999997</v>
       </c>
@@ -3818,7 +3864,7 @@
         <f t="shared" si="1"/>
         <v>0.62838666666666654</v>
       </c>
-      <c r="I36" s="34"/>
+      <c r="I36" s="36"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -4196,16 +4242,16 @@
       <c r="A52" s="6">
         <v>40</v>
       </c>
-      <c r="B52" s="34">
+      <c r="B52" s="36">
         <v>3</v>
       </c>
       <c r="C52" s="6">
         <v>17</v>
       </c>
-      <c r="D52" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E52" s="34" t="s">
+      <c r="D52" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="6">
@@ -4219,7 +4265,7 @@
         <f t="shared" si="1"/>
         <v>0.47929833333333338</v>
       </c>
-      <c r="I52" s="34">
+      <c r="I52" s="36">
         <f t="shared" ref="I52" si="10">SUM(F52:F56)/5</f>
         <v>26377.120000000003</v>
       </c>
@@ -4228,12 +4274,12 @@
       <c r="A53" s="6">
         <v>40</v>
       </c>
-      <c r="B53" s="34"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="6">
         <v>17</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
       <c r="F53" s="6">
         <v>28475.3</v>
       </c>
@@ -4245,18 +4291,18 @@
         <f t="shared" si="1"/>
         <v>0.47458833333333333</v>
       </c>
-      <c r="I53" s="34"/>
+      <c r="I53" s="36"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>40</v>
       </c>
-      <c r="B54" s="34"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="6">
         <v>17</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
       <c r="F54" s="6">
         <v>25300</v>
       </c>
@@ -4268,18 +4314,18 @@
         <f t="shared" si="1"/>
         <v>0.42166666666666669</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="36"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>40</v>
       </c>
-      <c r="B55" s="34"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="6">
         <v>17</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
       <c r="F55" s="6">
         <v>20617.3</v>
       </c>
@@ -4291,18 +4337,18 @@
         <f t="shared" si="1"/>
         <v>0.34362166666666666</v>
       </c>
-      <c r="I55" s="34"/>
+      <c r="I55" s="36"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>40</v>
       </c>
-      <c r="B56" s="34"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="6">
         <v>17</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="6">
         <v>28735.1</v>
       </c>
@@ -4314,7 +4360,7 @@
         <f t="shared" si="1"/>
         <v>0.47891833333333333</v>
       </c>
-      <c r="I56" s="34"/>
+      <c r="I56" s="36"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
@@ -4692,16 +4738,16 @@
       <c r="A72" s="6">
         <v>40</v>
       </c>
-      <c r="B72" s="34">
+      <c r="B72" s="36">
         <v>4</v>
       </c>
       <c r="C72" s="6">
         <v>17</v>
       </c>
-      <c r="D72" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E72" s="34" t="s">
+      <c r="D72" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="6">
@@ -4715,7 +4761,7 @@
         <f t="shared" si="14"/>
         <v>0.3953416666666667</v>
       </c>
-      <c r="I72" s="34">
+      <c r="I72" s="36">
         <f t="shared" ref="I72" si="16">SUM(F72:F76)/5</f>
         <v>23896.339999999997</v>
       </c>
@@ -4724,12 +4770,12 @@
       <c r="A73" s="6">
         <v>40</v>
       </c>
-      <c r="B73" s="34"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="6">
         <v>17</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
       <c r="F73" s="6">
         <v>23819.3</v>
       </c>
@@ -4741,18 +4787,18 @@
         <f t="shared" si="14"/>
         <v>0.39698833333333333</v>
       </c>
-      <c r="I73" s="34"/>
+      <c r="I73" s="36"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40</v>
       </c>
-      <c r="B74" s="34"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="6">
         <v>17</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
       <c r="F74" s="6">
         <v>24014.1</v>
       </c>
@@ -4764,18 +4810,18 @@
         <f t="shared" si="14"/>
         <v>0.40023500000000001</v>
       </c>
-      <c r="I74" s="34"/>
+      <c r="I74" s="36"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40</v>
       </c>
-      <c r="B75" s="34"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="6">
         <v>17</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
       <c r="F75" s="6">
         <v>24041.7</v>
       </c>
@@ -4787,18 +4833,18 @@
         <f t="shared" si="14"/>
         <v>0.40069500000000002</v>
       </c>
-      <c r="I75" s="34"/>
+      <c r="I75" s="36"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40</v>
       </c>
-      <c r="B76" s="34"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="6">
         <v>17</v>
       </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
       <c r="F76" s="6">
         <v>23886.1</v>
       </c>
@@ -4810,7 +4856,7 @@
         <f t="shared" si="14"/>
         <v>0.39810166666666663</v>
       </c>
-      <c r="I76" s="34"/>
+      <c r="I76" s="36"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
@@ -5188,16 +5234,16 @@
       <c r="A92" s="6">
         <v>40</v>
       </c>
-      <c r="B92" s="34">
+      <c r="B92" s="36">
         <v>5</v>
       </c>
       <c r="C92" s="6">
         <v>17</v>
       </c>
-      <c r="D92" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="34" t="s">
+      <c r="D92" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="6">
@@ -5211,7 +5257,7 @@
         <f t="shared" si="14"/>
         <v>0.23414499999999999</v>
       </c>
-      <c r="I92" s="34">
+      <c r="I92" s="36">
         <f t="shared" ref="I92" si="20">SUM(F92:F96)/5</f>
         <v>18268.879999999997</v>
       </c>
@@ -5220,12 +5266,12 @@
       <c r="A93" s="6">
         <v>40</v>
       </c>
-      <c r="B93" s="34"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="6">
         <v>17</v>
       </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
       <c r="F93" s="6">
         <v>21845.3</v>
       </c>
@@ -5237,18 +5283,18 @@
         <f t="shared" si="14"/>
         <v>0.36408833333333329</v>
       </c>
-      <c r="I93" s="34"/>
+      <c r="I93" s="36"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40</v>
       </c>
-      <c r="B94" s="34"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="6">
         <v>17</v>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
       <c r="F94" s="6">
         <v>19805.900000000001</v>
       </c>
@@ -5260,18 +5306,18 @@
         <f t="shared" si="14"/>
         <v>0.33009833333333333</v>
       </c>
-      <c r="I94" s="34"/>
+      <c r="I94" s="36"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40</v>
       </c>
-      <c r="B95" s="34"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="6">
         <v>17</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
       <c r="F95" s="6">
         <v>21785.3</v>
       </c>
@@ -5283,18 +5329,18 @@
         <f t="shared" si="14"/>
         <v>0.36308833333333335</v>
       </c>
-      <c r="I95" s="34"/>
+      <c r="I95" s="36"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40</v>
       </c>
-      <c r="B96" s="34"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="6">
         <v>17</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
       <c r="F96" s="6">
         <v>13859.2</v>
       </c>
@@ -5306,7 +5352,7 @@
         <f t="shared" si="14"/>
         <v>0.2309866666666667</v>
       </c>
-      <c r="I96" s="34"/>
+      <c r="I96" s="36"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
@@ -5684,16 +5730,16 @@
       <c r="A112" s="6">
         <v>40</v>
       </c>
-      <c r="B112" s="34">
+      <c r="B112" s="36">
         <v>6</v>
       </c>
       <c r="C112" s="6">
         <v>17</v>
       </c>
-      <c r="D112" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112" s="34" t="s">
+      <c r="D112" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="6">
@@ -5707,7 +5753,7 @@
         <f t="shared" si="14"/>
         <v>0.34729666666666664</v>
       </c>
-      <c r="I112" s="34">
+      <c r="I112" s="36">
         <f t="shared" ref="I112" si="24">SUM(F112:F116)/5</f>
         <v>20798.82</v>
       </c>
@@ -5716,12 +5762,12 @@
       <c r="A113" s="6">
         <v>40</v>
       </c>
-      <c r="B113" s="34"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="6">
         <v>17</v>
       </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
       <c r="F113" s="6">
         <v>20744.900000000001</v>
       </c>
@@ -5733,18 +5779,18 @@
         <f t="shared" si="14"/>
         <v>0.34574833333333338</v>
       </c>
-      <c r="I113" s="34"/>
+      <c r="I113" s="36"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40</v>
       </c>
-      <c r="B114" s="34"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="6">
         <v>17</v>
       </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
       <c r="F114" s="6">
         <v>20356.099999999999</v>
       </c>
@@ -5756,18 +5802,18 @@
         <f t="shared" si="14"/>
         <v>0.33926833333333328</v>
       </c>
-      <c r="I114" s="34"/>
+      <c r="I114" s="36"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40</v>
       </c>
-      <c r="B115" s="34"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="6">
         <v>17</v>
       </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
       <c r="F115" s="6">
         <v>20857.900000000001</v>
       </c>
@@ -5779,18 +5825,18 @@
         <f t="shared" si="14"/>
         <v>0.34763166666666667</v>
       </c>
-      <c r="I115" s="34"/>
+      <c r="I115" s="36"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40</v>
       </c>
-      <c r="B116" s="34"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="6">
         <v>17</v>
       </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
       <c r="F116" s="6">
         <v>21197.4</v>
       </c>
@@ -5802,7 +5848,7 @@
         <f t="shared" si="14"/>
         <v>0.35329000000000005</v>
       </c>
-      <c r="I116" s="34"/>
+      <c r="I116" s="36"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
@@ -6180,16 +6226,16 @@
       <c r="A132" s="6">
         <v>40</v>
       </c>
-      <c r="B132" s="34">
+      <c r="B132" s="36">
         <v>7</v>
       </c>
       <c r="C132" s="6">
         <v>17</v>
       </c>
-      <c r="D132" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132" s="34" t="s">
+      <c r="D132" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F132" s="6">
@@ -6203,7 +6249,7 @@
         <f t="shared" si="29"/>
         <v>0.27372666666666662</v>
       </c>
-      <c r="I132" s="34">
+      <c r="I132" s="36">
         <f t="shared" ref="I132" si="30">SUM(F132:F136)/5</f>
         <v>18812.939999999999</v>
       </c>
@@ -6212,12 +6258,12 @@
       <c r="A133" s="6">
         <v>40</v>
       </c>
-      <c r="B133" s="34"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="6">
         <v>17</v>
       </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
       <c r="F133" s="6">
         <v>14398.2</v>
       </c>
@@ -6229,18 +6275,18 @@
         <f t="shared" si="29"/>
         <v>0.23997000000000002</v>
       </c>
-      <c r="I133" s="34"/>
+      <c r="I133" s="36"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40</v>
       </c>
-      <c r="B134" s="34"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="6">
         <v>17</v>
       </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
       <c r="F134" s="6">
         <v>19444.599999999999</v>
       </c>
@@ -6252,18 +6298,18 @@
         <f t="shared" si="29"/>
         <v>0.32407666666666662</v>
       </c>
-      <c r="I134" s="34"/>
+      <c r="I134" s="36"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40</v>
       </c>
-      <c r="B135" s="34"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="6">
         <v>17</v>
       </c>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
       <c r="F135" s="6">
         <v>21745.8</v>
       </c>
@@ -6275,18 +6321,18 @@
         <f t="shared" si="29"/>
         <v>0.36242999999999997</v>
       </c>
-      <c r="I135" s="34"/>
+      <c r="I135" s="36"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>40</v>
       </c>
-      <c r="B136" s="34"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="6">
         <v>17</v>
       </c>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
       <c r="F136" s="6">
         <v>22052.5</v>
       </c>
@@ -6298,7 +6344,7 @@
         <f t="shared" si="29"/>
         <v>0.36754166666666666</v>
       </c>
-      <c r="I136" s="34"/>
+      <c r="I136" s="36"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
@@ -6676,16 +6722,16 @@
       <c r="A152" s="6">
         <v>40</v>
       </c>
-      <c r="B152" s="34">
+      <c r="B152" s="36">
         <v>8</v>
       </c>
       <c r="C152" s="6">
         <v>17</v>
       </c>
-      <c r="D152" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="34" t="s">
+      <c r="D152" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152" s="36" t="s">
         <v>17</v>
       </c>
       <c r="F152" s="6">
@@ -6699,7 +6745,7 @@
         <f t="shared" si="29"/>
         <v>0.34019499999999997</v>
       </c>
-      <c r="I152" s="34">
+      <c r="I152" s="36">
         <f t="shared" ref="I152" si="34">SUM(F152:F156)/5</f>
         <v>18298.580000000002</v>
       </c>
@@ -6708,12 +6754,12 @@
       <c r="A153" s="6">
         <v>40</v>
       </c>
-      <c r="B153" s="34"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="6">
         <v>17</v>
       </c>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
       <c r="F153" s="6">
         <v>19244.900000000001</v>
       </c>
@@ -6725,18 +6771,18 @@
         <f t="shared" si="29"/>
         <v>0.32074833333333336</v>
       </c>
-      <c r="I153" s="34"/>
+      <c r="I153" s="36"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>40</v>
       </c>
-      <c r="B154" s="34"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="6">
         <v>17</v>
       </c>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
       <c r="F154" s="6">
         <v>19148.3</v>
       </c>
@@ -6748,18 +6794,18 @@
         <f t="shared" si="29"/>
         <v>0.3191383333333333</v>
       </c>
-      <c r="I154" s="34"/>
+      <c r="I154" s="36"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>40</v>
       </c>
-      <c r="B155" s="34"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="6">
         <v>17</v>
       </c>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
       <c r="F155" s="6">
         <v>17883.3</v>
       </c>
@@ -6771,18 +6817,18 @@
         <f t="shared" si="29"/>
         <v>0.29805499999999996</v>
       </c>
-      <c r="I155" s="34"/>
+      <c r="I155" s="36"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>40</v>
       </c>
-      <c r="B156" s="34"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="6">
         <v>17</v>
       </c>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
       <c r="F156" s="6">
         <v>14804.7</v>
       </c>
@@ -6794,7 +6840,7 @@
         <f t="shared" si="29"/>
         <v>0.24674500000000002</v>
       </c>
-      <c r="I156" s="34"/>
+      <c r="I156" s="36"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
@@ -7180,119 +7226,6 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="I77:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="I112:I116"/>
-    <mergeCell ref="I152:I156"/>
-    <mergeCell ref="I157:I161"/>
-    <mergeCell ref="I162:I166"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="I142:I146"/>
-    <mergeCell ref="I147:I151"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B72:B76"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B7:B11"/>
@@ -7316,6 +7249,119 @@
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="E17:E21"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="I152:I156"/>
+    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="I162:I166"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="I142:I146"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="I52:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -7328,8 +7374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7CD5CF8-E0D3-4596-B6F2-746E33A17FA4}">
   <dimension ref="A1:P171"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7355,17 +7401,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="36"/>
+      <c r="A2" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="34"/>
       <c r="C2" s="10">
         <v>67314.5</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="34">
         <v>0</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <f>SUM(C2:C6)/5</f>
         <v>67096.639999999985</v>
       </c>
@@ -7398,13 +7444,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
       <c r="C3" s="10">
         <v>67088.899999999994</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
       <c r="H3" s="32" t="s">
         <v>21</v>
       </c>
@@ -7442,13 +7488,13 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="10">
         <v>67185.7</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
       <c r="H4" s="31" t="s">
         <v>22</v>
       </c>
@@ -7486,13 +7532,13 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="10">
         <v>66607.7</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
       <c r="H5" s="26" t="s">
         <v>23</v>
       </c>
@@ -7530,13 +7576,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="10">
         <v>67286.399999999994</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
       <c r="H6" s="27" t="s">
         <v>24</v>
       </c>
@@ -7696,58 +7742,58 @@
       <c r="E11" s="35"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="34" t="s">
+      <c r="A12" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6">
         <v>67401.8</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="36">
         <v>1</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="36">
         <f>SUM(C12:C16)/5</f>
         <v>66700.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="34"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="6">
         <v>66515</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="34"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="6">
         <v>66720.3</v>
       </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="34"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="6">
         <v>66057.2</v>
       </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="34"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="6">
         <v>66808.2</v>
       </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
@@ -7912,58 +7958,58 @@
       <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="34" t="s">
+      <c r="A32" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="6">
         <v>37708.400000000001</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="36">
         <v>2</v>
       </c>
-      <c r="E32" s="34">
+      <c r="E32" s="36">
         <f>SUM(C32:C36)/5</f>
         <v>32993.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="6">
         <v>29796.6</v>
       </c>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="6">
         <v>31599.7</v>
       </c>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="6">
         <v>28161.8</v>
       </c>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="6">
         <v>37703.199999999997</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
@@ -8128,58 +8174,58 @@
       <c r="E51" s="38"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="6">
         <v>28757.9</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="36">
         <v>3</v>
       </c>
-      <c r="E52" s="34">
+      <c r="E52" s="36">
         <f>SUM(C52:C56)/5</f>
         <v>26377.120000000003</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="6">
         <v>28475.3</v>
       </c>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="6">
         <v>25300</v>
       </c>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="34"/>
-      <c r="B55" s="34"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="6">
         <v>20617.3</v>
       </c>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="34"/>
-      <c r="B56" s="34"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="6">
         <v>28735.1</v>
       </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="33" t="s">
@@ -8344,58 +8390,58 @@
       <c r="E71" s="38"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="34" t="s">
+      <c r="A72" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="6">
         <v>23720.5</v>
       </c>
-      <c r="D72" s="34">
+      <c r="D72" s="36">
         <v>4</v>
       </c>
-      <c r="E72" s="34">
+      <c r="E72" s="36">
         <f>SUM(C72:C76)/5</f>
         <v>23896.339999999997</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="34"/>
-      <c r="B73" s="34"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
       <c r="C73" s="6">
         <v>23819.3</v>
       </c>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="34"/>
-      <c r="B74" s="34"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="6">
         <v>24014.1</v>
       </c>
-      <c r="D74" s="34"/>
-      <c r="E74" s="34"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="34"/>
-      <c r="B75" s="34"/>
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="6">
         <v>24041.7</v>
       </c>
-      <c r="D75" s="34"/>
-      <c r="E75" s="34"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="34"/>
-      <c r="B76" s="34"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="6">
         <v>23886.1</v>
       </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="34"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="33" t="s">
@@ -8560,58 +8606,58 @@
       <c r="E91" s="38"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B92" s="34" t="s">
+      <c r="A92" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="6">
         <v>14048.7</v>
       </c>
-      <c r="D92" s="34">
+      <c r="D92" s="36">
         <v>5</v>
       </c>
-      <c r="E92" s="34">
+      <c r="E92" s="36">
         <f>SUM(C92:C96)/5</f>
         <v>18268.879999999997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="34"/>
-      <c r="B93" s="34"/>
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
       <c r="C93" s="6">
         <v>21845.3</v>
       </c>
-      <c r="D93" s="34"/>
-      <c r="E93" s="34"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="34"/>
-      <c r="B94" s="34"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="6">
         <v>19805.900000000001</v>
       </c>
-      <c r="D94" s="34"/>
-      <c r="E94" s="34"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="34"/>
-      <c r="B95" s="34"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="6">
         <v>21785.3</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="34"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="6">
         <v>13859.2</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="33" t="s">
@@ -8776,58 +8822,58 @@
       <c r="E111" s="38"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B112" s="34" t="s">
+      <c r="A112" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B112" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="6">
         <v>20837.8</v>
       </c>
-      <c r="D112" s="34">
+      <c r="D112" s="36">
         <v>6</v>
       </c>
-      <c r="E112" s="34">
+      <c r="E112" s="36">
         <f>SUM(C112:C116)/5</f>
         <v>20798.82</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="34"/>
-      <c r="B113" s="34"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="6">
         <v>20744.900000000001</v>
       </c>
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="34"/>
-      <c r="B114" s="34"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="6">
         <v>20356.099999999999</v>
       </c>
-      <c r="D114" s="34"/>
-      <c r="E114" s="34"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="34"/>
-      <c r="B115" s="34"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="6">
         <v>20857.900000000001</v>
       </c>
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="34"/>
-      <c r="B116" s="34"/>
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
       <c r="C116" s="6">
         <v>21197.4</v>
       </c>
-      <c r="D116" s="34"/>
-      <c r="E116" s="34"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
@@ -8992,58 +9038,58 @@
       <c r="E131" s="38"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B132" s="34" t="s">
+      <c r="A132" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B132" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="6">
         <v>16423.599999999999</v>
       </c>
-      <c r="D132" s="34">
+      <c r="D132" s="36">
         <v>7</v>
       </c>
-      <c r="E132" s="34">
+      <c r="E132" s="36">
         <f t="shared" ref="E132" si="2">SUM(C132:C136)/5</f>
         <v>18812.939999999999</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="34"/>
-      <c r="B133" s="34"/>
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
       <c r="C133" s="6">
         <v>14398.2</v>
       </c>
-      <c r="D133" s="34"/>
-      <c r="E133" s="34"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="34"/>
-      <c r="B134" s="34"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="6">
         <v>19444.599999999999</v>
       </c>
-      <c r="D134" s="34"/>
-      <c r="E134" s="34"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="34"/>
-      <c r="B135" s="34"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="6">
         <v>21745.8</v>
       </c>
-      <c r="D135" s="34"/>
-      <c r="E135" s="34"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="34"/>
-      <c r="B136" s="34"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="6">
         <v>22052.5</v>
       </c>
-      <c r="D136" s="34"/>
-      <c r="E136" s="34"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
@@ -9208,58 +9254,58 @@
       <c r="E151" s="38"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B152" s="34" t="s">
+      <c r="A152" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B152" s="36" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="6">
         <v>20411.7</v>
       </c>
-      <c r="D152" s="34">
+      <c r="D152" s="36">
         <v>8</v>
       </c>
-      <c r="E152" s="34">
+      <c r="E152" s="36">
         <f t="shared" ref="E152" si="6">SUM(C152:C156)/5</f>
         <v>18298.580000000002</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="34"/>
-      <c r="B153" s="34"/>
+      <c r="A153" s="36"/>
+      <c r="B153" s="36"/>
       <c r="C153" s="6">
         <v>19244.900000000001</v>
       </c>
-      <c r="D153" s="34"/>
-      <c r="E153" s="34"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="34"/>
-      <c r="B154" s="34"/>
+      <c r="A154" s="36"/>
+      <c r="B154" s="36"/>
       <c r="C154" s="6">
         <v>19148.3</v>
       </c>
-      <c r="D154" s="34"/>
-      <c r="E154" s="34"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="34"/>
-      <c r="B155" s="34"/>
+      <c r="A155" s="36"/>
+      <c r="B155" s="36"/>
       <c r="C155" s="6">
         <v>17883.3</v>
       </c>
-      <c r="D155" s="34"/>
-      <c r="E155" s="34"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="34"/>
-      <c r="B156" s="34"/>
+      <c r="A156" s="36"/>
+      <c r="B156" s="36"/>
       <c r="C156" s="6">
         <v>14804.7</v>
       </c>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
@@ -9425,24 +9471,112 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
     <mergeCell ref="D42:D46"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B46"/>
@@ -9455,112 +9589,24 @@
     <mergeCell ref="D37:D41"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -9568,4 +9614,1127 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0788B50F-0C90-4F3F-B45B-288EBFFEEE56}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C1CFFCF-4DC2-4551-8A39-F0BEB2AA2EFA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EA062C9-2939-4BA5-98E0-54E86652D22D}">
+  <dimension ref="A1:M101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDD41A0-C973-4094-85FE-0DEE675700DD}">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/pruebas.xlsx
+++ b/data/pruebas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlopez\Desktop\facultad\5º\TFG_INF\TFG_PSO\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C87D70A-C768-44F6-8A69-8CEBD36B09C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54E3C6D-D8DB-4500-BCBB-969A20E7605C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="7" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{08983E8D-A012-4C5C-9888-5099C9EB74F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Mediciones Previas" sheetId="1" r:id="rId1"/>
@@ -649,13 +649,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1416,28 +1416,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>254726</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1476,28 +1476,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67096.639999999985</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1536,28 +1536,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>253193.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>132197.20000000001</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>79996.2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74366.180000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59759.96</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56189.319999999992</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56143.08</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>60408.339999999989</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,28 +1594,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>252188.79999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>122818.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76386.06</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70993.66</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62424.220000000008</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56237.1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>60567.58</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59564.719999999994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1652,28 +1652,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>65802.38</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>34992.639999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24258.9</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21608.659999999996</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17341.32</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19996.98</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19411.14</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18914.54</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,28 +1710,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>66700.5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>32993.94</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26377.120000000003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23896.339999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18268.879999999997</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20798.82</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18812.939999999999</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18298.580000000002</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10539,16 +10539,16 @@
       <c r="A2" s="10">
         <v>40</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="113">
         <v>0</v>
       </c>
       <c r="C2" s="10">
         <v>17</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="115"/>
+      <c r="E2" s="113"/>
       <c r="F2" s="10">
         <v>67314.5</v>
       </c>
@@ -10560,7 +10560,7 @@
         <f>G2/60</f>
         <v>1.1219083333333333</v>
       </c>
-      <c r="I2" s="115">
+      <c r="I2" s="113">
         <f>SUM(F2:F6)/5</f>
         <v>67096.639999999985</v>
       </c>
@@ -10569,12 +10569,12 @@
       <c r="A3" s="10">
         <v>40</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="10">
         <v>17</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
       <c r="F3" s="10">
         <v>67088.899999999994</v>
       </c>
@@ -10586,18 +10586,18 @@
         <f t="shared" ref="H3:H66" si="1">G3/60</f>
         <v>1.1181483333333333</v>
       </c>
-      <c r="I3" s="115"/>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>40</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
       <c r="F4" s="10">
         <v>67185.7</v>
       </c>
@@ -10609,18 +10609,18 @@
         <f t="shared" si="1"/>
         <v>1.1197616666666665</v>
       </c>
-      <c r="I4" s="115"/>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>40</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
       <c r="F5" s="10">
         <v>66607.7</v>
       </c>
@@ -10632,18 +10632,18 @@
         <f t="shared" si="1"/>
         <v>1.1101283333333332</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>40</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="F6" s="10">
         <v>67286.399999999994</v>
       </c>
@@ -10655,7 +10655,7 @@
         <f t="shared" si="1"/>
         <v>1.12144</v>
       </c>
-      <c r="I6" s="115"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -10783,16 +10783,16 @@
       <c r="A12" s="6">
         <v>40</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="115">
         <v>1</v>
       </c>
       <c r="C12" s="6">
         <v>17</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="6">
@@ -10806,7 +10806,7 @@
         <f t="shared" si="1"/>
         <v>1.1233633333333335</v>
       </c>
-      <c r="I12" s="113">
+      <c r="I12" s="115">
         <f t="shared" ref="I12" si="2">SUM(F12:F16)/5</f>
         <v>66700.5</v>
       </c>
@@ -10815,12 +10815,12 @@
       <c r="A13" s="6">
         <v>40</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="6">
         <v>17</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
       <c r="F13" s="6">
         <v>66515</v>
       </c>
@@ -10832,18 +10832,18 @@
         <f t="shared" si="1"/>
         <v>1.1085833333333333</v>
       </c>
-      <c r="I13" s="113"/>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>40</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="6">
         <v>17</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
       <c r="F14" s="6">
         <v>66720.3</v>
       </c>
@@ -10855,18 +10855,18 @@
         <f t="shared" si="1"/>
         <v>1.1120050000000001</v>
       </c>
-      <c r="I14" s="113"/>
+      <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>40</v>
       </c>
-      <c r="B15" s="113"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="6">
         <v>17</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
       <c r="F15" s="6">
         <v>66057.2</v>
       </c>
@@ -10878,18 +10878,18 @@
         <f t="shared" si="1"/>
         <v>1.1009533333333332</v>
       </c>
-      <c r="I15" s="113"/>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40</v>
       </c>
-      <c r="B16" s="113"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="6">
         <v>17</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
       <c r="F16" s="6">
         <v>66808.2</v>
       </c>
@@ -10901,7 +10901,7 @@
         <f t="shared" si="1"/>
         <v>1.11347</v>
       </c>
-      <c r="I16" s="113"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -11279,16 +11279,16 @@
       <c r="A32" s="6">
         <v>40</v>
       </c>
-      <c r="B32" s="113">
+      <c r="B32" s="115">
         <v>2</v>
       </c>
       <c r="C32" s="6">
         <v>17</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F32" s="6">
@@ -11302,7 +11302,7 @@
         <f t="shared" si="1"/>
         <v>0.62847333333333344</v>
       </c>
-      <c r="I32" s="113">
+      <c r="I32" s="115">
         <f t="shared" ref="I32" si="6">SUM(F32:F36)/5</f>
         <v>32993.94</v>
       </c>
@@ -11311,12 +11311,12 @@
       <c r="A33" s="6">
         <v>40</v>
       </c>
-      <c r="B33" s="113"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="6">
         <v>17</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
       <c r="F33" s="6">
         <v>29796.6</v>
       </c>
@@ -11328,18 +11328,18 @@
         <f t="shared" si="1"/>
         <v>0.49660999999999994</v>
       </c>
-      <c r="I33" s="113"/>
+      <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>40</v>
       </c>
-      <c r="B34" s="113"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="6">
         <v>17</v>
       </c>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
       <c r="F34" s="6">
         <v>31599.7</v>
       </c>
@@ -11351,18 +11351,18 @@
         <f t="shared" si="1"/>
         <v>0.52666166666666669</v>
       </c>
-      <c r="I34" s="113"/>
+      <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>40</v>
       </c>
-      <c r="B35" s="113"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="6">
         <v>17</v>
       </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
       <c r="F35" s="6">
         <v>28161.8</v>
       </c>
@@ -11374,18 +11374,18 @@
         <f t="shared" si="1"/>
         <v>0.4693633333333333</v>
       </c>
-      <c r="I35" s="113"/>
+      <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>40</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="6">
         <v>17</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
       <c r="F36" s="6">
         <v>37703.199999999997</v>
       </c>
@@ -11397,7 +11397,7 @@
         <f t="shared" si="1"/>
         <v>0.62838666666666654</v>
       </c>
-      <c r="I36" s="113"/>
+      <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -11775,16 +11775,16 @@
       <c r="A52" s="6">
         <v>40</v>
       </c>
-      <c r="B52" s="113">
+      <c r="B52" s="115">
         <v>3</v>
       </c>
       <c r="C52" s="6">
         <v>17</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F52" s="6">
@@ -11798,7 +11798,7 @@
         <f t="shared" si="1"/>
         <v>0.47929833333333338</v>
       </c>
-      <c r="I52" s="113">
+      <c r="I52" s="115">
         <f t="shared" ref="I52" si="10">SUM(F52:F56)/5</f>
         <v>26377.120000000003</v>
       </c>
@@ -11807,12 +11807,12 @@
       <c r="A53" s="6">
         <v>40</v>
       </c>
-      <c r="B53" s="113"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="6">
         <v>17</v>
       </c>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
       <c r="F53" s="6">
         <v>28475.3</v>
       </c>
@@ -11824,18 +11824,18 @@
         <f t="shared" si="1"/>
         <v>0.47458833333333333</v>
       </c>
-      <c r="I53" s="113"/>
+      <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>40</v>
       </c>
-      <c r="B54" s="113"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="6">
         <v>17</v>
       </c>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
       <c r="F54" s="6">
         <v>25300</v>
       </c>
@@ -11847,18 +11847,18 @@
         <f t="shared" si="1"/>
         <v>0.42166666666666669</v>
       </c>
-      <c r="I54" s="113"/>
+      <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>40</v>
       </c>
-      <c r="B55" s="113"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="6">
         <v>17</v>
       </c>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
       <c r="F55" s="6">
         <v>20617.3</v>
       </c>
@@ -11870,18 +11870,18 @@
         <f t="shared" si="1"/>
         <v>0.34362166666666666</v>
       </c>
-      <c r="I55" s="113"/>
+      <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>40</v>
       </c>
-      <c r="B56" s="113"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="6">
         <v>17</v>
       </c>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
       <c r="F56" s="6">
         <v>28735.1</v>
       </c>
@@ -11893,7 +11893,7 @@
         <f t="shared" si="1"/>
         <v>0.47891833333333333</v>
       </c>
-      <c r="I56" s="113"/>
+      <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
@@ -12271,16 +12271,16 @@
       <c r="A72" s="6">
         <v>40</v>
       </c>
-      <c r="B72" s="113">
+      <c r="B72" s="115">
         <v>4</v>
       </c>
       <c r="C72" s="6">
         <v>17</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D72" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="113" t="s">
+      <c r="E72" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F72" s="6">
@@ -12294,7 +12294,7 @@
         <f t="shared" si="14"/>
         <v>0.3953416666666667</v>
       </c>
-      <c r="I72" s="113">
+      <c r="I72" s="115">
         <f t="shared" ref="I72" si="16">SUM(F72:F76)/5</f>
         <v>23896.339999999997</v>
       </c>
@@ -12303,12 +12303,12 @@
       <c r="A73" s="6">
         <v>40</v>
       </c>
-      <c r="B73" s="113"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="6">
         <v>17</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
       <c r="F73" s="6">
         <v>23819.3</v>
       </c>
@@ -12320,18 +12320,18 @@
         <f t="shared" si="14"/>
         <v>0.39698833333333333</v>
       </c>
-      <c r="I73" s="113"/>
+      <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40</v>
       </c>
-      <c r="B74" s="113"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="6">
         <v>17</v>
       </c>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
       <c r="F74" s="6">
         <v>24014.1</v>
       </c>
@@ -12343,18 +12343,18 @@
         <f t="shared" si="14"/>
         <v>0.40023500000000001</v>
       </c>
-      <c r="I74" s="113"/>
+      <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40</v>
       </c>
-      <c r="B75" s="113"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="6">
         <v>17</v>
       </c>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="115"/>
       <c r="F75" s="6">
         <v>24041.7</v>
       </c>
@@ -12366,18 +12366,18 @@
         <f t="shared" si="14"/>
         <v>0.40069500000000002</v>
       </c>
-      <c r="I75" s="113"/>
+      <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40</v>
       </c>
-      <c r="B76" s="113"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="6">
         <v>17</v>
       </c>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
       <c r="F76" s="6">
         <v>23886.1</v>
       </c>
@@ -12389,7 +12389,7 @@
         <f t="shared" si="14"/>
         <v>0.39810166666666663</v>
       </c>
-      <c r="I76" s="113"/>
+      <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
@@ -12767,16 +12767,16 @@
       <c r="A92" s="6">
         <v>40</v>
       </c>
-      <c r="B92" s="113">
+      <c r="B92" s="115">
         <v>5</v>
       </c>
       <c r="C92" s="6">
         <v>17</v>
       </c>
-      <c r="D92" s="113" t="s">
+      <c r="D92" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="113" t="s">
+      <c r="E92" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F92" s="6">
@@ -12790,7 +12790,7 @@
         <f t="shared" si="14"/>
         <v>0.23414499999999999</v>
       </c>
-      <c r="I92" s="113">
+      <c r="I92" s="115">
         <f t="shared" ref="I92" si="20">SUM(F92:F96)/5</f>
         <v>18268.879999999997</v>
       </c>
@@ -12799,12 +12799,12 @@
       <c r="A93" s="6">
         <v>40</v>
       </c>
-      <c r="B93" s="113"/>
+      <c r="B93" s="115"/>
       <c r="C93" s="6">
         <v>17</v>
       </c>
-      <c r="D93" s="113"/>
-      <c r="E93" s="113"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
       <c r="F93" s="6">
         <v>21845.3</v>
       </c>
@@ -12816,18 +12816,18 @@
         <f t="shared" si="14"/>
         <v>0.36408833333333329</v>
       </c>
-      <c r="I93" s="113"/>
+      <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40</v>
       </c>
-      <c r="B94" s="113"/>
+      <c r="B94" s="115"/>
       <c r="C94" s="6">
         <v>17</v>
       </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="113"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
       <c r="F94" s="6">
         <v>19805.900000000001</v>
       </c>
@@ -12839,18 +12839,18 @@
         <f t="shared" si="14"/>
         <v>0.33009833333333333</v>
       </c>
-      <c r="I94" s="113"/>
+      <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40</v>
       </c>
-      <c r="B95" s="113"/>
+      <c r="B95" s="115"/>
       <c r="C95" s="6">
         <v>17</v>
       </c>
-      <c r="D95" s="113"/>
-      <c r="E95" s="113"/>
+      <c r="D95" s="115"/>
+      <c r="E95" s="115"/>
       <c r="F95" s="6">
         <v>21785.3</v>
       </c>
@@ -12862,18 +12862,18 @@
         <f t="shared" si="14"/>
         <v>0.36308833333333335</v>
       </c>
-      <c r="I95" s="113"/>
+      <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40</v>
       </c>
-      <c r="B96" s="113"/>
+      <c r="B96" s="115"/>
       <c r="C96" s="6">
         <v>17</v>
       </c>
-      <c r="D96" s="113"/>
-      <c r="E96" s="113"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
       <c r="F96" s="6">
         <v>13859.2</v>
       </c>
@@ -12885,7 +12885,7 @@
         <f t="shared" si="14"/>
         <v>0.2309866666666667</v>
       </c>
-      <c r="I96" s="113"/>
+      <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
@@ -13263,16 +13263,16 @@
       <c r="A112" s="6">
         <v>40</v>
       </c>
-      <c r="B112" s="113">
+      <c r="B112" s="115">
         <v>6</v>
       </c>
       <c r="C112" s="6">
         <v>17</v>
       </c>
-      <c r="D112" s="113" t="s">
+      <c r="D112" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="113" t="s">
+      <c r="E112" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F112" s="6">
@@ -13286,7 +13286,7 @@
         <f t="shared" si="14"/>
         <v>0.34729666666666664</v>
       </c>
-      <c r="I112" s="113">
+      <c r="I112" s="115">
         <f t="shared" ref="I112" si="24">SUM(F112:F116)/5</f>
         <v>20798.82</v>
       </c>
@@ -13295,12 +13295,12 @@
       <c r="A113" s="6">
         <v>40</v>
       </c>
-      <c r="B113" s="113"/>
+      <c r="B113" s="115"/>
       <c r="C113" s="6">
         <v>17</v>
       </c>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
       <c r="F113" s="6">
         <v>20744.900000000001</v>
       </c>
@@ -13312,18 +13312,18 @@
         <f t="shared" si="14"/>
         <v>0.34574833333333338</v>
       </c>
-      <c r="I113" s="113"/>
+      <c r="I113" s="115"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40</v>
       </c>
-      <c r="B114" s="113"/>
+      <c r="B114" s="115"/>
       <c r="C114" s="6">
         <v>17</v>
       </c>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
+      <c r="D114" s="115"/>
+      <c r="E114" s="115"/>
       <c r="F114" s="6">
         <v>20356.099999999999</v>
       </c>
@@ -13335,18 +13335,18 @@
         <f t="shared" si="14"/>
         <v>0.33926833333333328</v>
       </c>
-      <c r="I114" s="113"/>
+      <c r="I114" s="115"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40</v>
       </c>
-      <c r="B115" s="113"/>
+      <c r="B115" s="115"/>
       <c r="C115" s="6">
         <v>17</v>
       </c>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
+      <c r="D115" s="115"/>
+      <c r="E115" s="115"/>
       <c r="F115" s="6">
         <v>20857.900000000001</v>
       </c>
@@ -13358,18 +13358,18 @@
         <f t="shared" si="14"/>
         <v>0.34763166666666667</v>
       </c>
-      <c r="I115" s="113"/>
+      <c r="I115" s="115"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40</v>
       </c>
-      <c r="B116" s="113"/>
+      <c r="B116" s="115"/>
       <c r="C116" s="6">
         <v>17</v>
       </c>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="115"/>
       <c r="F116" s="6">
         <v>21197.4</v>
       </c>
@@ -13381,7 +13381,7 @@
         <f t="shared" si="14"/>
         <v>0.35329000000000005</v>
       </c>
-      <c r="I116" s="113"/>
+      <c r="I116" s="115"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
@@ -13759,16 +13759,16 @@
       <c r="A132" s="6">
         <v>40</v>
       </c>
-      <c r="B132" s="113">
+      <c r="B132" s="115">
         <v>7</v>
       </c>
       <c r="C132" s="6">
         <v>17</v>
       </c>
-      <c r="D132" s="113" t="s">
+      <c r="D132" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="113" t="s">
+      <c r="E132" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F132" s="6">
@@ -13782,7 +13782,7 @@
         <f t="shared" si="29"/>
         <v>0.27372666666666662</v>
       </c>
-      <c r="I132" s="113">
+      <c r="I132" s="115">
         <f t="shared" ref="I132" si="30">SUM(F132:F136)/5</f>
         <v>18812.939999999999</v>
       </c>
@@ -13791,12 +13791,12 @@
       <c r="A133" s="6">
         <v>40</v>
       </c>
-      <c r="B133" s="113"/>
+      <c r="B133" s="115"/>
       <c r="C133" s="6">
         <v>17</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
+      <c r="D133" s="115"/>
+      <c r="E133" s="115"/>
       <c r="F133" s="6">
         <v>14398.2</v>
       </c>
@@ -13808,18 +13808,18 @@
         <f t="shared" si="29"/>
         <v>0.23997000000000002</v>
       </c>
-      <c r="I133" s="113"/>
+      <c r="I133" s="115"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40</v>
       </c>
-      <c r="B134" s="113"/>
+      <c r="B134" s="115"/>
       <c r="C134" s="6">
         <v>17</v>
       </c>
-      <c r="D134" s="113"/>
-      <c r="E134" s="113"/>
+      <c r="D134" s="115"/>
+      <c r="E134" s="115"/>
       <c r="F134" s="6">
         <v>19444.599999999999</v>
       </c>
@@ -13831,18 +13831,18 @@
         <f t="shared" si="29"/>
         <v>0.32407666666666662</v>
       </c>
-      <c r="I134" s="113"/>
+      <c r="I134" s="115"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40</v>
       </c>
-      <c r="B135" s="113"/>
+      <c r="B135" s="115"/>
       <c r="C135" s="6">
         <v>17</v>
       </c>
-      <c r="D135" s="113"/>
-      <c r="E135" s="113"/>
+      <c r="D135" s="115"/>
+      <c r="E135" s="115"/>
       <c r="F135" s="6">
         <v>21745.8</v>
       </c>
@@ -13854,18 +13854,18 @@
         <f t="shared" si="29"/>
         <v>0.36242999999999997</v>
       </c>
-      <c r="I135" s="113"/>
+      <c r="I135" s="115"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>40</v>
       </c>
-      <c r="B136" s="113"/>
+      <c r="B136" s="115"/>
       <c r="C136" s="6">
         <v>17</v>
       </c>
-      <c r="D136" s="113"/>
-      <c r="E136" s="113"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="115"/>
       <c r="F136" s="6">
         <v>22052.5</v>
       </c>
@@ -13877,7 +13877,7 @@
         <f t="shared" si="29"/>
         <v>0.36754166666666666</v>
       </c>
-      <c r="I136" s="113"/>
+      <c r="I136" s="115"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
@@ -14255,16 +14255,16 @@
       <c r="A152" s="6">
         <v>40</v>
       </c>
-      <c r="B152" s="113">
+      <c r="B152" s="115">
         <v>8</v>
       </c>
       <c r="C152" s="6">
         <v>17</v>
       </c>
-      <c r="D152" s="113" t="s">
+      <c r="D152" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E152" s="113" t="s">
+      <c r="E152" s="115" t="s">
         <v>17</v>
       </c>
       <c r="F152" s="6">
@@ -14278,7 +14278,7 @@
         <f t="shared" si="29"/>
         <v>0.34019499999999997</v>
       </c>
-      <c r="I152" s="113">
+      <c r="I152" s="115">
         <f t="shared" ref="I152" si="34">SUM(F152:F156)/5</f>
         <v>18298.580000000002</v>
       </c>
@@ -14287,12 +14287,12 @@
       <c r="A153" s="6">
         <v>40</v>
       </c>
-      <c r="B153" s="113"/>
+      <c r="B153" s="115"/>
       <c r="C153" s="6">
         <v>17</v>
       </c>
-      <c r="D153" s="113"/>
-      <c r="E153" s="113"/>
+      <c r="D153" s="115"/>
+      <c r="E153" s="115"/>
       <c r="F153" s="6">
         <v>19244.900000000001</v>
       </c>
@@ -14304,18 +14304,18 @@
         <f t="shared" si="29"/>
         <v>0.32074833333333336</v>
       </c>
-      <c r="I153" s="113"/>
+      <c r="I153" s="115"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>40</v>
       </c>
-      <c r="B154" s="113"/>
+      <c r="B154" s="115"/>
       <c r="C154" s="6">
         <v>17</v>
       </c>
-      <c r="D154" s="113"/>
-      <c r="E154" s="113"/>
+      <c r="D154" s="115"/>
+      <c r="E154" s="115"/>
       <c r="F154" s="6">
         <v>19148.3</v>
       </c>
@@ -14327,18 +14327,18 @@
         <f t="shared" si="29"/>
         <v>0.3191383333333333</v>
       </c>
-      <c r="I154" s="113"/>
+      <c r="I154" s="115"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>40</v>
       </c>
-      <c r="B155" s="113"/>
+      <c r="B155" s="115"/>
       <c r="C155" s="6">
         <v>17</v>
       </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
+      <c r="D155" s="115"/>
+      <c r="E155" s="115"/>
       <c r="F155" s="6">
         <v>17883.3</v>
       </c>
@@ -14350,18 +14350,18 @@
         <f t="shared" si="29"/>
         <v>0.29805499999999996</v>
       </c>
-      <c r="I155" s="113"/>
+      <c r="I155" s="115"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>40</v>
       </c>
-      <c r="B156" s="113"/>
+      <c r="B156" s="115"/>
       <c r="C156" s="6">
         <v>17</v>
       </c>
-      <c r="D156" s="113"/>
-      <c r="E156" s="113"/>
+      <c r="D156" s="115"/>
+      <c r="E156" s="115"/>
       <c r="F156" s="6">
         <v>14804.7</v>
       </c>
@@ -14373,7 +14373,7 @@
         <f t="shared" si="29"/>
         <v>0.24674500000000002</v>
       </c>
-      <c r="I156" s="113"/>
+      <c r="I156" s="115"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
@@ -14759,119 +14759,6 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="I17:I21"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="I32:I36"/>
-    <mergeCell ref="I37:I41"/>
-    <mergeCell ref="I42:I46"/>
-    <mergeCell ref="I47:I51"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="I77:I81"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="I112:I116"/>
-    <mergeCell ref="I152:I156"/>
-    <mergeCell ref="I157:I161"/>
-    <mergeCell ref="I162:I166"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="I142:I146"/>
-    <mergeCell ref="I147:I151"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="D37:D41"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="D42:D46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="D47:D51"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="B47:B51"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="B72:B76"/>
     <mergeCell ref="B17:B21"/>
     <mergeCell ref="B12:B16"/>
     <mergeCell ref="B7:B11"/>
@@ -14895,6 +14782,119 @@
     <mergeCell ref="E12:E16"/>
     <mergeCell ref="D17:D21"/>
     <mergeCell ref="E17:E21"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="D37:D41"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="D42:D46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="I152:I156"/>
+    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="I162:I166"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="I142:I146"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="I57:I61"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="I22:I26"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="I32:I36"/>
+    <mergeCell ref="I37:I41"/>
+    <mergeCell ref="I42:I46"/>
+    <mergeCell ref="I47:I51"/>
+    <mergeCell ref="I52:I56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -14908,7 +14908,7 @@
   <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14934,17 +14934,17 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="115"/>
+      <c r="B2" s="113"/>
       <c r="C2" s="10">
         <v>67314.5</v>
       </c>
-      <c r="D2" s="115">
-        <v>0</v>
-      </c>
-      <c r="E2" s="115">
+      <c r="D2" s="113">
+        <v>0</v>
+      </c>
+      <c r="E2" s="113">
         <f>SUM(C2:C6)/5</f>
         <v>67096.639999999985</v>
       </c>
@@ -14977,13 +14977,13 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="10">
         <v>67088.899999999994</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
       <c r="H3" s="32" t="s">
         <v>21</v>
       </c>
@@ -15021,13 +15021,13 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="10">
         <v>67185.7</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
       <c r="H4" s="31" t="s">
         <v>22</v>
       </c>
@@ -15065,13 +15065,13 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="10">
         <v>66607.7</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
       <c r="H5" s="26" t="s">
         <v>23</v>
       </c>
@@ -15109,13 +15109,13 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="10">
         <v>67286.399999999994</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
       <c r="H6" s="27" t="s">
         <v>24</v>
       </c>
@@ -15275,58 +15275,58 @@
       <c r="E11" s="114"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="6">
         <v>67401.8</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="115">
         <v>1</v>
       </c>
-      <c r="E12" s="113">
+      <c r="E12" s="115">
         <f>SUM(C12:C16)/5</f>
         <v>66700.5</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="6">
         <v>66515</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="6">
         <v>66720.3</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="6">
         <v>66057.2</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="6">
         <v>66808.2</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
@@ -15491,58 +15491,58 @@
       <c r="E31" s="117"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C32" s="6">
         <v>37708.400000000001</v>
       </c>
-      <c r="D32" s="113">
+      <c r="D32" s="115">
         <v>2</v>
       </c>
-      <c r="E32" s="113">
+      <c r="E32" s="115">
         <f>SUM(C32:C36)/5</f>
         <v>32993.94</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="6">
         <v>29796.6</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="6">
         <v>31599.7</v>
       </c>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="6">
         <v>28161.8</v>
       </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="6">
         <v>37703.199999999997</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="112" t="s">
@@ -15707,58 +15707,58 @@
       <c r="E51" s="117"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="B52" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C52" s="6">
         <v>28757.9</v>
       </c>
-      <c r="D52" s="113">
+      <c r="D52" s="115">
         <v>3</v>
       </c>
-      <c r="E52" s="113">
+      <c r="E52" s="115">
         <f>SUM(C52:C56)/5</f>
         <v>26377.120000000003</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="6">
         <v>28475.3</v>
       </c>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="6">
         <v>25300</v>
       </c>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
-      <c r="B55" s="113"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="6">
         <v>20617.3</v>
       </c>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="6">
         <v>28735.1</v>
       </c>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="112" t="s">
@@ -15923,58 +15923,58 @@
       <c r="E71" s="117"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="113" t="s">
+      <c r="A72" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="113" t="s">
+      <c r="B72" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C72" s="6">
         <v>23720.5</v>
       </c>
-      <c r="D72" s="113">
+      <c r="D72" s="115">
         <v>4</v>
       </c>
-      <c r="E72" s="113">
+      <c r="E72" s="115">
         <f>SUM(C72:C76)/5</f>
         <v>23896.339999999997</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
-      <c r="B73" s="113"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="6">
         <v>23819.3</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="113"/>
-      <c r="B74" s="113"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="6">
         <v>24014.1</v>
       </c>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="113"/>
-      <c r="B75" s="113"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="6">
         <v>24041.7</v>
       </c>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
+      <c r="D75" s="115"/>
+      <c r="E75" s="115"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
-      <c r="B76" s="113"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="6">
         <v>23886.1</v>
       </c>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="112" t="s">
@@ -16139,58 +16139,58 @@
       <c r="E91" s="117"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="113" t="s">
+      <c r="A92" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C92" s="6">
         <v>14048.7</v>
       </c>
-      <c r="D92" s="113">
+      <c r="D92" s="115">
         <v>5</v>
       </c>
-      <c r="E92" s="113">
+      <c r="E92" s="115">
         <f>SUM(C92:C96)/5</f>
         <v>18268.879999999997</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="113"/>
-      <c r="B93" s="113"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="115"/>
       <c r="C93" s="6">
         <v>21845.3</v>
       </c>
-      <c r="D93" s="113"/>
-      <c r="E93" s="113"/>
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="113"/>
-      <c r="B94" s="113"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="115"/>
       <c r="C94" s="6">
         <v>19805.900000000001</v>
       </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="113"/>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="113"/>
-      <c r="B95" s="113"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="115"/>
       <c r="C95" s="6">
         <v>21785.3</v>
       </c>
-      <c r="D95" s="113"/>
-      <c r="E95" s="113"/>
+      <c r="D95" s="115"/>
+      <c r="E95" s="115"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="113"/>
-      <c r="B96" s="113"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="115"/>
       <c r="C96" s="6">
         <v>13859.2</v>
       </c>
-      <c r="D96" s="113"/>
-      <c r="E96" s="113"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="112" t="s">
@@ -16355,58 +16355,58 @@
       <c r="E111" s="117"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="113" t="s">
+      <c r="A112" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="B112" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C112" s="6">
         <v>20837.8</v>
       </c>
-      <c r="D112" s="113">
+      <c r="D112" s="115">
         <v>6</v>
       </c>
-      <c r="E112" s="113">
+      <c r="E112" s="115">
         <f>SUM(C112:C116)/5</f>
         <v>20798.82</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="113"/>
-      <c r="B113" s="113"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="115"/>
       <c r="C113" s="6">
         <v>20744.900000000001</v>
       </c>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="113"/>
-      <c r="B114" s="113"/>
+      <c r="A114" s="115"/>
+      <c r="B114" s="115"/>
       <c r="C114" s="6">
         <v>20356.099999999999</v>
       </c>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
+      <c r="D114" s="115"/>
+      <c r="E114" s="115"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="113"/>
-      <c r="B115" s="113"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="115"/>
       <c r="C115" s="6">
         <v>20857.900000000001</v>
       </c>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
+      <c r="D115" s="115"/>
+      <c r="E115" s="115"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="113"/>
-      <c r="B116" s="113"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="115"/>
       <c r="C116" s="6">
         <v>21197.4</v>
       </c>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
+      <c r="D116" s="115"/>
+      <c r="E116" s="115"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="112" t="s">
@@ -16571,58 +16571,58 @@
       <c r="E131" s="117"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" s="113" t="s">
+      <c r="A132" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="113" t="s">
+      <c r="B132" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C132" s="6">
         <v>16423.599999999999</v>
       </c>
-      <c r="D132" s="113">
+      <c r="D132" s="115">
         <v>7</v>
       </c>
-      <c r="E132" s="113">
+      <c r="E132" s="115">
         <f t="shared" ref="E132" si="2">SUM(C132:C136)/5</f>
         <v>18812.939999999999</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" s="113"/>
-      <c r="B133" s="113"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="115"/>
       <c r="C133" s="6">
         <v>14398.2</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
+      <c r="D133" s="115"/>
+      <c r="E133" s="115"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" s="113"/>
-      <c r="B134" s="113"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="115"/>
       <c r="C134" s="6">
         <v>19444.599999999999</v>
       </c>
-      <c r="D134" s="113"/>
-      <c r="E134" s="113"/>
+      <c r="D134" s="115"/>
+      <c r="E134" s="115"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A135" s="113"/>
-      <c r="B135" s="113"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="115"/>
       <c r="C135" s="6">
         <v>21745.8</v>
       </c>
-      <c r="D135" s="113"/>
-      <c r="E135" s="113"/>
+      <c r="D135" s="115"/>
+      <c r="E135" s="115"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A136" s="113"/>
-      <c r="B136" s="113"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="115"/>
       <c r="C136" s="6">
         <v>22052.5</v>
       </c>
-      <c r="D136" s="113"/>
-      <c r="E136" s="113"/>
+      <c r="D136" s="115"/>
+      <c r="E136" s="115"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="112" t="s">
@@ -16787,58 +16787,58 @@
       <c r="E151" s="117"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" s="113" t="s">
+      <c r="A152" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="113" t="s">
+      <c r="B152" s="115" t="s">
         <v>17</v>
       </c>
       <c r="C152" s="6">
         <v>20411.7</v>
       </c>
-      <c r="D152" s="113">
+      <c r="D152" s="115">
         <v>8</v>
       </c>
-      <c r="E152" s="113">
+      <c r="E152" s="115">
         <f t="shared" ref="E152" si="6">SUM(C152:C156)/5</f>
         <v>18298.580000000002</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" s="113"/>
-      <c r="B153" s="113"/>
+      <c r="A153" s="115"/>
+      <c r="B153" s="115"/>
       <c r="C153" s="6">
         <v>19244.900000000001</v>
       </c>
-      <c r="D153" s="113"/>
-      <c r="E153" s="113"/>
+      <c r="D153" s="115"/>
+      <c r="E153" s="115"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" s="113"/>
-      <c r="B154" s="113"/>
+      <c r="A154" s="115"/>
+      <c r="B154" s="115"/>
       <c r="C154" s="6">
         <v>19148.3</v>
       </c>
-      <c r="D154" s="113"/>
-      <c r="E154" s="113"/>
+      <c r="D154" s="115"/>
+      <c r="E154" s="115"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" s="113"/>
-      <c r="B155" s="113"/>
+      <c r="A155" s="115"/>
+      <c r="B155" s="115"/>
       <c r="C155" s="6">
         <v>17883.3</v>
       </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
+      <c r="D155" s="115"/>
+      <c r="E155" s="115"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" s="113"/>
-      <c r="B156" s="113"/>
+      <c r="A156" s="115"/>
+      <c r="B156" s="115"/>
       <c r="C156" s="6">
         <v>14804.7</v>
       </c>
-      <c r="D156" s="113"/>
-      <c r="E156" s="113"/>
+      <c r="D156" s="115"/>
+      <c r="E156" s="115"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="112" t="s">
@@ -17004,24 +17004,112 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="E32:E36"/>
+    <mergeCell ref="E37:E41"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
     <mergeCell ref="D42:D46"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B46"/>
@@ -17034,112 +17122,24 @@
     <mergeCell ref="D37:D41"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="B37:B41"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="E32:E36"/>
-    <mergeCell ref="E37:E41"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="E47:E51"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
@@ -17154,8 +17154,8 @@
   <dimension ref="A1:I172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K165" sqref="K165"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17201,123 +17201,113 @@
       <c r="A2" s="10">
         <v>40</v>
       </c>
-      <c r="B2" s="115">
+      <c r="B2" s="113">
         <v>0</v>
       </c>
       <c r="C2" s="10">
         <v>17</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="115"/>
-      <c r="F2" s="10">
-        <v>67314.5</v>
-      </c>
+      <c r="E2" s="113"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="10">
         <f>F2/1000</f>
-        <v>67.314499999999995</v>
+        <v>0</v>
       </c>
       <c r="H2" s="10">
         <f>G2/60</f>
-        <v>1.1219083333333333</v>
-      </c>
-      <c r="I2" s="115">
+        <v>0</v>
+      </c>
+      <c r="I2" s="113">
         <f>SUM(F2:F6)/5</f>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>40</v>
       </c>
-      <c r="B3" s="115"/>
+      <c r="B3" s="113"/>
       <c r="C3" s="10">
         <v>17</v>
       </c>
-      <c r="D3" s="115"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="10">
-        <v>67088.899999999994</v>
-      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="10">
         <f t="shared" ref="G3:G66" si="0">F3/1000</f>
-        <v>67.088899999999995</v>
+        <v>0</v>
       </c>
       <c r="H3" s="10">
         <f t="shared" ref="H3:H66" si="1">G3/60</f>
-        <v>1.1181483333333333</v>
-      </c>
-      <c r="I3" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="113"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>40</v>
       </c>
-      <c r="B4" s="115"/>
+      <c r="B4" s="113"/>
       <c r="C4" s="10">
         <v>17</v>
       </c>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="10">
-        <v>67185.7</v>
-      </c>
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="10"/>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
-        <v>67.185699999999997</v>
+        <v>0</v>
       </c>
       <c r="H4" s="10">
         <f t="shared" si="1"/>
-        <v>1.1197616666666665</v>
-      </c>
-      <c r="I4" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="113"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>40</v>
       </c>
-      <c r="B5" s="115"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="10">
         <v>17</v>
       </c>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="10">
-        <v>66607.7</v>
-      </c>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
-        <v>66.607699999999994</v>
+        <v>0</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="1"/>
-        <v>1.1101283333333332</v>
-      </c>
-      <c r="I5" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="113"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>40</v>
       </c>
-      <c r="B6" s="115"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="10">
         <v>17</v>
       </c>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="10">
-        <v>67286.399999999994</v>
-      </c>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="10">
         <f t="shared" si="0"/>
-        <v>67.2864</v>
+        <v>0</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="1"/>
-        <v>1.12144</v>
-      </c>
-      <c r="I6" s="115"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
@@ -17333,20 +17323,18 @@
         <v>18</v>
       </c>
       <c r="E7" s="114"/>
-      <c r="F7" s="11">
-        <v>255690</v>
-      </c>
+      <c r="F7" s="11"/>
       <c r="G7" s="11">
         <f t="shared" si="0"/>
-        <v>255.69</v>
+        <v>0</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="1"/>
-        <v>4.2614999999999998</v>
+        <v>0</v>
       </c>
       <c r="I7" s="114">
         <f>SUM(F7:F11)/5</f>
-        <v>254726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -17359,16 +17347,14 @@
       </c>
       <c r="D8" s="114"/>
       <c r="E8" s="114"/>
-      <c r="F8" s="11">
-        <v>255234</v>
-      </c>
+      <c r="F8" s="11"/>
       <c r="G8" s="11">
         <f t="shared" si="0"/>
-        <v>255.23400000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="1"/>
-        <v>4.2538999999999998</v>
+        <v>0</v>
       </c>
       <c r="I8" s="114"/>
     </row>
@@ -17382,16 +17368,14 @@
       </c>
       <c r="D9" s="114"/>
       <c r="E9" s="114"/>
-      <c r="F9" s="11">
-        <v>254960</v>
-      </c>
+      <c r="F9" s="11"/>
       <c r="G9" s="11">
         <f t="shared" si="0"/>
-        <v>254.96</v>
+        <v>0</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="1"/>
-        <v>4.2493333333333334</v>
+        <v>0</v>
       </c>
       <c r="I9" s="114"/>
     </row>
@@ -17405,16 +17389,14 @@
       </c>
       <c r="D10" s="114"/>
       <c r="E10" s="114"/>
-      <c r="F10" s="11">
-        <v>254264</v>
-      </c>
+      <c r="F10" s="11"/>
       <c r="G10" s="11">
         <f t="shared" si="0"/>
-        <v>254.26400000000001</v>
+        <v>0</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="1"/>
-        <v>4.2377333333333338</v>
+        <v>0</v>
       </c>
       <c r="I10" s="114"/>
     </row>
@@ -17428,16 +17410,14 @@
       </c>
       <c r="D11" s="114"/>
       <c r="E11" s="114"/>
-      <c r="F11" s="11">
-        <v>253482</v>
-      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="11">
         <f t="shared" si="0"/>
-        <v>253.482</v>
+        <v>0</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="1"/>
-        <v>4.2247000000000003</v>
+        <v>0</v>
       </c>
       <c r="I11" s="114"/>
     </row>
@@ -17445,125 +17425,115 @@
       <c r="A12" s="6">
         <v>40</v>
       </c>
-      <c r="B12" s="113">
+      <c r="B12" s="115">
         <v>1</v>
       </c>
       <c r="C12" s="6">
         <v>17</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="6">
-        <v>67401.8</v>
-      </c>
+      <c r="F12" s="6"/>
       <c r="G12" s="6">
         <f t="shared" si="0"/>
-        <v>67.401800000000009</v>
+        <v>0</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>1.1233633333333335</v>
-      </c>
-      <c r="I12" s="113">
+        <v>0</v>
+      </c>
+      <c r="I12" s="115">
         <f t="shared" ref="I12" si="2">SUM(F12:F16)/5</f>
-        <v>66700.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>40</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="115"/>
       <c r="C13" s="6">
         <v>17</v>
       </c>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="6">
-        <v>66515</v>
-      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="6"/>
       <c r="G13" s="6">
         <f t="shared" si="0"/>
-        <v>66.515000000000001</v>
+        <v>0</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>1.1085833333333333</v>
-      </c>
-      <c r="I13" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="115"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>40</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="6">
         <v>17</v>
       </c>
-      <c r="D14" s="113"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="6">
-        <v>66720.3</v>
-      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="6"/>
       <c r="G14" s="6">
         <f t="shared" si="0"/>
-        <v>66.720300000000009</v>
+        <v>0</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>1.1120050000000001</v>
-      </c>
-      <c r="I14" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="115"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>40</v>
       </c>
-      <c r="B15" s="113"/>
+      <c r="B15" s="115"/>
       <c r="C15" s="6">
         <v>17</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="6">
-        <v>66057.2</v>
-      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="6"/>
       <c r="G15" s="6">
         <f t="shared" si="0"/>
-        <v>66.057199999999995</v>
+        <v>0</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>1.1009533333333332</v>
-      </c>
-      <c r="I15" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="115"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>40</v>
       </c>
-      <c r="B16" s="113"/>
+      <c r="B16" s="115"/>
       <c r="C16" s="6">
         <v>17</v>
       </c>
-      <c r="D16" s="113"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="6">
-        <v>66808.2</v>
-      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="6">
         <f t="shared" si="0"/>
-        <v>66.808199999999999</v>
+        <v>0</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>1.11347</v>
-      </c>
-      <c r="I16" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
@@ -17581,20 +17551,18 @@
       <c r="E17" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="7">
-        <v>65876.600000000006</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7">
         <f t="shared" si="0"/>
-        <v>65.87660000000001</v>
+        <v>0</v>
       </c>
       <c r="H17" s="7">
         <f t="shared" si="1"/>
-        <v>1.0979433333333335</v>
+        <v>0</v>
       </c>
       <c r="I17" s="112">
         <f t="shared" ref="I17" si="3">SUM(F17:F21)/5</f>
-        <v>65802.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -17607,16 +17575,14 @@
       </c>
       <c r="D18" s="112"/>
       <c r="E18" s="112"/>
-      <c r="F18" s="7">
-        <v>65777.3</v>
-      </c>
+      <c r="F18" s="7"/>
       <c r="G18" s="7">
         <f t="shared" si="0"/>
-        <v>65.777299999999997</v>
+        <v>0</v>
       </c>
       <c r="H18" s="7">
         <f t="shared" si="1"/>
-        <v>1.0962883333333333</v>
+        <v>0</v>
       </c>
       <c r="I18" s="112"/>
     </row>
@@ -17630,16 +17596,14 @@
       </c>
       <c r="D19" s="112"/>
       <c r="E19" s="112"/>
-      <c r="F19" s="7">
-        <v>65897.7</v>
-      </c>
+      <c r="F19" s="7"/>
       <c r="G19" s="7">
         <f t="shared" si="0"/>
-        <v>65.8977</v>
+        <v>0</v>
       </c>
       <c r="H19" s="7">
         <f t="shared" si="1"/>
-        <v>1.098295</v>
+        <v>0</v>
       </c>
       <c r="I19" s="112"/>
     </row>
@@ -17653,16 +17617,14 @@
       </c>
       <c r="D20" s="112"/>
       <c r="E20" s="112"/>
-      <c r="F20" s="7">
-        <v>65713.5</v>
-      </c>
+      <c r="F20" s="7"/>
       <c r="G20" s="7">
         <f t="shared" si="0"/>
-        <v>65.713499999999996</v>
+        <v>0</v>
       </c>
       <c r="H20" s="7">
         <f t="shared" si="1"/>
-        <v>1.0952249999999999</v>
+        <v>0</v>
       </c>
       <c r="I20" s="112"/>
     </row>
@@ -17676,16 +17638,14 @@
       </c>
       <c r="D21" s="112"/>
       <c r="E21" s="112"/>
-      <c r="F21" s="7">
-        <v>65746.8</v>
-      </c>
+      <c r="F21" s="7"/>
       <c r="G21" s="7">
         <f t="shared" si="0"/>
-        <v>65.746800000000007</v>
+        <v>0</v>
       </c>
       <c r="H21" s="7">
         <f t="shared" si="1"/>
-        <v>1.0957800000000002</v>
+        <v>0</v>
       </c>
       <c r="I21" s="112"/>
     </row>
@@ -17705,20 +17665,18 @@
       <c r="E22" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="8">
-        <v>251986</v>
-      </c>
+      <c r="F22" s="8"/>
       <c r="G22" s="8">
         <f t="shared" si="0"/>
-        <v>251.98599999999999</v>
+        <v>0</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>4.1997666666666662</v>
+        <v>0</v>
       </c>
       <c r="I22" s="116">
         <f t="shared" ref="I22" si="4">SUM(F22:F26)/5</f>
-        <v>252188.79999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -17731,16 +17689,14 @@
       </c>
       <c r="D23" s="116"/>
       <c r="E23" s="116"/>
-      <c r="F23" s="8">
-        <v>251990</v>
-      </c>
+      <c r="F23" s="8"/>
       <c r="G23" s="8">
         <f t="shared" si="0"/>
-        <v>251.99</v>
+        <v>0</v>
       </c>
       <c r="H23" s="8">
         <f t="shared" si="1"/>
-        <v>4.1998333333333333</v>
+        <v>0</v>
       </c>
       <c r="I23" s="116"/>
     </row>
@@ -17754,16 +17710,14 @@
       </c>
       <c r="D24" s="116"/>
       <c r="E24" s="116"/>
-      <c r="F24" s="8">
-        <v>251847</v>
-      </c>
+      <c r="F24" s="8"/>
       <c r="G24" s="8">
         <f t="shared" si="0"/>
-        <v>251.84700000000001</v>
+        <v>0</v>
       </c>
       <c r="H24" s="8">
         <f t="shared" si="1"/>
-        <v>4.1974499999999999</v>
+        <v>0</v>
       </c>
       <c r="I24" s="116"/>
     </row>
@@ -17777,16 +17731,14 @@
       </c>
       <c r="D25" s="116"/>
       <c r="E25" s="116"/>
-      <c r="F25" s="8">
-        <v>251876</v>
-      </c>
+      <c r="F25" s="8"/>
       <c r="G25" s="8">
         <f t="shared" si="0"/>
-        <v>251.876</v>
+        <v>0</v>
       </c>
       <c r="H25" s="8">
         <f t="shared" si="1"/>
-        <v>4.1979333333333333</v>
+        <v>0</v>
       </c>
       <c r="I25" s="116"/>
     </row>
@@ -17800,16 +17752,14 @@
       </c>
       <c r="D26" s="116"/>
       <c r="E26" s="116"/>
-      <c r="F26" s="8">
-        <v>253245</v>
-      </c>
+      <c r="F26" s="8"/>
       <c r="G26" s="8">
         <f t="shared" si="0"/>
-        <v>253.245</v>
+        <v>0</v>
       </c>
       <c r="H26" s="8">
         <f t="shared" si="1"/>
-        <v>4.2207499999999998</v>
+        <v>0</v>
       </c>
       <c r="I26" s="116"/>
     </row>
@@ -17829,20 +17779,18 @@
       <c r="E27" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="9">
-        <v>254483</v>
-      </c>
+      <c r="F27" s="9"/>
       <c r="G27" s="9">
         <f t="shared" si="0"/>
-        <v>254.483</v>
+        <v>0</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="1"/>
-        <v>4.2413833333333333</v>
+        <v>0</v>
       </c>
       <c r="I27" s="117">
         <f t="shared" ref="I27" si="5">SUM(F27:F31)/5</f>
-        <v>253193.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -17855,16 +17803,14 @@
       </c>
       <c r="D28" s="117"/>
       <c r="E28" s="117"/>
-      <c r="F28" s="9">
-        <v>253111</v>
-      </c>
+      <c r="F28" s="9"/>
       <c r="G28" s="9">
         <f t="shared" si="0"/>
-        <v>253.11099999999999</v>
+        <v>0</v>
       </c>
       <c r="H28" s="9">
         <f t="shared" si="1"/>
-        <v>4.2185166666666669</v>
+        <v>0</v>
       </c>
       <c r="I28" s="117"/>
     </row>
@@ -17878,16 +17824,14 @@
       </c>
       <c r="D29" s="117"/>
       <c r="E29" s="117"/>
-      <c r="F29" s="9">
-        <v>251484</v>
-      </c>
+      <c r="F29" s="9"/>
       <c r="G29" s="9">
         <f t="shared" si="0"/>
-        <v>251.48400000000001</v>
+        <v>0</v>
       </c>
       <c r="H29" s="9">
         <f t="shared" si="1"/>
-        <v>4.1913999999999998</v>
+        <v>0</v>
       </c>
       <c r="I29" s="117"/>
     </row>
@@ -17901,16 +17845,14 @@
       </c>
       <c r="D30" s="117"/>
       <c r="E30" s="117"/>
-      <c r="F30" s="9">
-        <v>252818</v>
-      </c>
+      <c r="F30" s="9"/>
       <c r="G30" s="9">
         <f t="shared" si="0"/>
-        <v>252.81800000000001</v>
+        <v>0</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="1"/>
-        <v>4.2136333333333331</v>
+        <v>0</v>
       </c>
       <c r="I30" s="117"/>
     </row>
@@ -17924,16 +17866,14 @@
       </c>
       <c r="D31" s="117"/>
       <c r="E31" s="117"/>
-      <c r="F31" s="9">
-        <v>254070</v>
-      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9">
         <f t="shared" si="0"/>
-        <v>254.07</v>
+        <v>0</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="1"/>
-        <v>4.2344999999999997</v>
+        <v>0</v>
       </c>
       <c r="I31" s="117"/>
     </row>
@@ -17941,125 +17881,115 @@
       <c r="A32" s="6">
         <v>40</v>
       </c>
-      <c r="B32" s="113">
+      <c r="B32" s="115">
         <v>2</v>
       </c>
       <c r="C32" s="6">
         <v>17</v>
       </c>
-      <c r="D32" s="113" t="s">
+      <c r="D32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="113" t="s">
+      <c r="E32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="6">
-        <v>37708.400000000001</v>
-      </c>
+      <c r="F32" s="6"/>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
-        <v>37.708400000000005</v>
+        <v>0</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
-        <v>0.62847333333333344</v>
-      </c>
-      <c r="I32" s="113">
+        <v>0</v>
+      </c>
+      <c r="I32" s="115">
         <f t="shared" ref="I32" si="6">SUM(F32:F36)/5</f>
-        <v>32993.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
         <v>40</v>
       </c>
-      <c r="B33" s="113"/>
+      <c r="B33" s="115"/>
       <c r="C33" s="6">
         <v>17</v>
       </c>
-      <c r="D33" s="113"/>
-      <c r="E33" s="113"/>
-      <c r="F33" s="6">
-        <v>29796.6</v>
-      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="6">
         <f t="shared" si="0"/>
-        <v>29.796599999999998</v>
+        <v>0</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="1"/>
-        <v>0.49660999999999994</v>
-      </c>
-      <c r="I33" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="115"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>40</v>
       </c>
-      <c r="B34" s="113"/>
+      <c r="B34" s="115"/>
       <c r="C34" s="6">
         <v>17</v>
       </c>
-      <c r="D34" s="113"/>
-      <c r="E34" s="113"/>
-      <c r="F34" s="6">
-        <v>31599.7</v>
-      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="6">
         <f t="shared" si="0"/>
-        <v>31.599700000000002</v>
+        <v>0</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>0.52666166666666669</v>
-      </c>
-      <c r="I34" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="115"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>40</v>
       </c>
-      <c r="B35" s="113"/>
+      <c r="B35" s="115"/>
       <c r="C35" s="6">
         <v>17</v>
       </c>
-      <c r="D35" s="113"/>
-      <c r="E35" s="113"/>
-      <c r="F35" s="6">
-        <v>28161.8</v>
-      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="6">
         <f t="shared" si="0"/>
-        <v>28.161799999999999</v>
+        <v>0</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>0.4693633333333333</v>
-      </c>
-      <c r="I35" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="115"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>40</v>
       </c>
-      <c r="B36" s="113"/>
+      <c r="B36" s="115"/>
       <c r="C36" s="6">
         <v>17</v>
       </c>
-      <c r="D36" s="113"/>
-      <c r="E36" s="113"/>
-      <c r="F36" s="6">
-        <v>37703.199999999997</v>
-      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
-        <v>37.703199999999995</v>
+        <v>0</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
-        <v>0.62838666666666654</v>
-      </c>
-      <c r="I36" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="115"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
@@ -18077,20 +18007,18 @@
       <c r="E37" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F37" s="7">
-        <v>32682.3</v>
-      </c>
+      <c r="F37" s="7"/>
       <c r="G37" s="7">
         <f t="shared" si="0"/>
-        <v>32.682299999999998</v>
+        <v>0</v>
       </c>
       <c r="H37" s="7">
         <f t="shared" si="1"/>
-        <v>0.54470499999999999</v>
+        <v>0</v>
       </c>
       <c r="I37" s="112">
         <f t="shared" ref="I37" si="7">SUM(F37:F41)/5</f>
-        <v>34992.639999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -18103,16 +18031,14 @@
       </c>
       <c r="D38" s="112"/>
       <c r="E38" s="112"/>
-      <c r="F38" s="7">
-        <v>37267.4</v>
-      </c>
+      <c r="F38" s="7"/>
       <c r="G38" s="7">
         <f t="shared" si="0"/>
-        <v>37.267400000000002</v>
+        <v>0</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="1"/>
-        <v>0.62112333333333336</v>
+        <v>0</v>
       </c>
       <c r="I38" s="112"/>
     </row>
@@ -18126,16 +18052,14 @@
       </c>
       <c r="D39" s="112"/>
       <c r="E39" s="112"/>
-      <c r="F39" s="7">
-        <v>30943.9</v>
-      </c>
+      <c r="F39" s="7"/>
       <c r="G39" s="7">
         <f t="shared" si="0"/>
-        <v>30.943900000000003</v>
+        <v>0</v>
       </c>
       <c r="H39" s="7">
         <f t="shared" si="1"/>
-        <v>0.5157316666666667</v>
+        <v>0</v>
       </c>
       <c r="I39" s="112"/>
     </row>
@@ -18149,16 +18073,14 @@
       </c>
       <c r="D40" s="112"/>
       <c r="E40" s="112"/>
-      <c r="F40" s="7">
-        <v>37141.599999999999</v>
-      </c>
+      <c r="F40" s="7"/>
       <c r="G40" s="7">
         <f t="shared" si="0"/>
-        <v>37.141599999999997</v>
+        <v>0</v>
       </c>
       <c r="H40" s="7">
         <f t="shared" si="1"/>
-        <v>0.61902666666666661</v>
+        <v>0</v>
       </c>
       <c r="I40" s="112"/>
     </row>
@@ -18172,16 +18094,14 @@
       </c>
       <c r="D41" s="112"/>
       <c r="E41" s="112"/>
-      <c r="F41" s="7">
-        <v>36928</v>
-      </c>
+      <c r="F41" s="7"/>
       <c r="G41" s="7">
         <f t="shared" si="0"/>
-        <v>36.927999999999997</v>
+        <v>0</v>
       </c>
       <c r="H41" s="7">
         <f t="shared" si="1"/>
-        <v>0.61546666666666661</v>
+        <v>0</v>
       </c>
       <c r="I41" s="112"/>
     </row>
@@ -18201,20 +18121,18 @@
       <c r="E42" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="8">
-        <v>135634</v>
-      </c>
+      <c r="F42" s="8"/>
       <c r="G42" s="8">
         <f t="shared" si="0"/>
-        <v>135.63399999999999</v>
+        <v>0</v>
       </c>
       <c r="H42" s="8">
         <f t="shared" si="1"/>
-        <v>2.2605666666666666</v>
+        <v>0</v>
       </c>
       <c r="I42" s="116">
         <f t="shared" ref="I42" si="8">SUM(F42:F46)/5</f>
-        <v>122818.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -18227,16 +18145,14 @@
       </c>
       <c r="D43" s="116"/>
       <c r="E43" s="116"/>
-      <c r="F43" s="8">
-        <v>134952</v>
-      </c>
+      <c r="F43" s="8"/>
       <c r="G43" s="8">
         <f t="shared" si="0"/>
-        <v>134.952</v>
+        <v>0</v>
       </c>
       <c r="H43" s="8">
         <f t="shared" si="1"/>
-        <v>2.2492000000000001</v>
+        <v>0</v>
       </c>
       <c r="I43" s="116"/>
     </row>
@@ -18250,16 +18166,14 @@
       </c>
       <c r="D44" s="116"/>
       <c r="E44" s="116"/>
-      <c r="F44" s="8">
-        <v>118165</v>
-      </c>
+      <c r="F44" s="8"/>
       <c r="G44" s="8">
         <f t="shared" si="0"/>
-        <v>118.16500000000001</v>
+        <v>0</v>
       </c>
       <c r="H44" s="8">
         <f t="shared" si="1"/>
-        <v>1.9694166666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" s="116"/>
     </row>
@@ -18273,16 +18187,14 @@
       </c>
       <c r="D45" s="116"/>
       <c r="E45" s="116"/>
-      <c r="F45" s="8">
-        <v>136298</v>
-      </c>
+      <c r="F45" s="8"/>
       <c r="G45" s="8">
         <f t="shared" si="0"/>
-        <v>136.298</v>
+        <v>0</v>
       </c>
       <c r="H45" s="8">
         <f t="shared" si="1"/>
-        <v>2.2716333333333334</v>
+        <v>0</v>
       </c>
       <c r="I45" s="116"/>
     </row>
@@ -18296,16 +18208,14 @@
       </c>
       <c r="D46" s="116"/>
       <c r="E46" s="116"/>
-      <c r="F46" s="8">
-        <v>89045.5</v>
-      </c>
+      <c r="F46" s="8"/>
       <c r="G46" s="8">
         <f t="shared" si="0"/>
-        <v>89.045500000000004</v>
+        <v>0</v>
       </c>
       <c r="H46" s="8">
         <f t="shared" si="1"/>
-        <v>1.4840916666666668</v>
+        <v>0</v>
       </c>
       <c r="I46" s="116"/>
     </row>
@@ -18325,20 +18235,18 @@
       <c r="E47" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F47" s="9">
-        <v>119013</v>
-      </c>
+      <c r="F47" s="9"/>
       <c r="G47" s="9">
         <f t="shared" si="0"/>
-        <v>119.01300000000001</v>
+        <v>0</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="1"/>
-        <v>1.9835500000000001</v>
+        <v>0</v>
       </c>
       <c r="I47" s="117">
         <f t="shared" ref="I47" si="9">SUM(F47:F51)/5</f>
-        <v>132197.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -18351,16 +18259,14 @@
       </c>
       <c r="D48" s="117"/>
       <c r="E48" s="117"/>
-      <c r="F48" s="9">
-        <v>135979</v>
-      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="9">
         <f t="shared" si="0"/>
-        <v>135.97900000000001</v>
+        <v>0</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="1"/>
-        <v>2.266316666666667</v>
+        <v>0</v>
       </c>
       <c r="I48" s="117"/>
     </row>
@@ -18374,16 +18280,14 @@
       </c>
       <c r="D49" s="117"/>
       <c r="E49" s="117"/>
-      <c r="F49" s="9">
-        <v>135776</v>
-      </c>
+      <c r="F49" s="9"/>
       <c r="G49" s="9">
         <f t="shared" si="0"/>
-        <v>135.77600000000001</v>
+        <v>0</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="1"/>
-        <v>2.2629333333333337</v>
+        <v>0</v>
       </c>
       <c r="I49" s="117"/>
     </row>
@@ -18397,16 +18301,14 @@
       </c>
       <c r="D50" s="117"/>
       <c r="E50" s="117"/>
-      <c r="F50" s="9">
-        <v>135080</v>
-      </c>
+      <c r="F50" s="9"/>
       <c r="G50" s="9">
         <f t="shared" si="0"/>
-        <v>135.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="1"/>
-        <v>2.2513333333333336</v>
+        <v>0</v>
       </c>
       <c r="I50" s="117"/>
     </row>
@@ -18420,16 +18322,14 @@
       </c>
       <c r="D51" s="117"/>
       <c r="E51" s="117"/>
-      <c r="F51" s="9">
-        <v>135138</v>
-      </c>
+      <c r="F51" s="9"/>
       <c r="G51" s="9">
         <f t="shared" si="0"/>
-        <v>135.13800000000001</v>
+        <v>0</v>
       </c>
       <c r="H51" s="9">
         <f t="shared" si="1"/>
-        <v>2.2523</v>
+        <v>0</v>
       </c>
       <c r="I51" s="117"/>
     </row>
@@ -18437,125 +18337,115 @@
       <c r="A52" s="6">
         <v>40</v>
       </c>
-      <c r="B52" s="113">
+      <c r="B52" s="115">
         <v>3</v>
       </c>
       <c r="C52" s="6">
         <v>17</v>
       </c>
-      <c r="D52" s="113" t="s">
+      <c r="D52" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E52" s="113" t="s">
+      <c r="E52" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="6">
-        <v>28757.9</v>
-      </c>
+      <c r="F52" s="6"/>
       <c r="G52" s="6">
         <f t="shared" si="0"/>
-        <v>28.757900000000003</v>
+        <v>0</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="1"/>
-        <v>0.47929833333333338</v>
-      </c>
-      <c r="I52" s="113">
+        <v>0</v>
+      </c>
+      <c r="I52" s="115">
         <f t="shared" ref="I52" si="10">SUM(F52:F56)/5</f>
-        <v>26377.120000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>40</v>
       </c>
-      <c r="B53" s="113"/>
+      <c r="B53" s="115"/>
       <c r="C53" s="6">
         <v>17</v>
       </c>
-      <c r="D53" s="113"/>
-      <c r="E53" s="113"/>
-      <c r="F53" s="6">
-        <v>28475.3</v>
-      </c>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="6"/>
       <c r="G53" s="6">
         <f t="shared" si="0"/>
-        <v>28.475300000000001</v>
+        <v>0</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
-        <v>0.47458833333333333</v>
-      </c>
-      <c r="I53" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="115"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>40</v>
       </c>
-      <c r="B54" s="113"/>
+      <c r="B54" s="115"/>
       <c r="C54" s="6">
         <v>17</v>
       </c>
-      <c r="D54" s="113"/>
-      <c r="E54" s="113"/>
-      <c r="F54" s="6">
-        <v>25300</v>
-      </c>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="6"/>
       <c r="G54" s="6">
         <f t="shared" si="0"/>
-        <v>25.3</v>
+        <v>0</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
-        <v>0.42166666666666669</v>
-      </c>
-      <c r="I54" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="115"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>40</v>
       </c>
-      <c r="B55" s="113"/>
+      <c r="B55" s="115"/>
       <c r="C55" s="6">
         <v>17</v>
       </c>
-      <c r="D55" s="113"/>
-      <c r="E55" s="113"/>
-      <c r="F55" s="6">
-        <v>20617.3</v>
-      </c>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="6"/>
       <c r="G55" s="6">
         <f t="shared" si="0"/>
-        <v>20.6173</v>
+        <v>0</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="1"/>
-        <v>0.34362166666666666</v>
-      </c>
-      <c r="I55" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="115"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>40</v>
       </c>
-      <c r="B56" s="113"/>
+      <c r="B56" s="115"/>
       <c r="C56" s="6">
         <v>17</v>
       </c>
-      <c r="D56" s="113"/>
-      <c r="E56" s="113"/>
-      <c r="F56" s="6">
-        <v>28735.1</v>
-      </c>
+      <c r="D56" s="115"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="6"/>
       <c r="G56" s="6">
         <f t="shared" si="0"/>
-        <v>28.735099999999999</v>
+        <v>0</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>0.47891833333333333</v>
-      </c>
-      <c r="I56" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="115"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
@@ -18573,20 +18463,18 @@
       <c r="E57" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F57" s="7">
-        <v>20201</v>
-      </c>
+      <c r="F57" s="7"/>
       <c r="G57" s="7">
         <f t="shared" si="0"/>
-        <v>20.201000000000001</v>
+        <v>0</v>
       </c>
       <c r="H57" s="7">
         <f t="shared" si="1"/>
-        <v>0.33668333333333333</v>
+        <v>0</v>
       </c>
       <c r="I57" s="112">
         <f t="shared" ref="I57" si="11">SUM(F57:F61)/5</f>
-        <v>24258.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -18599,16 +18487,14 @@
       </c>
       <c r="D58" s="112"/>
       <c r="E58" s="112"/>
-      <c r="F58" s="7">
-        <v>27399.1</v>
-      </c>
+      <c r="F58" s="7"/>
       <c r="G58" s="7">
         <f t="shared" si="0"/>
-        <v>27.399099999999997</v>
+        <v>0</v>
       </c>
       <c r="H58" s="7">
         <f t="shared" si="1"/>
-        <v>0.45665166666666662</v>
+        <v>0</v>
       </c>
       <c r="I58" s="112"/>
     </row>
@@ -18622,16 +18508,14 @@
       </c>
       <c r="D59" s="112"/>
       <c r="E59" s="112"/>
-      <c r="F59" s="7">
-        <v>26050.1</v>
-      </c>
+      <c r="F59" s="7"/>
       <c r="G59" s="7">
         <f t="shared" si="0"/>
-        <v>26.050099999999997</v>
+        <v>0</v>
       </c>
       <c r="H59" s="7">
         <f t="shared" si="1"/>
-        <v>0.43416833333333327</v>
+        <v>0</v>
       </c>
       <c r="I59" s="112"/>
     </row>
@@ -18645,16 +18529,14 @@
       </c>
       <c r="D60" s="112"/>
       <c r="E60" s="112"/>
-      <c r="F60" s="7">
-        <v>27546</v>
-      </c>
+      <c r="F60" s="7"/>
       <c r="G60" s="7">
         <f t="shared" si="0"/>
-        <v>27.545999999999999</v>
+        <v>0</v>
       </c>
       <c r="H60" s="7">
         <f t="shared" si="1"/>
-        <v>0.45910000000000001</v>
+        <v>0</v>
       </c>
       <c r="I60" s="112"/>
     </row>
@@ -18668,16 +18550,14 @@
       </c>
       <c r="D61" s="112"/>
       <c r="E61" s="112"/>
-      <c r="F61" s="7">
-        <v>20098.3</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7">
         <f t="shared" si="0"/>
-        <v>20.098299999999998</v>
+        <v>0</v>
       </c>
       <c r="H61" s="7">
         <f t="shared" si="1"/>
-        <v>0.33497166666666661</v>
+        <v>0</v>
       </c>
       <c r="I61" s="112"/>
     </row>
@@ -18697,20 +18577,18 @@
       <c r="E62" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F62" s="8">
-        <v>66627.7</v>
-      </c>
+      <c r="F62" s="8"/>
       <c r="G62" s="8">
         <f t="shared" si="0"/>
-        <v>66.62769999999999</v>
+        <v>0</v>
       </c>
       <c r="H62" s="8">
         <f t="shared" si="1"/>
-        <v>1.1104616666666665</v>
+        <v>0</v>
       </c>
       <c r="I62" s="116">
         <f t="shared" ref="I62" si="12">SUM(F62:F66)/5</f>
-        <v>76386.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -18723,16 +18601,14 @@
       </c>
       <c r="D63" s="116"/>
       <c r="E63" s="116"/>
-      <c r="F63" s="8">
-        <v>79299</v>
-      </c>
+      <c r="F63" s="8"/>
       <c r="G63" s="8">
         <f t="shared" si="0"/>
-        <v>79.299000000000007</v>
+        <v>0</v>
       </c>
       <c r="H63" s="8">
         <f t="shared" si="1"/>
-        <v>1.3216500000000002</v>
+        <v>0</v>
       </c>
       <c r="I63" s="116"/>
     </row>
@@ -18746,16 +18622,14 @@
       </c>
       <c r="D64" s="116"/>
       <c r="E64" s="116"/>
-      <c r="F64" s="8">
-        <v>69818.3</v>
-      </c>
+      <c r="F64" s="8"/>
       <c r="G64" s="8">
         <f t="shared" si="0"/>
-        <v>69.818300000000008</v>
+        <v>0</v>
       </c>
       <c r="H64" s="8">
         <f t="shared" si="1"/>
-        <v>1.1636383333333336</v>
+        <v>0</v>
       </c>
       <c r="I64" s="116"/>
     </row>
@@ -18769,16 +18643,14 @@
       </c>
       <c r="D65" s="116"/>
       <c r="E65" s="116"/>
-      <c r="F65" s="8">
-        <v>100542</v>
-      </c>
+      <c r="F65" s="8"/>
       <c r="G65" s="8">
         <f t="shared" si="0"/>
-        <v>100.542</v>
+        <v>0</v>
       </c>
       <c r="H65" s="8">
         <f t="shared" si="1"/>
-        <v>1.6757</v>
+        <v>0</v>
       </c>
       <c r="I65" s="116"/>
     </row>
@@ -18792,16 +18664,14 @@
       </c>
       <c r="D66" s="116"/>
       <c r="E66" s="116"/>
-      <c r="F66" s="8">
-        <v>65643.3</v>
-      </c>
+      <c r="F66" s="8"/>
       <c r="G66" s="8">
         <f t="shared" si="0"/>
-        <v>65.643299999999996</v>
+        <v>0</v>
       </c>
       <c r="H66" s="8">
         <f t="shared" si="1"/>
-        <v>1.094055</v>
+        <v>0</v>
       </c>
       <c r="I66" s="116"/>
     </row>
@@ -18821,20 +18691,18 @@
       <c r="E67" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="9">
-        <v>66242.600000000006</v>
-      </c>
+      <c r="F67" s="9"/>
       <c r="G67" s="9">
         <f t="shared" ref="G67:G130" si="13">F67/1000</f>
-        <v>66.24260000000001</v>
+        <v>0</v>
       </c>
       <c r="H67" s="9">
         <f t="shared" ref="H67:H130" si="14">G67/60</f>
-        <v>1.1040433333333335</v>
+        <v>0</v>
       </c>
       <c r="I67" s="117">
         <f t="shared" ref="I67" si="15">SUM(F67:F71)/5</f>
-        <v>79996.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -18847,16 +18715,14 @@
       </c>
       <c r="D68" s="117"/>
       <c r="E68" s="117"/>
-      <c r="F68" s="9">
-        <v>87290.4</v>
-      </c>
+      <c r="F68" s="9"/>
       <c r="G68" s="9">
         <f t="shared" si="13"/>
-        <v>87.290399999999991</v>
+        <v>0</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" si="14"/>
-        <v>1.4548399999999999</v>
+        <v>0</v>
       </c>
       <c r="I68" s="117"/>
     </row>
@@ -18870,16 +18736,14 @@
       </c>
       <c r="D69" s="117"/>
       <c r="E69" s="117"/>
-      <c r="F69" s="9">
-        <v>75023.899999999994</v>
-      </c>
+      <c r="F69" s="9"/>
       <c r="G69" s="9">
         <f t="shared" si="13"/>
-        <v>75.023899999999998</v>
+        <v>0</v>
       </c>
       <c r="H69" s="9">
         <f t="shared" si="14"/>
-        <v>1.2503983333333333</v>
+        <v>0</v>
       </c>
       <c r="I69" s="117"/>
     </row>
@@ -18893,16 +18757,14 @@
       </c>
       <c r="D70" s="117"/>
       <c r="E70" s="117"/>
-      <c r="F70" s="9">
-        <v>78421.100000000006</v>
-      </c>
+      <c r="F70" s="9"/>
       <c r="G70" s="9">
         <f t="shared" si="13"/>
-        <v>78.42110000000001</v>
+        <v>0</v>
       </c>
       <c r="H70" s="9">
         <f t="shared" si="14"/>
-        <v>1.3070183333333334</v>
+        <v>0</v>
       </c>
       <c r="I70" s="117"/>
     </row>
@@ -18916,16 +18778,14 @@
       </c>
       <c r="D71" s="117"/>
       <c r="E71" s="117"/>
-      <c r="F71" s="9">
-        <v>93003</v>
-      </c>
+      <c r="F71" s="9"/>
       <c r="G71" s="9">
         <f t="shared" si="13"/>
-        <v>93.003</v>
+        <v>0</v>
       </c>
       <c r="H71" s="9">
         <f t="shared" si="14"/>
-        <v>1.5500499999999999</v>
+        <v>0</v>
       </c>
       <c r="I71" s="117"/>
     </row>
@@ -18933,125 +18793,115 @@
       <c r="A72" s="6">
         <v>40</v>
       </c>
-      <c r="B72" s="113">
+      <c r="B72" s="115">
         <v>4</v>
       </c>
       <c r="C72" s="6">
         <v>17</v>
       </c>
-      <c r="D72" s="113" t="s">
+      <c r="D72" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E72" s="113" t="s">
+      <c r="E72" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F72" s="6">
-        <v>23720.5</v>
-      </c>
+      <c r="F72" s="6"/>
       <c r="G72" s="6">
         <f t="shared" si="13"/>
-        <v>23.720500000000001</v>
+        <v>0</v>
       </c>
       <c r="H72" s="6">
         <f t="shared" si="14"/>
-        <v>0.3953416666666667</v>
-      </c>
-      <c r="I72" s="113">
+        <v>0</v>
+      </c>
+      <c r="I72" s="115">
         <f t="shared" ref="I72" si="16">SUM(F72:F76)/5</f>
-        <v>23896.339999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40</v>
       </c>
-      <c r="B73" s="113"/>
+      <c r="B73" s="115"/>
       <c r="C73" s="6">
         <v>17</v>
       </c>
-      <c r="D73" s="113"/>
-      <c r="E73" s="113"/>
-      <c r="F73" s="6">
-        <v>23819.3</v>
-      </c>
+      <c r="D73" s="115"/>
+      <c r="E73" s="115"/>
+      <c r="F73" s="6"/>
       <c r="G73" s="6">
         <f t="shared" si="13"/>
-        <v>23.819299999999998</v>
+        <v>0</v>
       </c>
       <c r="H73" s="6">
         <f t="shared" si="14"/>
-        <v>0.39698833333333333</v>
-      </c>
-      <c r="I73" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="115"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40</v>
       </c>
-      <c r="B74" s="113"/>
+      <c r="B74" s="115"/>
       <c r="C74" s="6">
         <v>17</v>
       </c>
-      <c r="D74" s="113"/>
-      <c r="E74" s="113"/>
-      <c r="F74" s="6">
-        <v>24014.1</v>
-      </c>
+      <c r="D74" s="115"/>
+      <c r="E74" s="115"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6">
         <f t="shared" si="13"/>
-        <v>24.014099999999999</v>
+        <v>0</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" si="14"/>
-        <v>0.40023500000000001</v>
-      </c>
-      <c r="I74" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="115"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40</v>
       </c>
-      <c r="B75" s="113"/>
+      <c r="B75" s="115"/>
       <c r="C75" s="6">
         <v>17</v>
       </c>
-      <c r="D75" s="113"/>
-      <c r="E75" s="113"/>
-      <c r="F75" s="6">
-        <v>24041.7</v>
-      </c>
+      <c r="D75" s="115"/>
+      <c r="E75" s="115"/>
+      <c r="F75" s="6"/>
       <c r="G75" s="6">
         <f t="shared" si="13"/>
-        <v>24.041700000000002</v>
+        <v>0</v>
       </c>
       <c r="H75" s="6">
         <f t="shared" si="14"/>
-        <v>0.40069500000000002</v>
-      </c>
-      <c r="I75" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="115"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40</v>
       </c>
-      <c r="B76" s="113"/>
+      <c r="B76" s="115"/>
       <c r="C76" s="6">
         <v>17</v>
       </c>
-      <c r="D76" s="113"/>
-      <c r="E76" s="113"/>
-      <c r="F76" s="6">
-        <v>23886.1</v>
-      </c>
+      <c r="D76" s="115"/>
+      <c r="E76" s="115"/>
+      <c r="F76" s="6"/>
       <c r="G76" s="6">
         <f t="shared" si="13"/>
-        <v>23.886099999999999</v>
+        <v>0</v>
       </c>
       <c r="H76" s="6">
         <f t="shared" si="14"/>
-        <v>0.39810166666666663</v>
-      </c>
-      <c r="I76" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="115"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="7">
@@ -19069,20 +18919,18 @@
       <c r="E77" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F77" s="7">
-        <v>22353.8</v>
-      </c>
+      <c r="F77" s="7"/>
       <c r="G77" s="7">
         <f t="shared" si="13"/>
-        <v>22.3538</v>
+        <v>0</v>
       </c>
       <c r="H77" s="7">
         <f t="shared" si="14"/>
-        <v>0.3725633333333333</v>
+        <v>0</v>
       </c>
       <c r="I77" s="112">
         <f t="shared" ref="I77" si="17">SUM(F77:F81)/5</f>
-        <v>21608.659999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -19095,16 +18943,14 @@
       </c>
       <c r="D78" s="112"/>
       <c r="E78" s="112"/>
-      <c r="F78" s="7">
-        <v>22416.7</v>
-      </c>
+      <c r="F78" s="7"/>
       <c r="G78" s="7">
         <f t="shared" si="13"/>
-        <v>22.416700000000002</v>
+        <v>0</v>
       </c>
       <c r="H78" s="7">
         <f t="shared" si="14"/>
-        <v>0.37361166666666673</v>
+        <v>0</v>
       </c>
       <c r="I78" s="112"/>
     </row>
@@ -19118,16 +18964,14 @@
       </c>
       <c r="D79" s="112"/>
       <c r="E79" s="112"/>
-      <c r="F79" s="7">
-        <v>22572.400000000001</v>
-      </c>
+      <c r="F79" s="7"/>
       <c r="G79" s="7">
         <f t="shared" si="13"/>
-        <v>22.572400000000002</v>
+        <v>0</v>
       </c>
       <c r="H79" s="7">
         <f t="shared" si="14"/>
-        <v>0.37620666666666669</v>
+        <v>0</v>
       </c>
       <c r="I79" s="112"/>
     </row>
@@ -19141,16 +18985,14 @@
       </c>
       <c r="D80" s="112"/>
       <c r="E80" s="112"/>
-      <c r="F80" s="7">
-        <v>18301.8</v>
-      </c>
+      <c r="F80" s="7"/>
       <c r="G80" s="7">
         <f t="shared" si="13"/>
-        <v>18.3018</v>
+        <v>0</v>
       </c>
       <c r="H80" s="7">
         <f t="shared" si="14"/>
-        <v>0.30503000000000002</v>
+        <v>0</v>
       </c>
       <c r="I80" s="112"/>
     </row>
@@ -19164,16 +19006,14 @@
       </c>
       <c r="D81" s="112"/>
       <c r="E81" s="112"/>
-      <c r="F81" s="7">
-        <v>22398.6</v>
-      </c>
+      <c r="F81" s="7"/>
       <c r="G81" s="7">
         <f t="shared" si="13"/>
-        <v>22.398599999999998</v>
+        <v>0</v>
       </c>
       <c r="H81" s="7">
         <f t="shared" si="14"/>
-        <v>0.37330999999999998</v>
+        <v>0</v>
       </c>
       <c r="I81" s="112"/>
     </row>
@@ -19193,20 +19033,18 @@
       <c r="E82" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F82" s="8">
-        <v>63248</v>
-      </c>
+      <c r="F82" s="8"/>
       <c r="G82" s="8">
         <f t="shared" si="13"/>
-        <v>63.247999999999998</v>
+        <v>0</v>
       </c>
       <c r="H82" s="8">
         <f t="shared" si="14"/>
-        <v>1.0541333333333334</v>
+        <v>0</v>
       </c>
       <c r="I82" s="116">
         <f t="shared" ref="I82" si="18">SUM(F82:F86)/5</f>
-        <v>70993.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -19219,16 +19057,14 @@
       </c>
       <c r="D83" s="116"/>
       <c r="E83" s="116"/>
-      <c r="F83" s="8">
-        <v>52942.3</v>
-      </c>
+      <c r="F83" s="8"/>
       <c r="G83" s="8">
         <f t="shared" si="13"/>
-        <v>52.942300000000003</v>
+        <v>0</v>
       </c>
       <c r="H83" s="8">
         <f t="shared" si="14"/>
-        <v>0.88237166666666667</v>
+        <v>0</v>
       </c>
       <c r="I83" s="116"/>
     </row>
@@ -19242,16 +19078,14 @@
       </c>
       <c r="D84" s="116"/>
       <c r="E84" s="116"/>
-      <c r="F84" s="8">
-        <v>77697.8</v>
-      </c>
+      <c r="F84" s="8"/>
       <c r="G84" s="8">
         <f t="shared" si="13"/>
-        <v>77.697800000000001</v>
+        <v>0</v>
       </c>
       <c r="H84" s="8">
         <f t="shared" si="14"/>
-        <v>1.2949633333333332</v>
+        <v>0</v>
       </c>
       <c r="I84" s="116"/>
     </row>
@@ -19265,16 +19099,14 @@
       </c>
       <c r="D85" s="116"/>
       <c r="E85" s="116"/>
-      <c r="F85" s="8">
-        <v>80676.899999999994</v>
-      </c>
+      <c r="F85" s="8"/>
       <c r="G85" s="8">
         <f t="shared" si="13"/>
-        <v>80.676899999999989</v>
+        <v>0</v>
       </c>
       <c r="H85" s="8">
         <f t="shared" si="14"/>
-        <v>1.3446149999999999</v>
+        <v>0</v>
       </c>
       <c r="I85" s="116"/>
     </row>
@@ -19288,16 +19120,14 @@
       </c>
       <c r="D86" s="116"/>
       <c r="E86" s="116"/>
-      <c r="F86" s="8">
-        <v>80403.3</v>
-      </c>
+      <c r="F86" s="8"/>
       <c r="G86" s="8">
         <f t="shared" si="13"/>
-        <v>80.403300000000002</v>
+        <v>0</v>
       </c>
       <c r="H86" s="8">
         <f t="shared" si="14"/>
-        <v>1.340055</v>
+        <v>0</v>
       </c>
       <c r="I86" s="116"/>
     </row>
@@ -19317,20 +19147,18 @@
       <c r="E87" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F87" s="9">
-        <v>80927</v>
-      </c>
+      <c r="F87" s="9"/>
       <c r="G87" s="9">
         <f t="shared" si="13"/>
-        <v>80.927000000000007</v>
+        <v>0</v>
       </c>
       <c r="H87" s="9">
         <f t="shared" si="14"/>
-        <v>1.3487833333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" s="117">
         <f t="shared" ref="I87" si="19">SUM(F87:F91)/5</f>
-        <v>74366.180000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -19343,16 +19171,14 @@
       </c>
       <c r="D88" s="117"/>
       <c r="E88" s="117"/>
-      <c r="F88" s="9">
-        <v>63149.599999999999</v>
-      </c>
+      <c r="F88" s="9"/>
       <c r="G88" s="9">
         <f t="shared" si="13"/>
-        <v>63.1496</v>
+        <v>0</v>
       </c>
       <c r="H88" s="9">
         <f t="shared" si="14"/>
-        <v>1.0524933333333333</v>
+        <v>0</v>
       </c>
       <c r="I88" s="117"/>
     </row>
@@ -19366,16 +19192,14 @@
       </c>
       <c r="D89" s="117"/>
       <c r="E89" s="117"/>
-      <c r="F89" s="9">
-        <v>80701.899999999994</v>
-      </c>
+      <c r="F89" s="9"/>
       <c r="G89" s="9">
         <f t="shared" si="13"/>
-        <v>80.701899999999995</v>
+        <v>0</v>
       </c>
       <c r="H89" s="9">
         <f t="shared" si="14"/>
-        <v>1.3450316666666666</v>
+        <v>0</v>
       </c>
       <c r="I89" s="117"/>
     </row>
@@ -19389,16 +19213,14 @@
       </c>
       <c r="D90" s="117"/>
       <c r="E90" s="117"/>
-      <c r="F90" s="9">
-        <v>80289.8</v>
-      </c>
+      <c r="F90" s="9"/>
       <c r="G90" s="9">
         <f t="shared" si="13"/>
-        <v>80.2898</v>
+        <v>0</v>
       </c>
       <c r="H90" s="9">
         <f t="shared" si="14"/>
-        <v>1.3381633333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" s="117"/>
     </row>
@@ -19412,16 +19234,14 @@
       </c>
       <c r="D91" s="117"/>
       <c r="E91" s="117"/>
-      <c r="F91" s="9">
-        <v>66762.600000000006</v>
-      </c>
+      <c r="F91" s="9"/>
       <c r="G91" s="9">
         <f t="shared" si="13"/>
-        <v>66.762600000000006</v>
+        <v>0</v>
       </c>
       <c r="H91" s="9">
         <f t="shared" si="14"/>
-        <v>1.1127100000000001</v>
+        <v>0</v>
       </c>
       <c r="I91" s="117"/>
     </row>
@@ -19429,125 +19249,115 @@
       <c r="A92" s="6">
         <v>40</v>
       </c>
-      <c r="B92" s="113">
+      <c r="B92" s="115">
         <v>5</v>
       </c>
       <c r="C92" s="6">
         <v>17</v>
       </c>
-      <c r="D92" s="113" t="s">
+      <c r="D92" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E92" s="113" t="s">
+      <c r="E92" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="6">
-        <v>14048.7</v>
-      </c>
+      <c r="F92" s="6"/>
       <c r="G92" s="6">
         <f t="shared" si="13"/>
-        <v>14.0487</v>
+        <v>0</v>
       </c>
       <c r="H92" s="6">
         <f t="shared" si="14"/>
-        <v>0.23414499999999999</v>
-      </c>
-      <c r="I92" s="113">
+        <v>0</v>
+      </c>
+      <c r="I92" s="115">
         <f t="shared" ref="I92" si="20">SUM(F92:F96)/5</f>
-        <v>18268.879999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40</v>
       </c>
-      <c r="B93" s="113"/>
+      <c r="B93" s="115"/>
       <c r="C93" s="6">
         <v>17</v>
       </c>
-      <c r="D93" s="113"/>
-      <c r="E93" s="113"/>
-      <c r="F93" s="6">
-        <v>21845.3</v>
-      </c>
+      <c r="D93" s="115"/>
+      <c r="E93" s="115"/>
+      <c r="F93" s="6"/>
       <c r="G93" s="6">
         <f t="shared" si="13"/>
-        <v>21.845299999999998</v>
+        <v>0</v>
       </c>
       <c r="H93" s="6">
         <f t="shared" si="14"/>
-        <v>0.36408833333333329</v>
-      </c>
-      <c r="I93" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="115"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40</v>
       </c>
-      <c r="B94" s="113"/>
+      <c r="B94" s="115"/>
       <c r="C94" s="6">
         <v>17</v>
       </c>
-      <c r="D94" s="113"/>
-      <c r="E94" s="113"/>
-      <c r="F94" s="6">
-        <v>19805.900000000001</v>
-      </c>
+      <c r="D94" s="115"/>
+      <c r="E94" s="115"/>
+      <c r="F94" s="6"/>
       <c r="G94" s="6">
         <f t="shared" si="13"/>
-        <v>19.805900000000001</v>
+        <v>0</v>
       </c>
       <c r="H94" s="6">
         <f t="shared" si="14"/>
-        <v>0.33009833333333333</v>
-      </c>
-      <c r="I94" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="115"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40</v>
       </c>
-      <c r="B95" s="113"/>
+      <c r="B95" s="115"/>
       <c r="C95" s="6">
         <v>17</v>
       </c>
-      <c r="D95" s="113"/>
-      <c r="E95" s="113"/>
-      <c r="F95" s="6">
-        <v>21785.3</v>
-      </c>
+      <c r="D95" s="115"/>
+      <c r="E95" s="115"/>
+      <c r="F95" s="6"/>
       <c r="G95" s="6">
         <f t="shared" si="13"/>
-        <v>21.785299999999999</v>
+        <v>0</v>
       </c>
       <c r="H95" s="6">
         <f t="shared" si="14"/>
-        <v>0.36308833333333335</v>
-      </c>
-      <c r="I95" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="115"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40</v>
       </c>
-      <c r="B96" s="113"/>
+      <c r="B96" s="115"/>
       <c r="C96" s="6">
         <v>17</v>
       </c>
-      <c r="D96" s="113"/>
-      <c r="E96" s="113"/>
-      <c r="F96" s="6">
-        <v>13859.2</v>
-      </c>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="6"/>
       <c r="G96" s="6">
         <f t="shared" si="13"/>
-        <v>13.859200000000001</v>
+        <v>0</v>
       </c>
       <c r="H96" s="6">
         <f t="shared" si="14"/>
-        <v>0.2309866666666667</v>
-      </c>
-      <c r="I96" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="115"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="7">
@@ -19565,20 +19375,18 @@
       <c r="E97" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F97" s="7">
-        <v>19982.5</v>
-      </c>
+      <c r="F97" s="7"/>
       <c r="G97" s="7">
         <f t="shared" si="13"/>
-        <v>19.982500000000002</v>
+        <v>0</v>
       </c>
       <c r="H97" s="7">
         <f t="shared" si="14"/>
-        <v>0.33304166666666668</v>
+        <v>0</v>
       </c>
       <c r="I97" s="112">
         <f t="shared" ref="I97" si="21">SUM(F97:F101)/5</f>
-        <v>17341.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -19591,16 +19399,14 @@
       </c>
       <c r="D98" s="112"/>
       <c r="E98" s="112"/>
-      <c r="F98" s="7">
-        <v>19936.5</v>
-      </c>
+      <c r="F98" s="7"/>
       <c r="G98" s="7">
         <f t="shared" si="13"/>
-        <v>19.936499999999999</v>
+        <v>0</v>
       </c>
       <c r="H98" s="7">
         <f t="shared" si="14"/>
-        <v>0.33227499999999999</v>
+        <v>0</v>
       </c>
       <c r="I98" s="112"/>
     </row>
@@ -19614,16 +19420,14 @@
       </c>
       <c r="D99" s="112"/>
       <c r="E99" s="112"/>
-      <c r="F99" s="7">
-        <v>13014.2</v>
-      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="7">
         <f t="shared" si="13"/>
-        <v>13.014200000000001</v>
+        <v>0</v>
       </c>
       <c r="H99" s="7">
         <f t="shared" si="14"/>
-        <v>0.21690333333333334</v>
+        <v>0</v>
       </c>
       <c r="I99" s="112"/>
     </row>
@@ -19637,16 +19441,14 @@
       </c>
       <c r="D100" s="112"/>
       <c r="E100" s="112"/>
-      <c r="F100" s="7">
-        <v>14563.5</v>
-      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="7">
         <f t="shared" si="13"/>
-        <v>14.563499999999999</v>
+        <v>0</v>
       </c>
       <c r="H100" s="7">
         <f t="shared" si="14"/>
-        <v>0.242725</v>
+        <v>0</v>
       </c>
       <c r="I100" s="112"/>
     </row>
@@ -19660,16 +19462,14 @@
       </c>
       <c r="D101" s="112"/>
       <c r="E101" s="112"/>
-      <c r="F101" s="7">
-        <v>19209.900000000001</v>
-      </c>
+      <c r="F101" s="7"/>
       <c r="G101" s="7">
         <f t="shared" si="13"/>
-        <v>19.209900000000001</v>
+        <v>0</v>
       </c>
       <c r="H101" s="7">
         <f t="shared" si="14"/>
-        <v>0.32016500000000003</v>
+        <v>0</v>
       </c>
       <c r="I101" s="112"/>
     </row>
@@ -19689,20 +19489,18 @@
       <c r="E102" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="8">
-        <v>49427.199999999997</v>
-      </c>
+      <c r="F102" s="8"/>
       <c r="G102" s="8">
         <f t="shared" si="13"/>
-        <v>49.427199999999999</v>
+        <v>0</v>
       </c>
       <c r="H102" s="8">
         <f t="shared" si="14"/>
-        <v>0.82378666666666667</v>
+        <v>0</v>
       </c>
       <c r="I102" s="116">
         <f t="shared" ref="I102" si="22">SUM(F102:F106)/5</f>
-        <v>62424.220000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -19715,16 +19513,14 @@
       </c>
       <c r="D103" s="116"/>
       <c r="E103" s="116"/>
-      <c r="F103" s="8">
-        <v>67775.399999999994</v>
-      </c>
+      <c r="F103" s="8"/>
       <c r="G103" s="8">
         <f t="shared" si="13"/>
-        <v>67.775399999999991</v>
+        <v>0</v>
       </c>
       <c r="H103" s="8">
         <f t="shared" si="14"/>
-        <v>1.1295899999999999</v>
+        <v>0</v>
       </c>
       <c r="I103" s="116"/>
     </row>
@@ -19738,16 +19534,14 @@
       </c>
       <c r="D104" s="116"/>
       <c r="E104" s="116"/>
-      <c r="F104" s="8">
-        <v>71355.600000000006</v>
-      </c>
+      <c r="F104" s="8"/>
       <c r="G104" s="8">
         <f t="shared" si="13"/>
-        <v>71.35560000000001</v>
+        <v>0</v>
       </c>
       <c r="H104" s="8">
         <f t="shared" si="14"/>
-        <v>1.1892600000000002</v>
+        <v>0</v>
       </c>
       <c r="I104" s="116"/>
     </row>
@@ -19761,16 +19555,14 @@
       </c>
       <c r="D105" s="116"/>
       <c r="E105" s="116"/>
-      <c r="F105" s="8">
-        <v>52638.2</v>
-      </c>
+      <c r="F105" s="8"/>
       <c r="G105" s="8">
         <f t="shared" si="13"/>
-        <v>52.638199999999998</v>
+        <v>0</v>
       </c>
       <c r="H105" s="8">
         <f t="shared" si="14"/>
-        <v>0.87730333333333332</v>
+        <v>0</v>
       </c>
       <c r="I105" s="116"/>
     </row>
@@ -19784,16 +19576,14 @@
       </c>
       <c r="D106" s="116"/>
       <c r="E106" s="116"/>
-      <c r="F106" s="8">
-        <v>70924.7</v>
-      </c>
+      <c r="F106" s="8"/>
       <c r="G106" s="8">
         <f t="shared" si="13"/>
-        <v>70.924700000000001</v>
+        <v>0</v>
       </c>
       <c r="H106" s="8">
         <f t="shared" si="14"/>
-        <v>1.1820783333333333</v>
+        <v>0</v>
       </c>
       <c r="I106" s="116"/>
     </row>
@@ -19813,20 +19603,18 @@
       <c r="E107" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F107" s="9">
-        <v>49046.6</v>
-      </c>
+      <c r="F107" s="9"/>
       <c r="G107" s="9">
         <f t="shared" si="13"/>
-        <v>49.046599999999998</v>
+        <v>0</v>
       </c>
       <c r="H107" s="9">
         <f t="shared" si="14"/>
-        <v>0.8174433333333333</v>
+        <v>0</v>
       </c>
       <c r="I107" s="117">
         <f t="shared" ref="I107" si="23">SUM(F107:F111)/5</f>
-        <v>59759.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -19839,16 +19627,14 @@
       </c>
       <c r="D108" s="117"/>
       <c r="E108" s="117"/>
-      <c r="F108" s="9">
-        <v>58493.9</v>
-      </c>
+      <c r="F108" s="9"/>
       <c r="G108" s="9">
         <f t="shared" si="13"/>
-        <v>58.493900000000004</v>
+        <v>0</v>
       </c>
       <c r="H108" s="9">
         <f t="shared" si="14"/>
-        <v>0.97489833333333342</v>
+        <v>0</v>
       </c>
       <c r="I108" s="117"/>
     </row>
@@ -19862,16 +19648,14 @@
       </c>
       <c r="D109" s="117"/>
       <c r="E109" s="117"/>
-      <c r="F109" s="9">
-        <v>61741</v>
-      </c>
+      <c r="F109" s="9"/>
       <c r="G109" s="9">
         <f t="shared" si="13"/>
-        <v>61.741</v>
+        <v>0</v>
       </c>
       <c r="H109" s="9">
         <f t="shared" si="14"/>
-        <v>1.0290166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" s="117"/>
     </row>
@@ -19885,16 +19669,14 @@
       </c>
       <c r="D110" s="117"/>
       <c r="E110" s="117"/>
-      <c r="F110" s="9">
-        <v>58516.6</v>
-      </c>
+      <c r="F110" s="9"/>
       <c r="G110" s="9">
         <f t="shared" si="13"/>
-        <v>58.516599999999997</v>
+        <v>0</v>
       </c>
       <c r="H110" s="9">
         <f t="shared" si="14"/>
-        <v>0.97527666666666657</v>
+        <v>0</v>
       </c>
       <c r="I110" s="117"/>
     </row>
@@ -19908,16 +19690,14 @@
       </c>
       <c r="D111" s="117"/>
       <c r="E111" s="117"/>
-      <c r="F111" s="9">
-        <v>71001.7</v>
-      </c>
+      <c r="F111" s="9"/>
       <c r="G111" s="9">
         <f t="shared" si="13"/>
-        <v>71.0017</v>
+        <v>0</v>
       </c>
       <c r="H111" s="9">
         <f t="shared" si="14"/>
-        <v>1.1833616666666666</v>
+        <v>0</v>
       </c>
       <c r="I111" s="117"/>
     </row>
@@ -19925,125 +19705,115 @@
       <c r="A112" s="6">
         <v>40</v>
       </c>
-      <c r="B112" s="113">
+      <c r="B112" s="115">
         <v>6</v>
       </c>
       <c r="C112" s="6">
         <v>17</v>
       </c>
-      <c r="D112" s="113" t="s">
+      <c r="D112" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E112" s="113" t="s">
+      <c r="E112" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="6">
-        <v>20837.8</v>
-      </c>
+      <c r="F112" s="6"/>
       <c r="G112" s="6">
         <f t="shared" si="13"/>
-        <v>20.837799999999998</v>
+        <v>0</v>
       </c>
       <c r="H112" s="6">
         <f t="shared" si="14"/>
-        <v>0.34729666666666664</v>
-      </c>
-      <c r="I112" s="113">
+        <v>0</v>
+      </c>
+      <c r="I112" s="115">
         <f t="shared" ref="I112" si="24">SUM(F112:F116)/5</f>
-        <v>20798.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40</v>
       </c>
-      <c r="B113" s="113"/>
+      <c r="B113" s="115"/>
       <c r="C113" s="6">
         <v>17</v>
       </c>
-      <c r="D113" s="113"/>
-      <c r="E113" s="113"/>
-      <c r="F113" s="6">
-        <v>20744.900000000001</v>
-      </c>
+      <c r="D113" s="115"/>
+      <c r="E113" s="115"/>
+      <c r="F113" s="6"/>
       <c r="G113" s="6">
         <f t="shared" si="13"/>
-        <v>20.744900000000001</v>
+        <v>0</v>
       </c>
       <c r="H113" s="6">
         <f t="shared" si="14"/>
-        <v>0.34574833333333338</v>
-      </c>
-      <c r="I113" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="115"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40</v>
       </c>
-      <c r="B114" s="113"/>
+      <c r="B114" s="115"/>
       <c r="C114" s="6">
         <v>17</v>
       </c>
-      <c r="D114" s="113"/>
-      <c r="E114" s="113"/>
-      <c r="F114" s="6">
-        <v>20356.099999999999</v>
-      </c>
+      <c r="D114" s="115"/>
+      <c r="E114" s="115"/>
+      <c r="F114" s="6"/>
       <c r="G114" s="6">
         <f t="shared" si="13"/>
-        <v>20.356099999999998</v>
+        <v>0</v>
       </c>
       <c r="H114" s="6">
         <f t="shared" si="14"/>
-        <v>0.33926833333333328</v>
-      </c>
-      <c r="I114" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="115"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40</v>
       </c>
-      <c r="B115" s="113"/>
+      <c r="B115" s="115"/>
       <c r="C115" s="6">
         <v>17</v>
       </c>
-      <c r="D115" s="113"/>
-      <c r="E115" s="113"/>
-      <c r="F115" s="6">
-        <v>20857.900000000001</v>
-      </c>
+      <c r="D115" s="115"/>
+      <c r="E115" s="115"/>
+      <c r="F115" s="6"/>
       <c r="G115" s="6">
         <f t="shared" si="13"/>
-        <v>20.857900000000001</v>
+        <v>0</v>
       </c>
       <c r="H115" s="6">
         <f t="shared" si="14"/>
-        <v>0.34763166666666667</v>
-      </c>
-      <c r="I115" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="115"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40</v>
       </c>
-      <c r="B116" s="113"/>
+      <c r="B116" s="115"/>
       <c r="C116" s="6">
         <v>17</v>
       </c>
-      <c r="D116" s="113"/>
-      <c r="E116" s="113"/>
-      <c r="F116" s="6">
-        <v>21197.4</v>
-      </c>
+      <c r="D116" s="115"/>
+      <c r="E116" s="115"/>
+      <c r="F116" s="6"/>
       <c r="G116" s="6">
         <f t="shared" si="13"/>
-        <v>21.197400000000002</v>
+        <v>0</v>
       </c>
       <c r="H116" s="6">
         <f t="shared" si="14"/>
-        <v>0.35329000000000005</v>
-      </c>
-      <c r="I116" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="115"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="7">
@@ -20061,20 +19831,18 @@
       <c r="E117" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F117" s="7">
-        <v>21897.3</v>
-      </c>
+      <c r="F117" s="7"/>
       <c r="G117" s="7">
         <f t="shared" si="13"/>
-        <v>21.897299999999998</v>
+        <v>0</v>
       </c>
       <c r="H117" s="7">
         <f t="shared" si="14"/>
-        <v>0.36495499999999997</v>
+        <v>0</v>
       </c>
       <c r="I117" s="112">
         <f t="shared" ref="I117" si="25">SUM(F117:F121)/5</f>
-        <v>19996.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -20087,16 +19855,14 @@
       </c>
       <c r="D118" s="112"/>
       <c r="E118" s="112"/>
-      <c r="F118" s="7">
-        <v>23117.3</v>
-      </c>
+      <c r="F118" s="7"/>
       <c r="G118" s="7">
         <f t="shared" si="13"/>
-        <v>23.1173</v>
+        <v>0</v>
       </c>
       <c r="H118" s="7">
         <f t="shared" si="14"/>
-        <v>0.38528833333333334</v>
+        <v>0</v>
       </c>
       <c r="I118" s="112"/>
     </row>
@@ -20110,16 +19876,14 @@
       </c>
       <c r="D119" s="112"/>
       <c r="E119" s="112"/>
-      <c r="F119" s="7">
-        <v>17171.8</v>
-      </c>
+      <c r="F119" s="7"/>
       <c r="G119" s="7">
         <f t="shared" si="13"/>
-        <v>17.171799999999998</v>
+        <v>0</v>
       </c>
       <c r="H119" s="7">
         <f t="shared" si="14"/>
-        <v>0.2861966666666666</v>
+        <v>0</v>
       </c>
       <c r="I119" s="112"/>
     </row>
@@ -20133,16 +19897,14 @@
       </c>
       <c r="D120" s="112"/>
       <c r="E120" s="112"/>
-      <c r="F120" s="7">
-        <v>19366.2</v>
-      </c>
+      <c r="F120" s="7"/>
       <c r="G120" s="7">
         <f t="shared" si="13"/>
-        <v>19.366199999999999</v>
+        <v>0</v>
       </c>
       <c r="H120" s="7">
         <f t="shared" si="14"/>
-        <v>0.32277</v>
+        <v>0</v>
       </c>
       <c r="I120" s="112"/>
     </row>
@@ -20156,16 +19918,14 @@
       </c>
       <c r="D121" s="112"/>
       <c r="E121" s="112"/>
-      <c r="F121" s="7">
-        <v>18432.3</v>
-      </c>
+      <c r="F121" s="7"/>
       <c r="G121" s="7">
         <f t="shared" si="13"/>
-        <v>18.432299999999998</v>
+        <v>0</v>
       </c>
       <c r="H121" s="7">
         <f t="shared" si="14"/>
-        <v>0.30720499999999995</v>
+        <v>0</v>
       </c>
       <c r="I121" s="112"/>
     </row>
@@ -20185,20 +19945,18 @@
       <c r="E122" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F122" s="8">
-        <v>46408.6</v>
-      </c>
+      <c r="F122" s="8"/>
       <c r="G122" s="8">
         <f t="shared" si="13"/>
-        <v>46.4086</v>
+        <v>0</v>
       </c>
       <c r="H122" s="8">
         <f t="shared" si="14"/>
-        <v>0.7734766666666667</v>
+        <v>0</v>
       </c>
       <c r="I122" s="116">
         <f t="shared" ref="I122" si="26">SUM(F122:F126)/5</f>
-        <v>56237.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -20211,16 +19969,14 @@
       </c>
       <c r="D123" s="116"/>
       <c r="E123" s="116"/>
-      <c r="F123" s="8">
-        <v>66698.5</v>
-      </c>
+      <c r="F123" s="8"/>
       <c r="G123" s="8">
         <f t="shared" si="13"/>
-        <v>66.698499999999996</v>
+        <v>0</v>
       </c>
       <c r="H123" s="8">
         <f t="shared" si="14"/>
-        <v>1.1116416666666666</v>
+        <v>0</v>
       </c>
       <c r="I123" s="116"/>
     </row>
@@ -20234,16 +19990,14 @@
       </c>
       <c r="D124" s="116"/>
       <c r="E124" s="116"/>
-      <c r="F124" s="8">
-        <v>66667.100000000006</v>
-      </c>
+      <c r="F124" s="8"/>
       <c r="G124" s="8">
         <f t="shared" si="13"/>
-        <v>66.667100000000005</v>
+        <v>0</v>
       </c>
       <c r="H124" s="8">
         <f t="shared" si="14"/>
-        <v>1.1111183333333334</v>
+        <v>0</v>
       </c>
       <c r="I124" s="116"/>
     </row>
@@ -20257,16 +20011,14 @@
       </c>
       <c r="D125" s="116"/>
       <c r="E125" s="116"/>
-      <c r="F125" s="8">
-        <v>54779</v>
-      </c>
+      <c r="F125" s="8"/>
       <c r="G125" s="8">
         <f t="shared" si="13"/>
-        <v>54.779000000000003</v>
+        <v>0</v>
       </c>
       <c r="H125" s="8">
         <f t="shared" si="14"/>
-        <v>0.91298333333333337</v>
+        <v>0</v>
       </c>
       <c r="I125" s="116"/>
     </row>
@@ -20280,16 +20032,14 @@
       </c>
       <c r="D126" s="116"/>
       <c r="E126" s="116"/>
-      <c r="F126" s="8">
-        <v>46632.3</v>
-      </c>
+      <c r="F126" s="8"/>
       <c r="G126" s="8">
         <f t="shared" si="13"/>
-        <v>46.632300000000001</v>
+        <v>0</v>
       </c>
       <c r="H126" s="8">
         <f t="shared" si="14"/>
-        <v>0.77720500000000003</v>
+        <v>0</v>
       </c>
       <c r="I126" s="116"/>
     </row>
@@ -20309,20 +20059,18 @@
       <c r="E127" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F127" s="9">
-        <v>52135.8</v>
-      </c>
+      <c r="F127" s="9"/>
       <c r="G127" s="9">
         <f t="shared" si="13"/>
-        <v>52.135800000000003</v>
+        <v>0</v>
       </c>
       <c r="H127" s="9">
         <f t="shared" si="14"/>
-        <v>0.86893000000000009</v>
+        <v>0</v>
       </c>
       <c r="I127" s="117">
         <f t="shared" ref="I127" si="27">SUM(F127:F131)/5</f>
-        <v>56189.319999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -20335,16 +20083,14 @@
       </c>
       <c r="D128" s="117"/>
       <c r="E128" s="117"/>
-      <c r="F128" s="9">
-        <v>60902.9</v>
-      </c>
+      <c r="F128" s="9"/>
       <c r="G128" s="9">
         <f t="shared" si="13"/>
-        <v>60.902900000000002</v>
+        <v>0</v>
       </c>
       <c r="H128" s="9">
         <f t="shared" si="14"/>
-        <v>1.0150483333333333</v>
+        <v>0</v>
       </c>
       <c r="I128" s="117"/>
     </row>
@@ -20358,16 +20104,14 @@
       </c>
       <c r="D129" s="117"/>
       <c r="E129" s="117"/>
-      <c r="F129" s="9">
-        <v>66441.3</v>
-      </c>
+      <c r="F129" s="9"/>
       <c r="G129" s="9">
         <f t="shared" si="13"/>
-        <v>66.441299999999998</v>
+        <v>0</v>
       </c>
       <c r="H129" s="9">
         <f t="shared" si="14"/>
-        <v>1.1073549999999999</v>
+        <v>0</v>
       </c>
       <c r="I129" s="117"/>
     </row>
@@ -20381,16 +20125,14 @@
       </c>
       <c r="D130" s="117"/>
       <c r="E130" s="117"/>
-      <c r="F130" s="9">
-        <v>49295.6</v>
-      </c>
+      <c r="F130" s="9"/>
       <c r="G130" s="9">
         <f t="shared" si="13"/>
-        <v>49.2956</v>
+        <v>0</v>
       </c>
       <c r="H130" s="9">
         <f t="shared" si="14"/>
-        <v>0.82159333333333329</v>
+        <v>0</v>
       </c>
       <c r="I130" s="117"/>
     </row>
@@ -20404,16 +20146,14 @@
       </c>
       <c r="D131" s="117"/>
       <c r="E131" s="117"/>
-      <c r="F131" s="9">
-        <v>52171</v>
-      </c>
+      <c r="F131" s="9"/>
       <c r="G131" s="9">
         <f t="shared" ref="G131:G171" si="28">F131/1000</f>
-        <v>52.170999999999999</v>
+        <v>0</v>
       </c>
       <c r="H131" s="9">
         <f t="shared" ref="H131:H171" si="29">G131/60</f>
-        <v>0.8695166666666666</v>
+        <v>0</v>
       </c>
       <c r="I131" s="117"/>
     </row>
@@ -20421,125 +20161,115 @@
       <c r="A132" s="6">
         <v>40</v>
       </c>
-      <c r="B132" s="113">
+      <c r="B132" s="115">
         <v>7</v>
       </c>
       <c r="C132" s="6">
         <v>17</v>
       </c>
-      <c r="D132" s="113" t="s">
+      <c r="D132" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="113" t="s">
+      <c r="E132" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F132" s="6">
-        <v>16423.599999999999</v>
-      </c>
+      <c r="F132" s="6"/>
       <c r="G132" s="6">
         <f t="shared" si="28"/>
-        <v>16.423599999999997</v>
+        <v>0</v>
       </c>
       <c r="H132" s="6">
         <f t="shared" si="29"/>
-        <v>0.27372666666666662</v>
-      </c>
-      <c r="I132" s="113">
+        <v>0</v>
+      </c>
+      <c r="I132" s="115">
         <f t="shared" ref="I132" si="30">SUM(F132:F136)/5</f>
-        <v>18812.939999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40</v>
       </c>
-      <c r="B133" s="113"/>
+      <c r="B133" s="115"/>
       <c r="C133" s="6">
         <v>17</v>
       </c>
-      <c r="D133" s="113"/>
-      <c r="E133" s="113"/>
-      <c r="F133" s="6">
-        <v>14398.2</v>
-      </c>
+      <c r="D133" s="115"/>
+      <c r="E133" s="115"/>
+      <c r="F133" s="6"/>
       <c r="G133" s="6">
         <f t="shared" si="28"/>
-        <v>14.398200000000001</v>
+        <v>0</v>
       </c>
       <c r="H133" s="6">
         <f t="shared" si="29"/>
-        <v>0.23997000000000002</v>
-      </c>
-      <c r="I133" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="115"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40</v>
       </c>
-      <c r="B134" s="113"/>
+      <c r="B134" s="115"/>
       <c r="C134" s="6">
         <v>17</v>
       </c>
-      <c r="D134" s="113"/>
-      <c r="E134" s="113"/>
-      <c r="F134" s="6">
-        <v>19444.599999999999</v>
-      </c>
+      <c r="D134" s="115"/>
+      <c r="E134" s="115"/>
+      <c r="F134" s="6"/>
       <c r="G134" s="6">
         <f t="shared" si="28"/>
-        <v>19.444599999999998</v>
+        <v>0</v>
       </c>
       <c r="H134" s="6">
         <f t="shared" si="29"/>
-        <v>0.32407666666666662</v>
-      </c>
-      <c r="I134" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="115"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40</v>
       </c>
-      <c r="B135" s="113"/>
+      <c r="B135" s="115"/>
       <c r="C135" s="6">
         <v>17</v>
       </c>
-      <c r="D135" s="113"/>
-      <c r="E135" s="113"/>
-      <c r="F135" s="6">
-        <v>21745.8</v>
-      </c>
+      <c r="D135" s="115"/>
+      <c r="E135" s="115"/>
+      <c r="F135" s="6"/>
       <c r="G135" s="6">
         <f t="shared" si="28"/>
-        <v>21.745799999999999</v>
+        <v>0</v>
       </c>
       <c r="H135" s="6">
         <f t="shared" si="29"/>
-        <v>0.36242999999999997</v>
-      </c>
-      <c r="I135" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="115"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>40</v>
       </c>
-      <c r="B136" s="113"/>
+      <c r="B136" s="115"/>
       <c r="C136" s="6">
         <v>17</v>
       </c>
-      <c r="D136" s="113"/>
-      <c r="E136" s="113"/>
-      <c r="F136" s="6">
-        <v>22052.5</v>
-      </c>
+      <c r="D136" s="115"/>
+      <c r="E136" s="115"/>
+      <c r="F136" s="6"/>
       <c r="G136" s="6">
         <f t="shared" si="28"/>
-        <v>22.052499999999998</v>
+        <v>0</v>
       </c>
       <c r="H136" s="6">
         <f t="shared" si="29"/>
-        <v>0.36754166666666666</v>
-      </c>
-      <c r="I136" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I136" s="115"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="7">
@@ -20557,20 +20287,18 @@
       <c r="E137" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F137" s="7">
-        <v>23509.3</v>
-      </c>
+      <c r="F137" s="7"/>
       <c r="G137" s="7">
         <f t="shared" si="28"/>
-        <v>23.5093</v>
+        <v>0</v>
       </c>
       <c r="H137" s="7">
         <f t="shared" si="29"/>
-        <v>0.39182166666666668</v>
+        <v>0</v>
       </c>
       <c r="I137" s="112">
         <f t="shared" ref="I137" si="31">SUM(F137:F141)/5</f>
-        <v>19411.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -20583,16 +20311,14 @@
       </c>
       <c r="D138" s="112"/>
       <c r="E138" s="112"/>
-      <c r="F138" s="7">
-        <v>17576.3</v>
-      </c>
+      <c r="F138" s="7"/>
       <c r="G138" s="7">
         <f t="shared" si="28"/>
-        <v>17.5763</v>
+        <v>0</v>
       </c>
       <c r="H138" s="7">
         <f t="shared" si="29"/>
-        <v>0.29293833333333336</v>
+        <v>0</v>
       </c>
       <c r="I138" s="112"/>
     </row>
@@ -20606,16 +20332,14 @@
       </c>
       <c r="D139" s="112"/>
       <c r="E139" s="112"/>
-      <c r="F139" s="7">
-        <v>24742.3</v>
-      </c>
+      <c r="F139" s="7"/>
       <c r="G139" s="7">
         <f t="shared" si="28"/>
-        <v>24.7423</v>
+        <v>0</v>
       </c>
       <c r="H139" s="7">
         <f t="shared" si="29"/>
-        <v>0.41237166666666669</v>
+        <v>0</v>
       </c>
       <c r="I139" s="112"/>
     </row>
@@ -20629,16 +20353,14 @@
       </c>
       <c r="D140" s="112"/>
       <c r="E140" s="112"/>
-      <c r="F140" s="7">
-        <v>16103.3</v>
-      </c>
+      <c r="F140" s="7"/>
       <c r="G140" s="7">
         <f t="shared" si="28"/>
-        <v>16.103300000000001</v>
+        <v>0</v>
       </c>
       <c r="H140" s="7">
         <f t="shared" si="29"/>
-        <v>0.26838833333333334</v>
+        <v>0</v>
       </c>
       <c r="I140" s="112"/>
     </row>
@@ -20652,16 +20374,14 @@
       </c>
       <c r="D141" s="112"/>
       <c r="E141" s="112"/>
-      <c r="F141" s="7">
-        <v>15124.5</v>
-      </c>
+      <c r="F141" s="7"/>
       <c r="G141" s="7">
         <f t="shared" si="28"/>
-        <v>15.124499999999999</v>
+        <v>0</v>
       </c>
       <c r="H141" s="7">
         <f t="shared" si="29"/>
-        <v>0.25207499999999999</v>
+        <v>0</v>
       </c>
       <c r="I141" s="112"/>
     </row>
@@ -20681,20 +20401,18 @@
       <c r="E142" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F142" s="8">
-        <v>63485.8</v>
-      </c>
+      <c r="F142" s="8"/>
       <c r="G142" s="8">
         <f t="shared" si="28"/>
-        <v>63.485800000000005</v>
+        <v>0</v>
       </c>
       <c r="H142" s="8">
         <f t="shared" si="29"/>
-        <v>1.0580966666666667</v>
+        <v>0</v>
       </c>
       <c r="I142" s="116">
         <f t="shared" ref="I142" si="32">SUM(F142:F146)/5</f>
-        <v>60567.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -20707,16 +20425,14 @@
       </c>
       <c r="D143" s="116"/>
       <c r="E143" s="116"/>
-      <c r="F143" s="8">
-        <v>63448.9</v>
-      </c>
+      <c r="F143" s="8"/>
       <c r="G143" s="8">
         <f t="shared" si="28"/>
-        <v>63.448900000000002</v>
+        <v>0</v>
       </c>
       <c r="H143" s="8">
         <f t="shared" si="29"/>
-        <v>1.0574816666666667</v>
+        <v>0</v>
       </c>
       <c r="I143" s="116"/>
     </row>
@@ -20730,16 +20446,14 @@
       </c>
       <c r="D144" s="116"/>
       <c r="E144" s="116"/>
-      <c r="F144" s="8">
-        <v>63103.7</v>
-      </c>
+      <c r="F144" s="8"/>
       <c r="G144" s="8">
         <f t="shared" si="28"/>
-        <v>63.103699999999996</v>
+        <v>0</v>
       </c>
       <c r="H144" s="8">
         <f t="shared" si="29"/>
-        <v>1.0517283333333334</v>
+        <v>0</v>
       </c>
       <c r="I144" s="116"/>
     </row>
@@ -20753,16 +20467,14 @@
       </c>
       <c r="D145" s="116"/>
       <c r="E145" s="116"/>
-      <c r="F145" s="8">
-        <v>52141.3</v>
-      </c>
+      <c r="F145" s="8"/>
       <c r="G145" s="8">
         <f t="shared" si="28"/>
-        <v>52.141300000000001</v>
+        <v>0</v>
       </c>
       <c r="H145" s="8">
         <f t="shared" si="29"/>
-        <v>0.86902166666666669</v>
+        <v>0</v>
       </c>
       <c r="I145" s="116"/>
     </row>
@@ -20776,16 +20488,14 @@
       </c>
       <c r="D146" s="116"/>
       <c r="E146" s="116"/>
-      <c r="F146" s="8">
-        <v>60658.2</v>
-      </c>
+      <c r="F146" s="8"/>
       <c r="G146" s="8">
         <f t="shared" si="28"/>
-        <v>60.658199999999994</v>
+        <v>0</v>
       </c>
       <c r="H146" s="8">
         <f t="shared" si="29"/>
-        <v>1.0109699999999999</v>
+        <v>0</v>
       </c>
       <c r="I146" s="116"/>
     </row>
@@ -20805,20 +20515,18 @@
       <c r="E147" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F147" s="9">
-        <v>63781.7</v>
-      </c>
+      <c r="F147" s="9"/>
       <c r="G147" s="9">
         <f t="shared" si="28"/>
-        <v>63.781699999999994</v>
+        <v>0</v>
       </c>
       <c r="H147" s="9">
         <f t="shared" si="29"/>
-        <v>1.0630283333333332</v>
+        <v>0</v>
       </c>
       <c r="I147" s="117">
         <f t="shared" ref="I147" si="33">SUM(F147:F151)/5</f>
-        <v>56143.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -20831,16 +20539,14 @@
       </c>
       <c r="D148" s="117"/>
       <c r="E148" s="117"/>
-      <c r="F148" s="9">
-        <v>46518.400000000001</v>
-      </c>
+      <c r="F148" s="9"/>
       <c r="G148" s="9">
         <f t="shared" si="28"/>
-        <v>46.5184</v>
+        <v>0</v>
       </c>
       <c r="H148" s="9">
         <f t="shared" si="29"/>
-        <v>0.7753066666666667</v>
+        <v>0</v>
       </c>
       <c r="I148" s="117"/>
     </row>
@@ -20854,16 +20560,14 @@
       </c>
       <c r="D149" s="117"/>
       <c r="E149" s="117"/>
-      <c r="F149" s="9">
-        <v>63178.5</v>
-      </c>
+      <c r="F149" s="9"/>
       <c r="G149" s="9">
         <f t="shared" si="28"/>
-        <v>63.1785</v>
+        <v>0</v>
       </c>
       <c r="H149" s="9">
         <f t="shared" si="29"/>
-        <v>1.052975</v>
+        <v>0</v>
       </c>
       <c r="I149" s="117"/>
     </row>
@@ -20877,16 +20581,14 @@
       </c>
       <c r="D150" s="117"/>
       <c r="E150" s="117"/>
-      <c r="F150" s="9">
-        <v>63368.5</v>
-      </c>
+      <c r="F150" s="9"/>
       <c r="G150" s="9">
         <f t="shared" si="28"/>
-        <v>63.368499999999997</v>
+        <v>0</v>
       </c>
       <c r="H150" s="9">
         <f t="shared" si="29"/>
-        <v>1.0561416666666665</v>
+        <v>0</v>
       </c>
       <c r="I150" s="117"/>
     </row>
@@ -20900,16 +20602,14 @@
       </c>
       <c r="D151" s="117"/>
       <c r="E151" s="117"/>
-      <c r="F151" s="9">
-        <v>43868.3</v>
-      </c>
+      <c r="F151" s="9"/>
       <c r="G151" s="9">
         <f t="shared" si="28"/>
-        <v>43.868300000000005</v>
+        <v>0</v>
       </c>
       <c r="H151" s="9">
         <f t="shared" si="29"/>
-        <v>0.73113833333333345</v>
+        <v>0</v>
       </c>
       <c r="I151" s="117"/>
     </row>
@@ -20917,125 +20617,115 @@
       <c r="A152" s="6">
         <v>40</v>
       </c>
-      <c r="B152" s="113">
+      <c r="B152" s="115">
         <v>8</v>
       </c>
       <c r="C152" s="6">
         <v>17</v>
       </c>
-      <c r="D152" s="113" t="s">
+      <c r="D152" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="E152" s="113" t="s">
+      <c r="E152" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="F152" s="6">
-        <v>20411.7</v>
-      </c>
+      <c r="F152" s="6"/>
       <c r="G152" s="6">
         <f t="shared" si="28"/>
-        <v>20.4117</v>
+        <v>0</v>
       </c>
       <c r="H152" s="6">
         <f t="shared" si="29"/>
-        <v>0.34019499999999997</v>
-      </c>
-      <c r="I152" s="113">
+        <v>0</v>
+      </c>
+      <c r="I152" s="115">
         <f t="shared" ref="I152" si="34">SUM(F152:F156)/5</f>
-        <v>18298.580000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>40</v>
       </c>
-      <c r="B153" s="113"/>
+      <c r="B153" s="115"/>
       <c r="C153" s="6">
         <v>17</v>
       </c>
-      <c r="D153" s="113"/>
-      <c r="E153" s="113"/>
-      <c r="F153" s="6">
-        <v>19244.900000000001</v>
-      </c>
+      <c r="D153" s="115"/>
+      <c r="E153" s="115"/>
+      <c r="F153" s="6"/>
       <c r="G153" s="6">
         <f t="shared" si="28"/>
-        <v>19.244900000000001</v>
+        <v>0</v>
       </c>
       <c r="H153" s="6">
         <f t="shared" si="29"/>
-        <v>0.32074833333333336</v>
-      </c>
-      <c r="I153" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I153" s="115"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>40</v>
       </c>
-      <c r="B154" s="113"/>
+      <c r="B154" s="115"/>
       <c r="C154" s="6">
         <v>17</v>
       </c>
-      <c r="D154" s="113"/>
-      <c r="E154" s="113"/>
-      <c r="F154" s="6">
-        <v>19148.3</v>
-      </c>
+      <c r="D154" s="115"/>
+      <c r="E154" s="115"/>
+      <c r="F154" s="6"/>
       <c r="G154" s="6">
         <f t="shared" si="28"/>
-        <v>19.148299999999999</v>
+        <v>0</v>
       </c>
       <c r="H154" s="6">
         <f t="shared" si="29"/>
-        <v>0.3191383333333333</v>
-      </c>
-      <c r="I154" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I154" s="115"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>40</v>
       </c>
-      <c r="B155" s="113"/>
+      <c r="B155" s="115"/>
       <c r="C155" s="6">
         <v>17</v>
       </c>
-      <c r="D155" s="113"/>
-      <c r="E155" s="113"/>
-      <c r="F155" s="6">
-        <v>17883.3</v>
-      </c>
+      <c r="D155" s="115"/>
+      <c r="E155" s="115"/>
+      <c r="F155" s="6"/>
       <c r="G155" s="6">
         <f t="shared" si="28"/>
-        <v>17.883299999999998</v>
+        <v>0</v>
       </c>
       <c r="H155" s="6">
         <f t="shared" si="29"/>
-        <v>0.29805499999999996</v>
-      </c>
-      <c r="I155" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I155" s="115"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>40</v>
       </c>
-      <c r="B156" s="113"/>
+      <c r="B156" s="115"/>
       <c r="C156" s="6">
         <v>17</v>
       </c>
-      <c r="D156" s="113"/>
-      <c r="E156" s="113"/>
-      <c r="F156" s="6">
-        <v>14804.7</v>
-      </c>
+      <c r="D156" s="115"/>
+      <c r="E156" s="115"/>
+      <c r="F156" s="6"/>
       <c r="G156" s="6">
         <f t="shared" si="28"/>
-        <v>14.8047</v>
+        <v>0</v>
       </c>
       <c r="H156" s="6">
         <f t="shared" si="29"/>
-        <v>0.24674500000000002</v>
-      </c>
-      <c r="I156" s="113"/>
+        <v>0</v>
+      </c>
+      <c r="I156" s="115"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="7">
@@ -21053,20 +20743,18 @@
       <c r="E157" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="F157" s="7">
-        <v>15140.7</v>
-      </c>
+      <c r="F157" s="7"/>
       <c r="G157" s="7">
         <f t="shared" si="28"/>
-        <v>15.140700000000001</v>
+        <v>0</v>
       </c>
       <c r="H157" s="7">
         <f t="shared" si="29"/>
-        <v>0.25234499999999999</v>
+        <v>0</v>
       </c>
       <c r="I157" s="112">
         <f t="shared" ref="I157" si="35">SUM(F157:F161)/5</f>
-        <v>18914.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -21079,16 +20767,14 @@
       </c>
       <c r="D158" s="112"/>
       <c r="E158" s="112"/>
-      <c r="F158" s="7">
-        <v>19803.3</v>
-      </c>
+      <c r="F158" s="7"/>
       <c r="G158" s="7">
         <f t="shared" si="28"/>
-        <v>19.8033</v>
+        <v>0</v>
       </c>
       <c r="H158" s="7">
         <f t="shared" si="29"/>
-        <v>0.33005499999999999</v>
+        <v>0</v>
       </c>
       <c r="I158" s="112"/>
     </row>
@@ -21102,16 +20788,14 @@
       </c>
       <c r="D159" s="112"/>
       <c r="E159" s="112"/>
-      <c r="F159" s="7">
-        <v>18517.3</v>
-      </c>
+      <c r="F159" s="7"/>
       <c r="G159" s="7">
         <f t="shared" si="28"/>
-        <v>18.517299999999999</v>
+        <v>0</v>
       </c>
       <c r="H159" s="7">
         <f t="shared" si="29"/>
-        <v>0.30862166666666663</v>
+        <v>0</v>
       </c>
       <c r="I159" s="112"/>
     </row>
@@ -21125,16 +20809,14 @@
       </c>
       <c r="D160" s="112"/>
       <c r="E160" s="112"/>
-      <c r="F160" s="7">
-        <v>19508.400000000001</v>
-      </c>
+      <c r="F160" s="7"/>
       <c r="G160" s="7">
         <f t="shared" si="28"/>
-        <v>19.508400000000002</v>
+        <v>0</v>
       </c>
       <c r="H160" s="7">
         <f t="shared" si="29"/>
-        <v>0.32514000000000004</v>
+        <v>0</v>
       </c>
       <c r="I160" s="112"/>
     </row>
@@ -21148,16 +20830,14 @@
       </c>
       <c r="D161" s="112"/>
       <c r="E161" s="112"/>
-      <c r="F161" s="7">
-        <v>21603</v>
-      </c>
+      <c r="F161" s="7"/>
       <c r="G161" s="7">
         <f t="shared" si="28"/>
-        <v>21.603000000000002</v>
+        <v>0</v>
       </c>
       <c r="H161" s="7">
         <f t="shared" si="29"/>
-        <v>0.36005000000000004</v>
+        <v>0</v>
       </c>
       <c r="I161" s="112"/>
     </row>
@@ -21177,20 +20857,18 @@
       <c r="E162" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="F162" s="8">
-        <v>63177.5</v>
-      </c>
+      <c r="F162" s="8"/>
       <c r="G162" s="8">
         <f t="shared" si="28"/>
-        <v>63.177500000000002</v>
+        <v>0</v>
       </c>
       <c r="H162" s="8">
         <f t="shared" si="29"/>
-        <v>1.0529583333333334</v>
+        <v>0</v>
       </c>
       <c r="I162" s="116">
         <f t="shared" ref="I162" si="36">SUM(F162:F166)/5</f>
-        <v>59564.719999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -21203,16 +20881,14 @@
       </c>
       <c r="D163" s="116"/>
       <c r="E163" s="116"/>
-      <c r="F163" s="8">
-        <v>63311.7</v>
-      </c>
+      <c r="F163" s="8"/>
       <c r="G163" s="8">
         <f t="shared" si="28"/>
-        <v>63.311699999999995</v>
+        <v>0</v>
       </c>
       <c r="H163" s="8">
         <f t="shared" si="29"/>
-        <v>1.0551949999999999</v>
+        <v>0</v>
       </c>
       <c r="I163" s="116"/>
     </row>
@@ -21226,16 +20902,14 @@
       </c>
       <c r="D164" s="116"/>
       <c r="E164" s="116"/>
-      <c r="F164" s="8">
-        <v>64253.7</v>
-      </c>
+      <c r="F164" s="8"/>
       <c r="G164" s="8">
         <f t="shared" si="28"/>
-        <v>64.253699999999995</v>
+        <v>0</v>
       </c>
       <c r="H164" s="8">
         <f t="shared" si="29"/>
-        <v>1.0708949999999999</v>
+        <v>0</v>
       </c>
       <c r="I164" s="116"/>
     </row>
@@ -21249,16 +20923,14 @@
       </c>
       <c r="D165" s="116"/>
       <c r="E165" s="116"/>
-      <c r="F165" s="8">
-        <v>63372.7</v>
-      </c>
+      <c r="F165" s="8"/>
       <c r="G165" s="8">
         <f t="shared" si="28"/>
-        <v>63.372699999999995</v>
+        <v>0</v>
       </c>
       <c r="H165" s="8">
         <f t="shared" si="29"/>
-        <v>1.0562116666666665</v>
+        <v>0</v>
       </c>
       <c r="I165" s="116"/>
     </row>
@@ -21272,16 +20944,14 @@
       </c>
       <c r="D166" s="116"/>
       <c r="E166" s="116"/>
-      <c r="F166" s="8">
-        <v>43708</v>
-      </c>
+      <c r="F166" s="8"/>
       <c r="G166" s="8">
         <f t="shared" si="28"/>
-        <v>43.707999999999998</v>
+        <v>0</v>
       </c>
       <c r="H166" s="8">
         <f t="shared" si="29"/>
-        <v>0.7284666666666666</v>
+        <v>0</v>
       </c>
       <c r="I166" s="116"/>
     </row>
@@ -21301,20 +20971,18 @@
       <c r="E167" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="F167" s="9">
-        <v>49364.7</v>
-      </c>
+      <c r="F167" s="9"/>
       <c r="G167" s="9">
         <f t="shared" si="28"/>
-        <v>49.364699999999999</v>
+        <v>0</v>
       </c>
       <c r="H167" s="9">
         <f t="shared" si="29"/>
-        <v>0.82274499999999995</v>
+        <v>0</v>
       </c>
       <c r="I167" s="117">
         <f t="shared" ref="I167" si="37">SUM(F167:F171)/5</f>
-        <v>60408.339999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -21327,16 +20995,14 @@
       </c>
       <c r="D168" s="117"/>
       <c r="E168" s="117"/>
-      <c r="F168" s="9">
-        <v>62974.1</v>
-      </c>
+      <c r="F168" s="9"/>
       <c r="G168" s="9">
         <f t="shared" si="28"/>
-        <v>62.9741</v>
+        <v>0</v>
       </c>
       <c r="H168" s="9">
         <f t="shared" si="29"/>
-        <v>1.0495683333333334</v>
+        <v>0</v>
       </c>
       <c r="I168" s="117"/>
     </row>
@@ -21350,16 +21016,14 @@
       </c>
       <c r="D169" s="117"/>
       <c r="E169" s="117"/>
-      <c r="F169" s="9">
-        <v>63194</v>
-      </c>
+      <c r="F169" s="9"/>
       <c r="G169" s="9">
         <f t="shared" si="28"/>
-        <v>63.194000000000003</v>
+        <v>0</v>
       </c>
       <c r="H169" s="9">
         <f t="shared" si="29"/>
-        <v>1.0532333333333335</v>
+        <v>0</v>
       </c>
       <c r="I169" s="117"/>
     </row>
@@ -21373,16 +21037,14 @@
       </c>
       <c r="D170" s="117"/>
       <c r="E170" s="117"/>
-      <c r="F170" s="9">
-        <v>63414.9</v>
-      </c>
+      <c r="F170" s="9"/>
       <c r="G170" s="9">
         <f t="shared" si="28"/>
-        <v>63.414900000000003</v>
+        <v>0</v>
       </c>
       <c r="H170" s="9">
         <f t="shared" si="29"/>
-        <v>1.056915</v>
+        <v>0</v>
       </c>
       <c r="I170" s="117"/>
     </row>
@@ -21396,55 +21058,125 @@
       </c>
       <c r="D171" s="117"/>
       <c r="E171" s="117"/>
-      <c r="F171" s="9">
-        <v>63094</v>
-      </c>
+      <c r="F171" s="9"/>
       <c r="G171" s="9">
         <f t="shared" si="28"/>
-        <v>63.094000000000001</v>
+        <v>0</v>
       </c>
       <c r="H171" s="9">
         <f t="shared" si="29"/>
-        <v>1.0515666666666668</v>
+        <v>0</v>
       </c>
       <c r="I171" s="117"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F172">
         <f xml:space="preserve"> SUM(F2:F171)</f>
-        <v>11518654.200000001</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <f>F172/(1000*60)</f>
-        <v>191.97757000000001</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="I7:I11"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="E22:E26"/>
-    <mergeCell ref="I22:I26"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="E27:E31"/>
-    <mergeCell ref="I27:I31"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="E12:E16"/>
-    <mergeCell ref="I12:I16"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="E17:E21"/>
-    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="I162:I166"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="E167:E171"/>
+    <mergeCell ref="I167:I171"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="I152:I156"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="E157:E161"/>
+    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="E142:E146"/>
+    <mergeCell ref="I142:I146"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="E147:E151"/>
+    <mergeCell ref="I147:I151"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="E132:E136"/>
+    <mergeCell ref="I132:I136"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="E137:E141"/>
+    <mergeCell ref="I137:I141"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="I127:I131"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="I112:I116"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="E117:E121"/>
+    <mergeCell ref="I117:I121"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="E102:E106"/>
+    <mergeCell ref="I102:I106"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="E107:E111"/>
+    <mergeCell ref="I107:I111"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="E92:E96"/>
+    <mergeCell ref="I92:I96"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="E97:E101"/>
+    <mergeCell ref="I97:I101"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="E82:E86"/>
+    <mergeCell ref="I82:I86"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="E87:E91"/>
+    <mergeCell ref="I87:I91"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="E72:E76"/>
+    <mergeCell ref="I72:I76"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="E77:E81"/>
+    <mergeCell ref="I77:I81"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="E62:E66"/>
+    <mergeCell ref="I62:I66"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="E67:E71"/>
+    <mergeCell ref="I67:I71"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="E52:E56"/>
+    <mergeCell ref="I52:I56"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="D57:D61"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="I57:I61"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="D42:D46"/>
     <mergeCell ref="E42:E46"/>
@@ -21461,102 +21193,30 @@
     <mergeCell ref="D37:D41"/>
     <mergeCell ref="E37:E41"/>
     <mergeCell ref="I37:I41"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="E62:E66"/>
-    <mergeCell ref="I62:I66"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="E67:E71"/>
-    <mergeCell ref="I67:I71"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="E52:E56"/>
-    <mergeCell ref="I52:I56"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="I57:I61"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="E82:E86"/>
-    <mergeCell ref="I82:I86"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="E87:E91"/>
-    <mergeCell ref="I87:I91"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="E72:E76"/>
-    <mergeCell ref="I72:I76"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="E77:E81"/>
-    <mergeCell ref="I77:I81"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="E102:E106"/>
-    <mergeCell ref="I102:I106"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="E107:E111"/>
-    <mergeCell ref="I107:I111"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="E92:E96"/>
-    <mergeCell ref="I92:I96"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="E97:E101"/>
-    <mergeCell ref="I97:I101"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="I127:I131"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="I112:I116"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="E117:E121"/>
-    <mergeCell ref="I117:I121"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="E142:E146"/>
-    <mergeCell ref="I142:I146"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="E147:E151"/>
-    <mergeCell ref="I147:I151"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="E132:E136"/>
-    <mergeCell ref="I132:I136"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="E137:E141"/>
-    <mergeCell ref="I137:I141"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="E162:E166"/>
-    <mergeCell ref="I162:I166"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="E167:E171"/>
-    <mergeCell ref="I167:I171"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="I152:I156"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="D157:D161"/>
-    <mergeCell ref="E157:E161"/>
-    <mergeCell ref="I157:I161"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="E27:E31"/>
+    <mergeCell ref="I27:I31"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="E12:E16"/>
+    <mergeCell ref="I12:I16"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="E17:E21"/>
+    <mergeCell ref="I17:I21"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="I7:I11"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="D22:D26"/>
+    <mergeCell ref="E22:E26"/>
+    <mergeCell ref="I22:I26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21566,8 +21226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485C555F-0848-45A5-8409-C8CA3EDC28BC}">
   <dimension ref="A1:O171"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21590,16 +21250,16 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115">
-        <v>0</v>
-      </c>
-      <c r="D2" s="115">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113">
+        <v>0</v>
+      </c>
+      <c r="D2" s="113">
         <f>'Mediciones Optimización (2)'!I2:I6</f>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="G2" s="30" t="s">
         <v>20</v>
@@ -21630,167 +21290,167 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="115"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="115"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
       <c r="G3" s="32" t="s">
         <v>21</v>
       </c>
       <c r="H3" s="14">
         <f>$D$7</f>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" ref="I3:O3" si="0">$D$7</f>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" si="0"/>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="L3" s="14">
         <f t="shared" si="0"/>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" si="0"/>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" si="0"/>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="O3" s="15">
         <f t="shared" si="0"/>
-        <v>254726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
+      <c r="A4" s="113"/>
+      <c r="B4" s="113"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="G4" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="12">
         <f>$D$2</f>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" ref="I4:O4" si="1">$D$2</f>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="1"/>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="K4" s="12">
         <f t="shared" si="1"/>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="1"/>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="1"/>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="1"/>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
       <c r="O4" s="13">
         <f t="shared" si="1"/>
-        <v>67096.639999999985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
       <c r="G5" s="26" t="s">
         <v>23</v>
       </c>
       <c r="H5" s="16">
         <f>D27</f>
-        <v>253193.2</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16">
         <f>D47</f>
-        <v>132197.20000000001</v>
+        <v>0</v>
       </c>
       <c r="J5" s="16">
         <f>D67</f>
-        <v>79996.2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="16">
         <f>D87</f>
-        <v>74366.180000000008</v>
+        <v>0</v>
       </c>
       <c r="L5" s="16">
         <f>D107</f>
-        <v>59759.96</v>
+        <v>0</v>
       </c>
       <c r="M5" s="16">
         <f>D127</f>
-        <v>56189.319999999992</v>
+        <v>0</v>
       </c>
       <c r="N5" s="16">
         <f>D147</f>
-        <v>56143.08</v>
+        <v>0</v>
       </c>
       <c r="O5" s="17">
         <f>D167</f>
-        <v>60408.339999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="115"/>
-      <c r="B6" s="115"/>
-      <c r="C6" s="115"/>
-      <c r="D6" s="115"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
       <c r="G6" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="18">
         <f>D22</f>
-        <v>252188.79999999999</v>
+        <v>0</v>
       </c>
       <c r="I6" s="18">
         <f>D42</f>
-        <v>122818.9</v>
+        <v>0</v>
       </c>
       <c r="J6" s="18">
         <f>D62</f>
-        <v>76386.06</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
         <f>D82</f>
-        <v>70993.66</v>
+        <v>0</v>
       </c>
       <c r="L6" s="18">
         <f>D102</f>
-        <v>62424.220000000008</v>
+        <v>0</v>
       </c>
       <c r="M6" s="18">
         <f>D122</f>
-        <v>56237.1</v>
+        <v>0</v>
       </c>
       <c r="N6" s="18">
         <f>D142</f>
-        <v>60567.58</v>
+        <v>0</v>
       </c>
       <c r="O6" s="19">
         <f>D162</f>
-        <v>59564.719999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -21803,42 +21463,42 @@
       </c>
       <c r="D7" s="114">
         <f>'Mediciones Optimización (2)'!I7:I11</f>
-        <v>254726</v>
+        <v>0</v>
       </c>
       <c r="G7" s="28" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="20">
         <f>D17</f>
-        <v>65802.38</v>
+        <v>0</v>
       </c>
       <c r="I7" s="20">
         <f>D37</f>
-        <v>34992.639999999999</v>
+        <v>0</v>
       </c>
       <c r="J7" s="20">
         <f>D57</f>
-        <v>24258.9</v>
+        <v>0</v>
       </c>
       <c r="K7" s="20">
         <f>D77</f>
-        <v>21608.659999999996</v>
+        <v>0</v>
       </c>
       <c r="L7" s="20">
         <f>D97</f>
-        <v>17341.32</v>
+        <v>0</v>
       </c>
       <c r="M7" s="20">
         <f>D117</f>
-        <v>19996.98</v>
+        <v>0</v>
       </c>
       <c r="N7" s="20">
         <f>D137</f>
-        <v>19411.14</v>
+        <v>0</v>
       </c>
       <c r="O7" s="21">
         <f>D157</f>
-        <v>18914.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -21851,35 +21511,35 @@
       </c>
       <c r="H8" s="22">
         <f>D12</f>
-        <v>66700.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="22">
         <f>D32</f>
-        <v>32993.94</v>
+        <v>0</v>
       </c>
       <c r="J8" s="22">
         <f>D52</f>
-        <v>26377.120000000003</v>
+        <v>0</v>
       </c>
       <c r="K8" s="22">
         <f>D72</f>
-        <v>23896.339999999997</v>
+        <v>0</v>
       </c>
       <c r="L8" s="22">
         <f>D92</f>
-        <v>18268.879999999997</v>
+        <v>0</v>
       </c>
       <c r="M8" s="22">
         <f>D112</f>
-        <v>20798.82</v>
+        <v>0</v>
       </c>
       <c r="N8" s="22">
         <f>D132</f>
-        <v>18812.939999999999</v>
+        <v>0</v>
       </c>
       <c r="O8" s="23">
         <f>D152</f>
-        <v>18298.580000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -21901,43 +21561,43 @@
       <c r="D11" s="114"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="113">
+      <c r="C12" s="115">
         <v>1</v>
       </c>
-      <c r="D12" s="113">
+      <c r="D12" s="115">
         <f>'Mediciones Optimización (2)'!I12:I16</f>
-        <v>66700.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="113"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="112" t="s">
@@ -21951,7 +21611,7 @@
       </c>
       <c r="D17" s="112">
         <f>'Mediciones Optimización (2)'!I17:I21</f>
-        <v>65802.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -21990,7 +21650,7 @@
       </c>
       <c r="D22" s="116">
         <f>'Mediciones Optimización (2)'!I22:I26</f>
-        <v>252188.79999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -22029,7 +21689,7 @@
       </c>
       <c r="D27" s="117">
         <f>'Mediciones Optimización (2)'!I27:I31</f>
-        <v>253193.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -22057,43 +21717,43 @@
       <c r="D31" s="117"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="113" t="s">
+      <c r="B32" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="113">
+      <c r="C32" s="115">
         <v>2</v>
       </c>
-      <c r="D32" s="113">
+      <c r="D32" s="115">
         <f>'Mediciones Optimización (2)'!I32:I36</f>
-        <v>32993.94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
-      <c r="C33" s="113"/>
-      <c r="D33" s="113"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="115"/>
+      <c r="D33" s="115"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113"/>
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="115"/>
+      <c r="D34" s="115"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="113"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
+      <c r="D35" s="115"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="113"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="115"/>
+      <c r="D36" s="115"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="112" t="s">
@@ -22107,7 +21767,7 @@
       </c>
       <c r="D37" s="112">
         <f>'Mediciones Optimización (2)'!I37:I41</f>
-        <v>34992.639999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -22146,7 +21806,7 @@
       </c>
       <c r="D42" s="116">
         <f>'Mediciones Optimización (2)'!I42:I46</f>
-        <v>122818.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -22185,7 +21845,7 @@
       </c>
       <c r="D47" s="117">
         <f>'Mediciones Optimización (2)'!I47:I51</f>
-        <v>132197.20000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -22213,43 +21873,43 @@
       <c r="D51" s="117"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="113" t="s">
+      <c r="A52" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B52" s="113" t="s">
+      <c r="B52" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C52" s="113">
+      <c r="C52" s="115">
         <v>3</v>
       </c>
-      <c r="D52" s="113">
+      <c r="D52" s="115">
         <f>'Mediciones Optimización (2)'!I52:I56</f>
-        <v>26377.120000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="113"/>
-      <c r="B53" s="113"/>
-      <c r="C53" s="113"/>
-      <c r="D53" s="113"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="115"/>
+      <c r="D53" s="115"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
-      <c r="B54" s="113"/>
-      <c r="C54" s="113"/>
-      <c r="D54" s="113"/>
+      <c r="A54" s="115"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="115"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="113"/>
-      <c r="B55" s="113"/>
-      <c r="C55" s="113"/>
-      <c r="D55" s="113"/>
+      <c r="A55" s="115"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="115"/>
+      <c r="D55" s="115"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="113"/>
-      <c r="B56" s="113"/>
-      <c r="C56" s="113"/>
-      <c r="D56" s="113"/>
+      <c r="A56" s="115"/>
+      <c r="B56" s="115"/>
+      <c r="C56" s="115"/>
+      <c r="D56" s="115"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="112" t="s">
@@ -22263,7 +21923,7 @@
       </c>
       <c r="D57" s="112">
         <f>'Mediciones Optimización (2)'!I57:I61</f>
-        <v>24258.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -22302,7 +21962,7 @@
       </c>
       <c r="D62" s="116">
         <f>'Mediciones Optimización (2)'!I62:I66</f>
-        <v>76386.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -22341,7 +22001,7 @@
       </c>
       <c r="D67" s="117">
         <f>'Mediciones Optimización (2)'!I67:I71</f>
-        <v>79996.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -22369,43 +22029,43 @@
       <c r="D71" s="117"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="113" t="s">
+      <c r="A72" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B72" s="113" t="s">
+      <c r="B72" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C72" s="113">
+      <c r="C72" s="115">
         <v>4</v>
       </c>
-      <c r="D72" s="113">
+      <c r="D72" s="115">
         <f>'Mediciones Optimización (2)'!I72:I76</f>
-        <v>23896.339999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="113"/>
-      <c r="B73" s="113"/>
-      <c r="C73" s="113"/>
-      <c r="D73" s="113"/>
+      <c r="A73" s="115"/>
+      <c r="B73" s="115"/>
+      <c r="C73" s="115"/>
+      <c r="D73" s="115"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="113"/>
-      <c r="B74" s="113"/>
-      <c r="C74" s="113"/>
-      <c r="D74" s="113"/>
+      <c r="A74" s="115"/>
+      <c r="B74" s="115"/>
+      <c r="C74" s="115"/>
+      <c r="D74" s="115"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="113"/>
-      <c r="B75" s="113"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="113"/>
+      <c r="A75" s="115"/>
+      <c r="B75" s="115"/>
+      <c r="C75" s="115"/>
+      <c r="D75" s="115"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="113"/>
-      <c r="B76" s="113"/>
-      <c r="C76" s="113"/>
-      <c r="D76" s="113"/>
+      <c r="A76" s="115"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="115"/>
+      <c r="D76" s="115"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="112" t="s">
@@ -22419,7 +22079,7 @@
       </c>
       <c r="D77" s="112">
         <f>'Mediciones Optimización (2)'!I77:I81</f>
-        <v>21608.659999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -22458,7 +22118,7 @@
       </c>
       <c r="D82" s="116">
         <f>'Mediciones Optimización (2)'!I82:I86</f>
-        <v>70993.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -22497,7 +22157,7 @@
       </c>
       <c r="D87" s="117">
         <f>'Mediciones Optimización (2)'!I87:I91</f>
-        <v>74366.180000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -22525,43 +22185,43 @@
       <c r="D91" s="117"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="113" t="s">
+      <c r="A92" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="113" t="s">
+      <c r="B92" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C92" s="113">
+      <c r="C92" s="115">
         <v>5</v>
       </c>
-      <c r="D92" s="113">
+      <c r="D92" s="115">
         <f>'Mediciones Optimización (2)'!I92:I96</f>
-        <v>18268.879999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="113"/>
-      <c r="B93" s="113"/>
-      <c r="C93" s="113"/>
-      <c r="D93" s="113"/>
+      <c r="A93" s="115"/>
+      <c r="B93" s="115"/>
+      <c r="C93" s="115"/>
+      <c r="D93" s="115"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="113"/>
-      <c r="B94" s="113"/>
-      <c r="C94" s="113"/>
-      <c r="D94" s="113"/>
+      <c r="A94" s="115"/>
+      <c r="B94" s="115"/>
+      <c r="C94" s="115"/>
+      <c r="D94" s="115"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="113"/>
-      <c r="B95" s="113"/>
-      <c r="C95" s="113"/>
-      <c r="D95" s="113"/>
+      <c r="A95" s="115"/>
+      <c r="B95" s="115"/>
+      <c r="C95" s="115"/>
+      <c r="D95" s="115"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="113"/>
-      <c r="B96" s="113"/>
-      <c r="C96" s="113"/>
-      <c r="D96" s="113"/>
+      <c r="A96" s="115"/>
+      <c r="B96" s="115"/>
+      <c r="C96" s="115"/>
+      <c r="D96" s="115"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="112" t="s">
@@ -22575,7 +22235,7 @@
       </c>
       <c r="D97" s="112">
         <f>'Mediciones Optimización (2)'!I97:I101</f>
-        <v>17341.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -22614,7 +22274,7 @@
       </c>
       <c r="D102" s="116">
         <f>'Mediciones Optimización (2)'!I102:I106</f>
-        <v>62424.220000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -22653,7 +22313,7 @@
       </c>
       <c r="D107" s="117">
         <f>'Mediciones Optimización (2)'!I107:I111</f>
-        <v>59759.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -22681,43 +22341,43 @@
       <c r="D111" s="117"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="113" t="s">
+      <c r="A112" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B112" s="113" t="s">
+      <c r="B112" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C112" s="113">
+      <c r="C112" s="115">
         <v>6</v>
       </c>
-      <c r="D112" s="113">
+      <c r="D112" s="115">
         <f>'Mediciones Optimización (2)'!I112:I116</f>
-        <v>20798.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" s="113"/>
-      <c r="B113" s="113"/>
-      <c r="C113" s="113"/>
-      <c r="D113" s="113"/>
+      <c r="A113" s="115"/>
+      <c r="B113" s="115"/>
+      <c r="C113" s="115"/>
+      <c r="D113" s="115"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="113"/>
-      <c r="B114" s="113"/>
-      <c r="C114" s="113"/>
-      <c r="D114" s="113"/>
+      <c r="A114" s="115"/>
+      <c r="B114" s="115"/>
+      <c r="C114" s="115"/>
+      <c r="D114" s="115"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="113"/>
-      <c r="B115" s="113"/>
-      <c r="C115" s="113"/>
-      <c r="D115" s="113"/>
+      <c r="A115" s="115"/>
+      <c r="B115" s="115"/>
+      <c r="C115" s="115"/>
+      <c r="D115" s="115"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="113"/>
-      <c r="B116" s="113"/>
-      <c r="C116" s="113"/>
-      <c r="D116" s="113"/>
+      <c r="A116" s="115"/>
+      <c r="B116" s="115"/>
+      <c r="C116" s="115"/>
+      <c r="D116" s="115"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="112" t="s">
@@ -22731,7 +22391,7 @@
       </c>
       <c r="D117" s="112">
         <f>'Mediciones Optimización (2)'!I117:I121</f>
-        <v>19996.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -22770,7 +22430,7 @@
       </c>
       <c r="D122" s="116">
         <f>'Mediciones Optimización (2)'!I122:I126</f>
-        <v>56237.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -22809,7 +22469,7 @@
       </c>
       <c r="D127" s="117">
         <f>'Mediciones Optimización (2)'!I127:I131</f>
-        <v>56189.319999999992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -22837,43 +22497,43 @@
       <c r="D131" s="117"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="113" t="s">
+      <c r="A132" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B132" s="113" t="s">
+      <c r="B132" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C132" s="113">
+      <c r="C132" s="115">
         <v>7</v>
       </c>
-      <c r="D132" s="113">
+      <c r="D132" s="115">
         <f>'Mediciones Optimización (2)'!I132:I136</f>
-        <v>18812.939999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="113"/>
-      <c r="B133" s="113"/>
-      <c r="C133" s="113"/>
-      <c r="D133" s="113"/>
+      <c r="A133" s="115"/>
+      <c r="B133" s="115"/>
+      <c r="C133" s="115"/>
+      <c r="D133" s="115"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="113"/>
-      <c r="B134" s="113"/>
-      <c r="C134" s="113"/>
-      <c r="D134" s="113"/>
+      <c r="A134" s="115"/>
+      <c r="B134" s="115"/>
+      <c r="C134" s="115"/>
+      <c r="D134" s="115"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="113"/>
-      <c r="B135" s="113"/>
-      <c r="C135" s="113"/>
-      <c r="D135" s="113"/>
+      <c r="A135" s="115"/>
+      <c r="B135" s="115"/>
+      <c r="C135" s="115"/>
+      <c r="D135" s="115"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="113"/>
-      <c r="B136" s="113"/>
-      <c r="C136" s="113"/>
-      <c r="D136" s="113"/>
+      <c r="A136" s="115"/>
+      <c r="B136" s="115"/>
+      <c r="C136" s="115"/>
+      <c r="D136" s="115"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="112" t="s">
@@ -22887,7 +22547,7 @@
       </c>
       <c r="D137" s="112">
         <f>'Mediciones Optimización (2)'!I137:I141</f>
-        <v>19411.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -22926,7 +22586,7 @@
       </c>
       <c r="D142" s="116">
         <f>'Mediciones Optimización (2)'!I142:I146</f>
-        <v>60567.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -22965,7 +22625,7 @@
       </c>
       <c r="D147" s="117">
         <f>'Mediciones Optimización (2)'!I147:I151</f>
-        <v>56143.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -22993,43 +22653,43 @@
       <c r="D151" s="117"/>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="113" t="s">
+      <c r="A152" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="B152" s="113" t="s">
+      <c r="B152" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C152" s="113">
+      <c r="C152" s="115">
         <v>8</v>
       </c>
-      <c r="D152" s="113">
+      <c r="D152" s="115">
         <f>'Mediciones Optimización (2)'!I152:I156</f>
-        <v>18298.580000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="113"/>
-      <c r="B153" s="113"/>
-      <c r="C153" s="113"/>
-      <c r="D153" s="113"/>
+      <c r="A153" s="115"/>
+      <c r="B153" s="115"/>
+      <c r="C153" s="115"/>
+      <c r="D153" s="115"/>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="113"/>
-      <c r="B154" s="113"/>
-      <c r="C154" s="113"/>
-      <c r="D154" s="113"/>
+      <c r="A154" s="115"/>
+      <c r="B154" s="115"/>
+      <c r="C154" s="115"/>
+      <c r="D154" s="115"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="113"/>
-      <c r="B155" s="113"/>
-      <c r="C155" s="113"/>
-      <c r="D155" s="113"/>
+      <c r="A155" s="115"/>
+      <c r="B155" s="115"/>
+      <c r="C155" s="115"/>
+      <c r="D155" s="115"/>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="113"/>
-      <c r="B156" s="113"/>
-      <c r="C156" s="113"/>
-      <c r="D156" s="113"/>
+      <c r="A156" s="115"/>
+      <c r="B156" s="115"/>
+      <c r="C156" s="115"/>
+      <c r="D156" s="115"/>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="112" t="s">
@@ -23043,7 +22703,7 @@
       </c>
       <c r="D157" s="112">
         <f>'Mediciones Optimización (2)'!I157:I161</f>
-        <v>18914.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -23082,7 +22742,7 @@
       </c>
       <c r="D162" s="116">
         <f>'Mediciones Optimización (2)'!I162:I166</f>
-        <v>59564.719999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -23121,7 +22781,7 @@
       </c>
       <c r="D167" s="117">
         <f>'Mediciones Optimización (2)'!I167:I171</f>
-        <v>60408.339999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -23150,30 +22810,102 @@
     </row>
   </sheetData>
   <mergeCells count="136">
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="D7:D11"/>
-    <mergeCell ref="A22:A26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="D22:D26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="B27:B31"/>
-    <mergeCell ref="C27:C31"/>
-    <mergeCell ref="D27:D31"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="B12:B16"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="B17:B21"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="D162:D166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="B167:B171"/>
+    <mergeCell ref="C167:C171"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="D152:D156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="B157:B161"/>
+    <mergeCell ref="C157:C161"/>
+    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="D142:D146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="B147:B151"/>
+    <mergeCell ref="C147:C151"/>
+    <mergeCell ref="D147:D151"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="B132:B136"/>
+    <mergeCell ref="C132:C136"/>
+    <mergeCell ref="D132:D136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="B137:B141"/>
+    <mergeCell ref="C137:C141"/>
+    <mergeCell ref="D137:D141"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="D122:D126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="C127:C131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="D112:D116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="B117:B121"/>
+    <mergeCell ref="C117:C121"/>
+    <mergeCell ref="D117:D121"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="B102:B106"/>
+    <mergeCell ref="C102:C106"/>
+    <mergeCell ref="D102:D106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="D92:D96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="D97:D101"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="D82:D86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="B87:B91"/>
+    <mergeCell ref="C87:C91"/>
+    <mergeCell ref="D87:D91"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="B72:B76"/>
+    <mergeCell ref="C72:C76"/>
+    <mergeCell ref="D72:D76"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="C77:C81"/>
+    <mergeCell ref="D77:D81"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="B62:B66"/>
+    <mergeCell ref="C62:C66"/>
+    <mergeCell ref="D62:D66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="B67:B71"/>
+    <mergeCell ref="C67:C71"/>
+    <mergeCell ref="D67:D71"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="B52:B56"/>
+    <mergeCell ref="C52:C56"/>
+    <mergeCell ref="D52:D56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="B57:B61"/>
+    <mergeCell ref="C57:C61"/>
+    <mergeCell ref="D57:D61"/>
     <mergeCell ref="A42:A46"/>
     <mergeCell ref="B42:B46"/>
     <mergeCell ref="C42:C46"/>
@@ -23190,102 +22922,30 @@
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="C37:C41"/>
     <mergeCell ref="D37:D41"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="B62:B66"/>
-    <mergeCell ref="C62:C66"/>
-    <mergeCell ref="D62:D66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="B67:B71"/>
-    <mergeCell ref="C67:C71"/>
-    <mergeCell ref="D67:D71"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="B52:B56"/>
-    <mergeCell ref="C52:C56"/>
-    <mergeCell ref="D52:D56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="B57:B61"/>
-    <mergeCell ref="C57:C61"/>
-    <mergeCell ref="D57:D61"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="D82:D86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="B87:B91"/>
-    <mergeCell ref="C87:C91"/>
-    <mergeCell ref="D87:D91"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="B72:B76"/>
-    <mergeCell ref="C72:C76"/>
-    <mergeCell ref="D72:D76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="C77:C81"/>
-    <mergeCell ref="D77:D81"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="B102:B106"/>
-    <mergeCell ref="C102:C106"/>
-    <mergeCell ref="D102:D106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="D92:D96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="D97:D101"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="D122:D126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="C127:C131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="D112:D116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="B117:B121"/>
-    <mergeCell ref="C117:C121"/>
-    <mergeCell ref="D117:D121"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="D142:D146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="B147:B151"/>
-    <mergeCell ref="C147:C151"/>
-    <mergeCell ref="D147:D151"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="B132:B136"/>
-    <mergeCell ref="C132:C136"/>
-    <mergeCell ref="D132:D136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="B137:B141"/>
-    <mergeCell ref="C137:C141"/>
-    <mergeCell ref="D137:D141"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="B162:B166"/>
-    <mergeCell ref="C162:C166"/>
-    <mergeCell ref="D162:D166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="B167:B171"/>
-    <mergeCell ref="C167:C171"/>
-    <mergeCell ref="D167:D171"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="D152:D156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="B157:B161"/>
-    <mergeCell ref="C157:C161"/>
-    <mergeCell ref="D157:D161"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="B27:B31"/>
+    <mergeCell ref="C27:C31"/>
+    <mergeCell ref="D27:D31"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="B12:B16"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="D12:D16"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B17:B21"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="A22:A26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="D22:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -56479,7 +56139,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{280FDBA8-8E51-43B3-95D2-CBC7FFC796D8}">
   <dimension ref="A1:CS101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="CD2" sqref="CD2:CR101"/>
     </sheetView>
